--- a/excel/finished/能介/二空压站运行记录表.xlsx
+++ b/excel/finished/能介/二空压站运行记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_ACM_Main" sheetId="1" r:id="rId1"/>
@@ -1109,11 +1109,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1198,6 +1198,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1206,17 +1252,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,113 +1326,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,7 +1369,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,6 +1459,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1399,55 +1507,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,97 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,6 +2055,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2066,15 +2086,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2112,6 +2123,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2132,42 +2152,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2176,34 +2173,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2212,7 +2212,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2221,113 +2221,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2582,9 +2582,9 @@
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="常规 3 2 3 2" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="常规 3 4 3" xfId="7"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 3 4 3" xfId="6"/>
+    <cellStyle name="常规 3 2 3 2" xfId="7"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
@@ -2635,13 +2635,13 @@
     <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="56" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="57" builtinId="52"/>
-    <cellStyle name="常规 3 2 4" xfId="58"/>
-    <cellStyle name="常规 14" xfId="59"/>
+    <cellStyle name="常规 14" xfId="58"/>
+    <cellStyle name="常规 3 2 4" xfId="59"/>
     <cellStyle name="常规 2" xfId="60"/>
     <cellStyle name="常规 3 3 4" xfId="61"/>
     <cellStyle name="常规 3" xfId="62"/>
-    <cellStyle name="常规 3 3 3" xfId="63"/>
-    <cellStyle name="常规 3 2 2 2" xfId="64"/>
+    <cellStyle name="常规 3 2 2 2" xfId="63"/>
+    <cellStyle name="常规 3 3 3" xfId="64"/>
     <cellStyle name="常规 3 2 3" xfId="65"/>
     <cellStyle name="常规 3 2 5" xfId="66"/>
     <cellStyle name="常规 3 3 2" xfId="67"/>
@@ -2958,7 +2958,7 @@
   <dimension ref="A1:DE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8166666666667" defaultRowHeight="13.5"/>
@@ -4466,33 +4466,33 @@
         <f>IF(_acsReport_day_each!CK2="","",_acsReport_day_each!CK2)</f>
         <v/>
       </c>
-      <c r="CN8" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL2:CP2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO8" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ2:CU2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP8" s="68">
-        <f>IF(_acsReport_day_each!CV2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="68">
-        <f>IF(_acsReport_day_each!CW2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR8" s="68">
-        <f>IF(_acsReport_day_each!CX2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS8" s="68">
-        <f>IF(_acsReport_day_each!CY2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT8" s="68">
-        <f>IF(_acsReport_day_each!CZ2&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN8" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL2="","",AVERAGE(_acsReport_day_each!CL2:CP2))</f>
+        <v/>
+      </c>
+      <c r="CO8" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ2="","",AVERAGE(_acsReport_day_each!CQ2:CU2))</f>
+        <v/>
+      </c>
+      <c r="CP8" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV2="","",IF(_acsReport_day_each!CV2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ8" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW2="","",IF(_acsReport_day_each!CW2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR8" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX2="","",IF(_acsReport_day_each!CX2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS8" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY2="","",IF(_acsReport_day_each!CY2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT8" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ2="","",IF(_acsReport_day_each!CZ2&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU8" s="33" t="str">
         <f>IF(_acsReport_day_each!CL2="","",_acsReport_day_each!CL2)</f>
@@ -4895,33 +4895,33 @@
         <f>IF(_acsReport_day_each!CK3="","",_acsReport_day_each!CK3)</f>
         <v/>
       </c>
-      <c r="CN9" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL3:CP3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO9" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ3:CU3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP9" s="68">
-        <f>IF(_acsReport_day_each!CV3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="68">
-        <f>IF(_acsReport_day_each!CW3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR9" s="68">
-        <f>IF(_acsReport_day_each!CX3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS9" s="68">
-        <f>IF(_acsReport_day_each!CY3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT9" s="68">
-        <f>IF(_acsReport_day_each!CZ3&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN9" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL3="","",AVERAGE(_acsReport_day_each!CL3:CP3))</f>
+        <v/>
+      </c>
+      <c r="CO9" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ3="","",AVERAGE(_acsReport_day_each!CQ3:CU3))</f>
+        <v/>
+      </c>
+      <c r="CP9" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV3="","",IF(_acsReport_day_each!CV3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ9" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW3="","",IF(_acsReport_day_each!CW3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR9" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX3="","",IF(_acsReport_day_each!CX3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS9" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY3="","",IF(_acsReport_day_each!CY3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT9" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ3="","",IF(_acsReport_day_each!CZ3&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU9" s="33" t="str">
         <f>IF(_acsReport_day_each!CL3="","",_acsReport_day_each!CL3)</f>
@@ -5324,33 +5324,33 @@
         <f>IF(_acsReport_day_each!CK4="","",_acsReport_day_each!CK4)</f>
         <v/>
       </c>
-      <c r="CN10" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL4:CP4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO10" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ4:CU4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP10" s="68">
-        <f>IF(_acsReport_day_each!CV4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="68">
-        <f>IF(_acsReport_day_each!CW4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR10" s="68">
-        <f>IF(_acsReport_day_each!CX4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS10" s="68">
-        <f>IF(_acsReport_day_each!CY4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT10" s="68">
-        <f>IF(_acsReport_day_each!CZ4&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN10" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL4="","",AVERAGE(_acsReport_day_each!CL4:CP4))</f>
+        <v/>
+      </c>
+      <c r="CO10" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ4="","",AVERAGE(_acsReport_day_each!CQ4:CU4))</f>
+        <v/>
+      </c>
+      <c r="CP10" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV4="","",IF(_acsReport_day_each!CV4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ10" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW4="","",IF(_acsReport_day_each!CW4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR10" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX4="","",IF(_acsReport_day_each!CX4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS10" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY4="","",IF(_acsReport_day_each!CY4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT10" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ4="","",IF(_acsReport_day_each!CZ4&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU10" s="33" t="str">
         <f>IF(_acsReport_day_each!CL4="","",_acsReport_day_each!CL4)</f>
@@ -5753,33 +5753,33 @@
         <f>IF(_acsReport_day_each!CK5="","",_acsReport_day_each!CK5)</f>
         <v/>
       </c>
-      <c r="CN11" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL5:CP5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO11" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ5:CU5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP11" s="68">
-        <f>IF(_acsReport_day_each!CV5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="68">
-        <f>IF(_acsReport_day_each!CW5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR11" s="68">
-        <f>IF(_acsReport_day_each!CX5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS11" s="68">
-        <f>IF(_acsReport_day_each!CY5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT11" s="68">
-        <f>IF(_acsReport_day_each!CZ5&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN11" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL5="","",AVERAGE(_acsReport_day_each!CL5:CP5))</f>
+        <v/>
+      </c>
+      <c r="CO11" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ5="","",AVERAGE(_acsReport_day_each!CQ5:CU5))</f>
+        <v/>
+      </c>
+      <c r="CP11" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV5="","",IF(_acsReport_day_each!CV5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ11" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW5="","",IF(_acsReport_day_each!CW5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR11" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX5="","",IF(_acsReport_day_each!CX5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS11" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY5="","",IF(_acsReport_day_each!CY5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT11" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ5="","",IF(_acsReport_day_each!CZ5&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU11" s="33" t="str">
         <f>IF(_acsReport_day_each!CL5="","",_acsReport_day_each!CL5)</f>
@@ -6182,33 +6182,33 @@
         <f>IF(_acsReport_day_each!CK6="","",_acsReport_day_each!CK6)</f>
         <v/>
       </c>
-      <c r="CN12" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL6:CP6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO12" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ6:CU6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP12" s="68">
-        <f>IF(_acsReport_day_each!CV6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="68">
-        <f>IF(_acsReport_day_each!CW6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR12" s="68">
-        <f>IF(_acsReport_day_each!CX6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS12" s="68">
-        <f>IF(_acsReport_day_each!CY6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT12" s="68">
-        <f>IF(_acsReport_day_each!CZ6&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN12" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL6="","",AVERAGE(_acsReport_day_each!CL6:CP6))</f>
+        <v/>
+      </c>
+      <c r="CO12" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ6="","",AVERAGE(_acsReport_day_each!CQ6:CU6))</f>
+        <v/>
+      </c>
+      <c r="CP12" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV6="","",IF(_acsReport_day_each!CV6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ12" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW6="","",IF(_acsReport_day_each!CW6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR12" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX6="","",IF(_acsReport_day_each!CX6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS12" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY6="","",IF(_acsReport_day_each!CY6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT12" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ6="","",IF(_acsReport_day_each!CZ6&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU12" s="33" t="str">
         <f>IF(_acsReport_day_each!CL6="","",_acsReport_day_each!CL6)</f>
@@ -6611,33 +6611,33 @@
         <f>IF(_acsReport_day_each!CK7="","",_acsReport_day_each!CK7)</f>
         <v/>
       </c>
-      <c r="CN13" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL7:CP7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO13" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ7:CU7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP13" s="68">
-        <f>IF(_acsReport_day_each!CV7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ13" s="68">
-        <f>IF(_acsReport_day_each!CW7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR13" s="68">
-        <f>IF(_acsReport_day_each!CX7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS13" s="68">
-        <f>IF(_acsReport_day_each!CY7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT13" s="68">
-        <f>IF(_acsReport_day_each!CZ7&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN13" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL7="","",AVERAGE(_acsReport_day_each!CL7:CP7))</f>
+        <v/>
+      </c>
+      <c r="CO13" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ7="","",AVERAGE(_acsReport_day_each!CQ7:CU7))</f>
+        <v/>
+      </c>
+      <c r="CP13" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV7="","",IF(_acsReport_day_each!CV7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ13" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW7="","",IF(_acsReport_day_each!CW7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR13" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX7="","",IF(_acsReport_day_each!CX7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS13" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY7="","",IF(_acsReport_day_each!CY7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT13" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ7="","",IF(_acsReport_day_each!CZ7&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU13" s="33" t="str">
         <f>IF(_acsReport_day_each!CL7="","",_acsReport_day_each!CL7)</f>
@@ -7040,33 +7040,33 @@
         <f>IF(_acsReport_day_each!CK8="","",_acsReport_day_each!CK8)</f>
         <v/>
       </c>
-      <c r="CN14" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL8:CP8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO14" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ8:CU8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP14" s="68">
-        <f>IF(_acsReport_day_each!CV8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ14" s="68">
-        <f>IF(_acsReport_day_each!CW8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR14" s="68">
-        <f>IF(_acsReport_day_each!CX8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS14" s="68">
-        <f>IF(_acsReport_day_each!CY8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT14" s="68">
-        <f>IF(_acsReport_day_each!CZ8&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN14" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL8="","",AVERAGE(_acsReport_day_each!CL8:CP8))</f>
+        <v/>
+      </c>
+      <c r="CO14" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ8="","",AVERAGE(_acsReport_day_each!CQ8:CU8))</f>
+        <v/>
+      </c>
+      <c r="CP14" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV8="","",IF(_acsReport_day_each!CV8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ14" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW8="","",IF(_acsReport_day_each!CW8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR14" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX8="","",IF(_acsReport_day_each!CX8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS14" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY8="","",IF(_acsReport_day_each!CY8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT14" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ8="","",IF(_acsReport_day_each!CZ8&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU14" s="33" t="str">
         <f>IF(_acsReport_day_each!CL8="","",_acsReport_day_each!CL8)</f>
@@ -7469,33 +7469,33 @@
         <f>IF(_acsReport_day_each!CK9="","",_acsReport_day_each!CK9)</f>
         <v/>
       </c>
-      <c r="CN15" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL9:CP9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO15" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ9:CU9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP15" s="68">
-        <f>IF(_acsReport_day_each!CV9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ15" s="68">
-        <f>IF(_acsReport_day_each!CW9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR15" s="68">
-        <f>IF(_acsReport_day_each!CX9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS15" s="68">
-        <f>IF(_acsReport_day_each!CY9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT15" s="68">
-        <f>IF(_acsReport_day_each!CZ9&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN15" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL9="","",AVERAGE(_acsReport_day_each!CL9:CP9))</f>
+        <v/>
+      </c>
+      <c r="CO15" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ9="","",AVERAGE(_acsReport_day_each!CQ9:CU9))</f>
+        <v/>
+      </c>
+      <c r="CP15" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV9="","",IF(_acsReport_day_each!CV9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ15" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW9="","",IF(_acsReport_day_each!CW9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR15" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX9="","",IF(_acsReport_day_each!CX9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS15" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY9="","",IF(_acsReport_day_each!CY9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT15" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ9="","",IF(_acsReport_day_each!CZ9&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU15" s="37" t="str">
         <f>IF(_acsReport_day_each!CL9="","",_acsReport_day_each!CL9)</f>
@@ -7898,33 +7898,33 @@
         <f>IF(_acsReport_day_each!CK10="","",_acsReport_day_each!CK10)</f>
         <v/>
       </c>
-      <c r="CN16" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL10:CP10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO16" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ10:CU10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP16" s="68">
-        <f>IF(_acsReport_day_each!CV10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ16" s="68">
-        <f>IF(_acsReport_day_each!CW10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR16" s="68">
-        <f>IF(_acsReport_day_each!CX10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS16" s="68">
-        <f>IF(_acsReport_day_each!CY10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT16" s="68">
-        <f>IF(_acsReport_day_each!CZ10&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN16" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL10="","",AVERAGE(_acsReport_day_each!CL10:CP10))</f>
+        <v/>
+      </c>
+      <c r="CO16" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ10="","",AVERAGE(_acsReport_day_each!CQ10:CU10))</f>
+        <v/>
+      </c>
+      <c r="CP16" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV10="","",IF(_acsReport_day_each!CV10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ16" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW10="","",IF(_acsReport_day_each!CW10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR16" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX10="","",IF(_acsReport_day_each!CX10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS16" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY10="","",IF(_acsReport_day_each!CY10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT16" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ10="","",IF(_acsReport_day_each!CZ10&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU16" s="45" t="str">
         <f>IF(_acsReport_day_each!CL10="","",_acsReport_day_each!CL10)</f>
@@ -8327,33 +8327,33 @@
         <f>IF(_acsReport_day_each!CK11="","",_acsReport_day_each!CK11)</f>
         <v/>
       </c>
-      <c r="CN17" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL11:CP11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO17" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ11:CU11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP17" s="68">
-        <f>IF(_acsReport_day_each!CV11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ17" s="68">
-        <f>IF(_acsReport_day_each!CW11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR17" s="68">
-        <f>IF(_acsReport_day_each!CX11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS17" s="68">
-        <f>IF(_acsReport_day_each!CY11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT17" s="68">
-        <f>IF(_acsReport_day_each!CZ11&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN17" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL11="","",AVERAGE(_acsReport_day_each!CL11:CP11))</f>
+        <v/>
+      </c>
+      <c r="CO17" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ11="","",AVERAGE(_acsReport_day_each!CQ11:CU11))</f>
+        <v/>
+      </c>
+      <c r="CP17" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV11="","",IF(_acsReport_day_each!CV11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ17" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW11="","",IF(_acsReport_day_each!CW11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR17" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX11="","",IF(_acsReport_day_each!CX11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS17" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY11="","",IF(_acsReport_day_each!CY11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT17" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ11="","",IF(_acsReport_day_each!CZ11&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU17" s="33" t="str">
         <f>IF(_acsReport_day_each!CL11="","",_acsReport_day_each!CL11)</f>
@@ -8756,33 +8756,33 @@
         <f>IF(_acsReport_day_each!CK12="","",_acsReport_day_each!CK12)</f>
         <v/>
       </c>
-      <c r="CN18" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL12:CP12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO18" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ12:CU12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP18" s="68">
-        <f>IF(_acsReport_day_each!CV12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ18" s="68">
-        <f>IF(_acsReport_day_each!CW12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR18" s="68">
-        <f>IF(_acsReport_day_each!CX12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS18" s="68">
-        <f>IF(_acsReport_day_each!CY12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT18" s="68">
-        <f>IF(_acsReport_day_each!CZ12&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN18" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL12="","",AVERAGE(_acsReport_day_each!CL12:CP12))</f>
+        <v/>
+      </c>
+      <c r="CO18" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ12="","",AVERAGE(_acsReport_day_each!CQ12:CU12))</f>
+        <v/>
+      </c>
+      <c r="CP18" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV12="","",IF(_acsReport_day_each!CV12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ18" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW12="","",IF(_acsReport_day_each!CW12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR18" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX12="","",IF(_acsReport_day_each!CX12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS18" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY12="","",IF(_acsReport_day_each!CY12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT18" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ12="","",IF(_acsReport_day_each!CZ12&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU18" s="33" t="str">
         <f>IF(_acsReport_day_each!CL12="","",_acsReport_day_each!CL12)</f>
@@ -9185,33 +9185,33 @@
         <f>IF(_acsReport_day_each!CK13="","",_acsReport_day_each!CK13)</f>
         <v/>
       </c>
-      <c r="CN19" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL13:CP13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO19" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ13:CU13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP19" s="68">
-        <f>IF(_acsReport_day_each!CV13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ19" s="68">
-        <f>IF(_acsReport_day_each!CW13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR19" s="68">
-        <f>IF(_acsReport_day_each!CX13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS19" s="68">
-        <f>IF(_acsReport_day_each!CY13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT19" s="68">
-        <f>IF(_acsReport_day_each!CZ13&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN19" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL13="","",AVERAGE(_acsReport_day_each!CL13:CP13))</f>
+        <v/>
+      </c>
+      <c r="CO19" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ13="","",AVERAGE(_acsReport_day_each!CQ13:CU13))</f>
+        <v/>
+      </c>
+      <c r="CP19" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV13="","",IF(_acsReport_day_each!CV13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ19" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW13="","",IF(_acsReport_day_each!CW13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR19" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX13="","",IF(_acsReport_day_each!CX13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS19" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY13="","",IF(_acsReport_day_each!CY13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT19" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ13="","",IF(_acsReport_day_each!CZ13&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU19" s="33" t="str">
         <f>IF(_acsReport_day_each!CL13="","",_acsReport_day_each!CL13)</f>
@@ -9614,33 +9614,33 @@
         <f>IF(_acsReport_day_each!CK14="","",_acsReport_day_each!CK14)</f>
         <v/>
       </c>
-      <c r="CN20" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL14:CP14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO20" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ14:CU14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP20" s="68">
-        <f>IF(_acsReport_day_each!CV14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ20" s="68">
-        <f>IF(_acsReport_day_each!CW14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR20" s="68">
-        <f>IF(_acsReport_day_each!CX14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS20" s="68">
-        <f>IF(_acsReport_day_each!CY14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT20" s="68">
-        <f>IF(_acsReport_day_each!CZ14&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN20" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL14="","",AVERAGE(_acsReport_day_each!CL14:CP14))</f>
+        <v/>
+      </c>
+      <c r="CO20" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ14="","",AVERAGE(_acsReport_day_each!CQ14:CU14))</f>
+        <v/>
+      </c>
+      <c r="CP20" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV14="","",IF(_acsReport_day_each!CV14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ20" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW14="","",IF(_acsReport_day_each!CW14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR20" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX14="","",IF(_acsReport_day_each!CX14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS20" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY14="","",IF(_acsReport_day_each!CY14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT20" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ14="","",IF(_acsReport_day_each!CZ14&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU20" s="33" t="str">
         <f>IF(_acsReport_day_each!CL14="","",_acsReport_day_each!CL14)</f>
@@ -10043,33 +10043,33 @@
         <f>IF(_acsReport_day_each!CK15="","",_acsReport_day_each!CK15)</f>
         <v/>
       </c>
-      <c r="CN21" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL15:CP15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO21" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ15:CU15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP21" s="68">
-        <f>IF(_acsReport_day_each!CV15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ21" s="68">
-        <f>IF(_acsReport_day_each!CW15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR21" s="68">
-        <f>IF(_acsReport_day_each!CX15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS21" s="68">
-        <f>IF(_acsReport_day_each!CY15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT21" s="68">
-        <f>IF(_acsReport_day_each!CZ15&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN21" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL15="","",AVERAGE(_acsReport_day_each!CL15:CP15))</f>
+        <v/>
+      </c>
+      <c r="CO21" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ15="","",AVERAGE(_acsReport_day_each!CQ15:CU15))</f>
+        <v/>
+      </c>
+      <c r="CP21" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV15="","",IF(_acsReport_day_each!CV15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ21" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW15="","",IF(_acsReport_day_each!CW15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR21" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX15="","",IF(_acsReport_day_each!CX15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS21" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY15="","",IF(_acsReport_day_each!CY15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT21" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ15="","",IF(_acsReport_day_each!CZ15&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU21" s="33" t="str">
         <f>IF(_acsReport_day_each!CL15="","",_acsReport_day_each!CL15)</f>
@@ -10472,33 +10472,33 @@
         <f>IF(_acsReport_day_each!CK16="","",_acsReport_day_each!CK16)</f>
         <v/>
       </c>
-      <c r="CN22" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL16:CP16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO22" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ16:CU16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP22" s="68">
-        <f>IF(_acsReport_day_each!CV16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ22" s="68">
-        <f>IF(_acsReport_day_each!CW16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR22" s="68">
-        <f>IF(_acsReport_day_each!CX16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS22" s="68">
-        <f>IF(_acsReport_day_each!CY16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT22" s="68">
-        <f>IF(_acsReport_day_each!CZ16&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN22" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL16="","",AVERAGE(_acsReport_day_each!CL16:CP16))</f>
+        <v/>
+      </c>
+      <c r="CO22" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ16="","",AVERAGE(_acsReport_day_each!CQ16:CU16))</f>
+        <v/>
+      </c>
+      <c r="CP22" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV16="","",IF(_acsReport_day_each!CV16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ22" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW16="","",IF(_acsReport_day_each!CW16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR22" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX16="","",IF(_acsReport_day_each!CX16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS22" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY16="","",IF(_acsReport_day_each!CY16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT22" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ16="","",IF(_acsReport_day_each!CZ16&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU22" s="33" t="str">
         <f>IF(_acsReport_day_each!CL16="","",_acsReport_day_each!CL16)</f>
@@ -10901,33 +10901,33 @@
         <f>IF(_acsReport_day_each!CK17="","",_acsReport_day_each!CK17)</f>
         <v/>
       </c>
-      <c r="CN23" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL17:CP17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO23" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ17:CU17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP23" s="68">
-        <f>IF(_acsReport_day_each!CV17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ23" s="68">
-        <f>IF(_acsReport_day_each!CW17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR23" s="68">
-        <f>IF(_acsReport_day_each!CX17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS23" s="68">
-        <f>IF(_acsReport_day_each!CY17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT23" s="68">
-        <f>IF(_acsReport_day_each!CZ17&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN23" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL17="","",AVERAGE(_acsReport_day_each!CL17:CP17))</f>
+        <v/>
+      </c>
+      <c r="CO23" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ17="","",AVERAGE(_acsReport_day_each!CQ17:CU17))</f>
+        <v/>
+      </c>
+      <c r="CP23" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV17="","",IF(_acsReport_day_each!CV17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ23" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW17="","",IF(_acsReport_day_each!CW17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR23" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX17="","",IF(_acsReport_day_each!CX17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS23" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY17="","",IF(_acsReport_day_each!CY17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT23" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ17="","",IF(_acsReport_day_each!CZ17&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU23" s="37" t="str">
         <f>IF(_acsReport_day_each!CL17="","",_acsReport_day_each!CL17)</f>
@@ -11330,33 +11330,33 @@
         <f>IF(_acsReport_day_each!CK18="","",_acsReport_day_each!CK18)</f>
         <v/>
       </c>
-      <c r="CN24" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL18:CP18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO24" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ18:CU18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP24" s="68">
-        <f>IF(_acsReport_day_each!CV18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ24" s="68">
-        <f>IF(_acsReport_day_each!CW18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR24" s="68">
-        <f>IF(_acsReport_day_each!CX18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS24" s="68">
-        <f>IF(_acsReport_day_each!CY18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT24" s="68">
-        <f>IF(_acsReport_day_each!CZ18&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN24" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL18="","",AVERAGE(_acsReport_day_each!CL18:CP18))</f>
+        <v/>
+      </c>
+      <c r="CO24" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ18="","",AVERAGE(_acsReport_day_each!CQ18:CU18))</f>
+        <v/>
+      </c>
+      <c r="CP24" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV18="","",IF(_acsReport_day_each!CV18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ24" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW18="","",IF(_acsReport_day_each!CW18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR24" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX18="","",IF(_acsReport_day_each!CX18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS24" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY18="","",IF(_acsReport_day_each!CY18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT24" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ18="","",IF(_acsReport_day_each!CZ18&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU24" s="45" t="str">
         <f>IF(_acsReport_day_each!CL18="","",_acsReport_day_each!CL18)</f>
@@ -11759,33 +11759,33 @@
         <f>IF(_acsReport_day_each!CK19="","",_acsReport_day_each!CK19)</f>
         <v/>
       </c>
-      <c r="CN25" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL19:CP19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO25" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ19:CU19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP25" s="68">
-        <f>IF(_acsReport_day_each!CV19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ25" s="68">
-        <f>IF(_acsReport_day_each!CW19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR25" s="68">
-        <f>IF(_acsReport_day_each!CX19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS25" s="68">
-        <f>IF(_acsReport_day_each!CY19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT25" s="68">
-        <f>IF(_acsReport_day_each!CZ19&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN25" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL19="","",AVERAGE(_acsReport_day_each!CL19:CP19))</f>
+        <v/>
+      </c>
+      <c r="CO25" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ19="","",AVERAGE(_acsReport_day_each!CQ19:CU19))</f>
+        <v/>
+      </c>
+      <c r="CP25" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV19="","",IF(_acsReport_day_each!CV19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ25" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW19="","",IF(_acsReport_day_each!CW19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR25" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX19="","",IF(_acsReport_day_each!CX19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS25" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY19="","",IF(_acsReport_day_each!CY19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT25" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ19="","",IF(_acsReport_day_each!CZ19&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU25" s="33" t="str">
         <f>IF(_acsReport_day_each!CL19="","",_acsReport_day_each!CL19)</f>
@@ -12188,33 +12188,33 @@
         <f>IF(_acsReport_day_each!CK20="","",_acsReport_day_each!CK20)</f>
         <v/>
       </c>
-      <c r="CN26" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL20:CP20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO26" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ20:CU20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP26" s="68">
-        <f>IF(_acsReport_day_each!CV20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ26" s="68">
-        <f>IF(_acsReport_day_each!CW20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR26" s="68">
-        <f>IF(_acsReport_day_each!CX20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS26" s="68">
-        <f>IF(_acsReport_day_each!CY20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT26" s="68">
-        <f>IF(_acsReport_day_each!CZ20&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN26" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL20="","",AVERAGE(_acsReport_day_each!CL20:CP20))</f>
+        <v/>
+      </c>
+      <c r="CO26" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ20="","",AVERAGE(_acsReport_day_each!CQ20:CU20))</f>
+        <v/>
+      </c>
+      <c r="CP26" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV20="","",IF(_acsReport_day_each!CV20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ26" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW20="","",IF(_acsReport_day_each!CW20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR26" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX20="","",IF(_acsReport_day_each!CX20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS26" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY20="","",IF(_acsReport_day_each!CY20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT26" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ20="","",IF(_acsReport_day_each!CZ20&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU26" s="33" t="str">
         <f>IF(_acsReport_day_each!CL20="","",_acsReport_day_each!CL20)</f>
@@ -12617,33 +12617,33 @@
         <f>IF(_acsReport_day_each!CK21="","",_acsReport_day_each!CK21)</f>
         <v/>
       </c>
-      <c r="CN27" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL21:CP21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO27" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ21:CU21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP27" s="68">
-        <f>IF(_acsReport_day_each!CV21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ27" s="68">
-        <f>IF(_acsReport_day_each!CW21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR27" s="68">
-        <f>IF(_acsReport_day_each!CX21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS27" s="68">
-        <f>IF(_acsReport_day_each!CY21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT27" s="68">
-        <f>IF(_acsReport_day_each!CZ21&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN27" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL21="","",AVERAGE(_acsReport_day_each!CL21:CP21))</f>
+        <v/>
+      </c>
+      <c r="CO27" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ21="","",AVERAGE(_acsReport_day_each!CQ21:CU21))</f>
+        <v/>
+      </c>
+      <c r="CP27" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV21="","",IF(_acsReport_day_each!CV21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ27" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW21="","",IF(_acsReport_day_each!CW21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR27" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX21="","",IF(_acsReport_day_each!CX21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS27" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY21="","",IF(_acsReport_day_each!CY21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT27" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ21="","",IF(_acsReport_day_each!CZ21&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU27" s="33" t="str">
         <f>IF(_acsReport_day_each!CL21="","",_acsReport_day_each!CL21)</f>
@@ -13046,33 +13046,33 @@
         <f>IF(_acsReport_day_each!CK22="","",_acsReport_day_each!CK22)</f>
         <v/>
       </c>
-      <c r="CN28" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL22:CP22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO28" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ22:CU22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP28" s="68">
-        <f>IF(_acsReport_day_each!CV22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ28" s="68">
-        <f>IF(_acsReport_day_each!CW22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR28" s="68">
-        <f>IF(_acsReport_day_each!CX22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS28" s="68">
-        <f>IF(_acsReport_day_each!CY22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT28" s="68">
-        <f>IF(_acsReport_day_each!CZ22&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN28" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL22="","",AVERAGE(_acsReport_day_each!CL22:CP22))</f>
+        <v/>
+      </c>
+      <c r="CO28" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ22="","",AVERAGE(_acsReport_day_each!CQ22:CU22))</f>
+        <v/>
+      </c>
+      <c r="CP28" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV22="","",IF(_acsReport_day_each!CV22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ28" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW22="","",IF(_acsReport_day_each!CW22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR28" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX22="","",IF(_acsReport_day_each!CX22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS28" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY22="","",IF(_acsReport_day_each!CY22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT28" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ22="","",IF(_acsReport_day_each!CZ22&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU28" s="33" t="str">
         <f>IF(_acsReport_day_each!CL22="","",_acsReport_day_each!CL22)</f>
@@ -13475,33 +13475,33 @@
         <f>IF(_acsReport_day_each!CK23="","",_acsReport_day_each!CK23)</f>
         <v/>
       </c>
-      <c r="CN29" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL23:CP23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO29" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ23:CU23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP29" s="68">
-        <f>IF(_acsReport_day_each!CV23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ29" s="68">
-        <f>IF(_acsReport_day_each!CW23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR29" s="68">
-        <f>IF(_acsReport_day_each!CX23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS29" s="68">
-        <f>IF(_acsReport_day_each!CY23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT29" s="68">
-        <f>IF(_acsReport_day_each!CZ23&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN29" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL23="","",AVERAGE(_acsReport_day_each!CL23:CP23))</f>
+        <v/>
+      </c>
+      <c r="CO29" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ23="","",AVERAGE(_acsReport_day_each!CQ23:CU23))</f>
+        <v/>
+      </c>
+      <c r="CP29" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV23="","",IF(_acsReport_day_each!CV23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ29" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW23="","",IF(_acsReport_day_each!CW23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR29" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX23="","",IF(_acsReport_day_each!CX23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS29" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY23="","",IF(_acsReport_day_each!CY23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT29" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ23="","",IF(_acsReport_day_each!CZ23&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU29" s="33" t="str">
         <f>IF(_acsReport_day_each!CL23="","",_acsReport_day_each!CL23)</f>
@@ -13904,33 +13904,33 @@
         <f>IF(_acsReport_day_each!CK24="","",_acsReport_day_each!CK24)</f>
         <v/>
       </c>
-      <c r="CN30" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL24:CP24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO30" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ24:CU24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP30" s="68">
-        <f>IF(_acsReport_day_each!CV24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ30" s="68">
-        <f>IF(_acsReport_day_each!CW24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR30" s="68">
-        <f>IF(_acsReport_day_each!CX24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS30" s="68">
-        <f>IF(_acsReport_day_each!CY24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT30" s="68">
-        <f>IF(_acsReport_day_each!CZ24&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN30" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL24="","",AVERAGE(_acsReport_day_each!CL24:CP24))</f>
+        <v/>
+      </c>
+      <c r="CO30" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ24="","",AVERAGE(_acsReport_day_each!CQ24:CU24))</f>
+        <v/>
+      </c>
+      <c r="CP30" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV24="","",IF(_acsReport_day_each!CV24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ30" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW24="","",IF(_acsReport_day_each!CW24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR30" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX24="","",IF(_acsReport_day_each!CX24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS30" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY24="","",IF(_acsReport_day_each!CY24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT30" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ24="","",IF(_acsReport_day_each!CZ24&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU30" s="33" t="str">
         <f>IF(_acsReport_day_each!CL24="","",_acsReport_day_each!CL24)</f>
@@ -14333,33 +14333,33 @@
         <f>IF(_acsReport_day_each!CK25="","",_acsReport_day_each!CK25)</f>
         <v/>
       </c>
-      <c r="CN31" s="67" t="e">
-        <f>AVERAGE(_acsReport_day_each!CL25:CP25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO31" s="34" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ25:CU25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP31" s="68">
-        <f>IF(_acsReport_day_each!CV25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ31" s="68">
-        <f>IF(_acsReport_day_each!CW25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR31" s="68">
-        <f>IF(_acsReport_day_each!CX25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS31" s="68">
-        <f>IF(_acsReport_day_each!CY25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT31" s="68">
-        <f>IF(_acsReport_day_each!CZ25&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN31" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL25="","",AVERAGE(_acsReport_day_each!CL25:CP25))</f>
+        <v/>
+      </c>
+      <c r="CO31" s="34" t="str">
+        <f>IF(_acsReport_day_each!CQ25="","",AVERAGE(_acsReport_day_each!CQ25:CU25))</f>
+        <v/>
+      </c>
+      <c r="CP31" s="68" t="str">
+        <f>IF(_acsReport_day_each!CV25="","",IF(_acsReport_day_each!CV25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ31" s="68" t="str">
+        <f>IF(_acsReport_day_each!CW25="","",IF(_acsReport_day_each!CW25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR31" s="68" t="str">
+        <f>IF(_acsReport_day_each!CX25="","",IF(_acsReport_day_each!CX25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS31" s="68" t="str">
+        <f>IF(_acsReport_day_each!CY25="","",IF(_acsReport_day_each!CY25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT31" s="68" t="str">
+        <f>IF(_acsReport_day_each!CZ25="","",IF(_acsReport_day_each!CZ25&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU31" s="37" t="str">
         <f>IF(_acsReport_day_each!CL25="","",_acsReport_day_each!CL25)</f>

--- a/excel/finished/能介/二空压站运行记录表.xlsx
+++ b/excel/finished/能介/二空压站运行记录表.xlsx
@@ -1108,10 +1108,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1198,24 +1197,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,14 +1212,13 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1252,25 +1234,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1282,15 +1250,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,7 +1275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,25 +1288,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,7 +1368,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,7 +1428,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,13 +1470,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,7 +1512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,115 +1530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,13 +1548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,13 +2063,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2090,17 +2093,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2123,15 +2131,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2139,16 +2138,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2158,13 +2157,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2173,46 +2175,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2221,113 +2220,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2466,49 +2465,49 @@
     <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="16" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="23" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="24" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="25" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="26" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2560,10 +2559,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="36" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="36" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2582,9 +2581,9 @@
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="常规 3 4 3" xfId="6"/>
-    <cellStyle name="常规 3 2 3 2" xfId="7"/>
+    <cellStyle name="常规 3 2 3 2" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="常规 3 4 3" xfId="7"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
@@ -2635,13 +2634,13 @@
     <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="56" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="57" builtinId="52"/>
-    <cellStyle name="常规 14" xfId="58"/>
-    <cellStyle name="常规 3 2 4" xfId="59"/>
+    <cellStyle name="常规 3 2 4" xfId="58"/>
+    <cellStyle name="常规 14" xfId="59"/>
     <cellStyle name="常规 2" xfId="60"/>
     <cellStyle name="常规 3 3 4" xfId="61"/>
     <cellStyle name="常规 3" xfId="62"/>
-    <cellStyle name="常规 3 2 2 2" xfId="63"/>
-    <cellStyle name="常规 3 3 3" xfId="64"/>
+    <cellStyle name="常规 3 3 3" xfId="63"/>
+    <cellStyle name="常规 3 2 2 2" xfId="64"/>
     <cellStyle name="常规 3 2 3" xfId="65"/>
     <cellStyle name="常规 3 2 5" xfId="66"/>
     <cellStyle name="常规 3 3 2" xfId="67"/>
@@ -2958,7 +2957,7 @@
   <dimension ref="A1:DE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8166666666667" defaultRowHeight="13.5"/>

--- a/excel/finished/能介/二空压站运行记录表.xlsx
+++ b/excel/finished/能介/二空压站运行记录表.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="ACSACMMain" sheetId="1" r:id="rId1"/>
-    <sheet name="_ACMRuntime" sheetId="4" r:id="rId2"/>
-    <sheet name="_acsReport_day_each" sheetId="2" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId4"/>
+    <sheet name="_ACMRuntime" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="_acsReport_day_each" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="_acsReport1_day_each" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="_acsReport_month_all" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="_metadata" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>能 源 环 保 部 二 空 压 站 运 行 记 录(ZH15000型离心式空压机）</t>
   </si>
@@ -1097,16 +1099,32 @@
   <si>
     <t>ES_L2R_ACS2_ACM5_AirFilter_DPre_1h_avg</t>
   </si>
+  <si>
+    <t>ES_L1R_ACS2_ACM1_Cur_1h_calavg</t>
+  </si>
+  <si>
+    <t>ES_L1R_ACS2_ACM2_Cur_1h_calavg</t>
+  </si>
+  <si>
+    <t>ES_L1R_ACS2_ACM3_Cur_1h_calavg</t>
+  </si>
+  <si>
+    <t>ES_L1R_ACS2_ACM4_Cur_1h_calavg</t>
+  </si>
+  <si>
+    <t>ES_L1R_ACS2_ACM5_Cur_1h_calavg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1211,7 +1229,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1219,6 +1267,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,17 +1319,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1263,76 +1358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,14 +1371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1360,6 +1378,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1375,19 +1399,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1453,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,55 +1525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,37 +1549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,61 +1573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,7 +1683,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1676,7 +1696,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1685,17 +1707,6 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -1891,6 +1902,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1911,45 +1935,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1998,6 +1983,39 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2122,16 +2140,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2163,17 +2181,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2195,26 +2219,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2224,10 +2242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2242,37 +2260,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2281,113 +2305,107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -2456,10 +2474,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2523,28 +2542,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="16" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2553,10 +2572,10 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="19" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="19" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2565,19 +2584,10 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="22" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="23" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="26" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2587,22 +2597,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="60" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="26" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="60" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2626,6 +2645,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="16" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="19" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="20" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="21" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2644,13 +2690,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="81">
@@ -3034,8 +3080,8 @@
   <sheetPr/>
   <dimension ref="A1:DH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CW9" sqref="CW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8166666666667" defaultRowHeight="13.5"/>
@@ -3046,915 +3092,915 @@
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="2:101">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="9"/>
-      <c r="CA1" s="9"/>
-      <c r="CB1" s="9"/>
-      <c r="CC1" s="9"/>
-      <c r="CD1" s="9"/>
-      <c r="CE1" s="9"/>
-      <c r="CF1" s="9"/>
-      <c r="CG1" s="9"/>
-      <c r="CH1" s="9"/>
-      <c r="CI1" s="9"/>
-      <c r="CJ1" s="9"/>
-      <c r="CK1" s="9"/>
-      <c r="CL1" s="9"/>
-      <c r="CM1" s="9"/>
-      <c r="CN1" s="9"/>
-      <c r="CO1" s="9"/>
-      <c r="CP1" s="9"/>
-      <c r="CQ1" s="9"/>
-      <c r="CR1" s="9"/>
-      <c r="CS1" s="9"/>
-      <c r="CT1" s="9"/>
-      <c r="CU1" s="9"/>
-      <c r="CV1" s="9"/>
-      <c r="CW1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="10"/>
+      <c r="CN1" s="10"/>
+      <c r="CO1" s="10"/>
+      <c r="CP1" s="10"/>
+      <c r="CQ1" s="10"/>
+      <c r="CR1" s="10"/>
+      <c r="CS1" s="10"/>
+      <c r="CT1" s="10"/>
+      <c r="CU1" s="10"/>
+      <c r="CV1" s="10"/>
+      <c r="CW1" s="10"/>
     </row>
     <row r="2" ht="27.75" spans="2:98">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11"/>
-      <c r="CO2" s="69"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="11"/>
-      <c r="CT2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="79"/>
+      <c r="CP2" s="80"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="9"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
     </row>
     <row r="3" ht="27.75" spans="2:98">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="str">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="12"/>
-      <c r="CA3" s="12"/>
-      <c r="CB3" s="12"/>
-      <c r="CC3" s="12"/>
-      <c r="CD3" s="12"/>
-      <c r="CE3" s="12"/>
-      <c r="CF3" s="12"/>
-      <c r="CG3" s="12"/>
-      <c r="CH3" s="12"/>
-      <c r="CI3" s="12"/>
-      <c r="CJ3" s="12"/>
-      <c r="CK3" s="12"/>
-      <c r="CL3" s="12"/>
-      <c r="CM3" s="12"/>
-      <c r="CN3" s="11"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="71"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="77"/>
+      <c r="BK3" s="77"/>
+      <c r="BL3" s="77"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="77"/>
+      <c r="BO3" s="77"/>
+      <c r="BP3" s="77"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="9"/>
+      <c r="BZ3" s="13"/>
+      <c r="CA3" s="13"/>
+      <c r="CB3" s="13"/>
+      <c r="CC3" s="13"/>
+      <c r="CD3" s="13"/>
+      <c r="CE3" s="13"/>
+      <c r="CF3" s="13"/>
+      <c r="CG3" s="13"/>
+      <c r="CH3" s="13"/>
+      <c r="CI3" s="13"/>
+      <c r="CJ3" s="13"/>
+      <c r="CK3" s="13"/>
+      <c r="CL3" s="13"/>
+      <c r="CM3" s="13"/>
+      <c r="CN3" s="12"/>
+      <c r="CO3" s="79"/>
+      <c r="CP3" s="81"/>
+      <c r="CQ3" s="81"/>
+      <c r="CR3" s="81"/>
+      <c r="CS3" s="81"/>
+      <c r="CT3" s="81"/>
     </row>
     <row r="4" ht="23.25" spans="2:101">
-      <c r="B4" s="18"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="8"/>
-      <c r="BR4" s="8"/>
-      <c r="BS4" s="8"/>
-      <c r="BT4" s="8"/>
-      <c r="BU4" s="8"/>
-      <c r="BV4" s="8"/>
-      <c r="BW4" s="8"/>
-      <c r="BX4" s="8"/>
-      <c r="BY4" s="8"/>
-      <c r="BZ4" s="8"/>
-      <c r="CA4" s="8"/>
-      <c r="CB4" s="8"/>
-      <c r="CC4" s="8"/>
-      <c r="CD4" s="12"/>
-      <c r="CE4" s="12"/>
-      <c r="CF4" s="12"/>
-      <c r="CG4" s="12"/>
-      <c r="CH4" s="12"/>
-      <c r="CI4" s="12"/>
-      <c r="CJ4" s="12"/>
-      <c r="CK4" s="12"/>
-      <c r="CL4" s="12"/>
-      <c r="CM4" s="12"/>
-      <c r="CN4" s="12"/>
-      <c r="CO4" s="12"/>
-      <c r="CP4" s="12"/>
-      <c r="CQ4" s="12"/>
-      <c r="CR4" s="12"/>
-      <c r="CS4" s="12"/>
-      <c r="CT4" s="8"/>
-      <c r="CU4" s="8"/>
-      <c r="CV4" s="8"/>
-      <c r="CW4" s="8"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+      <c r="CD4" s="13"/>
+      <c r="CE4" s="13"/>
+      <c r="CF4" s="13"/>
+      <c r="CG4" s="13"/>
+      <c r="CH4" s="13"/>
+      <c r="CI4" s="13"/>
+      <c r="CJ4" s="13"/>
+      <c r="CK4" s="13"/>
+      <c r="CL4" s="13"/>
+      <c r="CM4" s="13"/>
+      <c r="CN4" s="13"/>
+      <c r="CO4" s="13"/>
+      <c r="CP4" s="13"/>
+      <c r="CQ4" s="13"/>
+      <c r="CR4" s="13"/>
+      <c r="CS4" s="13"/>
+      <c r="CT4" s="9"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="9"/>
+      <c r="CW4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="2:111">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="21" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="56" t="s">
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="56" t="s">
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="56" t="s">
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="66" t="s">
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="20" t="s">
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="20" t="s">
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="20" t="s">
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="20" t="s">
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="22"/>
+      <c r="AY5" s="22"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="20" t="s">
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="20" t="s">
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="BL5" s="21"/>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="21"/>
-      <c r="BO5" s="22"/>
-      <c r="BP5" s="20" t="s">
+      <c r="BL5" s="22"/>
+      <c r="BM5" s="22"/>
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="23"/>
+      <c r="BP5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="BQ5" s="21"/>
-      <c r="BR5" s="21"/>
-      <c r="BS5" s="21"/>
-      <c r="BT5" s="22"/>
-      <c r="BU5" s="20" t="s">
+      <c r="BQ5" s="22"/>
+      <c r="BR5" s="22"/>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="BV5" s="21"/>
-      <c r="BW5" s="21"/>
-      <c r="BX5" s="21"/>
-      <c r="BY5" s="22"/>
-      <c r="BZ5" s="20" t="s">
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="22"/>
+      <c r="BX5" s="22"/>
+      <c r="BY5" s="23"/>
+      <c r="BZ5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="CA5" s="21"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="21"/>
-      <c r="CD5" s="22"/>
-      <c r="CE5" s="20" t="s">
+      <c r="CA5" s="22"/>
+      <c r="CB5" s="22"/>
+      <c r="CC5" s="22"/>
+      <c r="CD5" s="23"/>
+      <c r="CE5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="21"/>
-      <c r="CG5" s="21"/>
-      <c r="CH5" s="21"/>
-      <c r="CI5" s="22"/>
-      <c r="CJ5" s="20" t="s">
+      <c r="CF5" s="22"/>
+      <c r="CG5" s="22"/>
+      <c r="CH5" s="22"/>
+      <c r="CI5" s="23"/>
+      <c r="CJ5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="CK5" s="21"/>
-      <c r="CL5" s="21"/>
-      <c r="CM5" s="21"/>
-      <c r="CN5" s="22"/>
-      <c r="CO5" s="20" t="s">
+      <c r="CK5" s="22"/>
+      <c r="CL5" s="22"/>
+      <c r="CM5" s="22"/>
+      <c r="CN5" s="23"/>
+      <c r="CO5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="CP5" s="21"/>
-      <c r="CQ5" s="21"/>
-      <c r="CR5" s="21"/>
-      <c r="CS5" s="22"/>
-      <c r="CT5" s="20" t="s">
+      <c r="CP5" s="22"/>
+      <c r="CQ5" s="22"/>
+      <c r="CR5" s="22"/>
+      <c r="CS5" s="23"/>
+      <c r="CT5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="CU5" s="21"/>
-      <c r="CV5" s="21"/>
-      <c r="CW5" s="22"/>
-      <c r="CX5" s="20" t="s">
+      <c r="CU5" s="22"/>
+      <c r="CV5" s="22"/>
+      <c r="CW5" s="23"/>
+      <c r="CX5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="21"/>
-      <c r="CZ5" s="21"/>
-      <c r="DA5" s="21"/>
-      <c r="DB5" s="22"/>
-      <c r="DC5" s="20" t="s">
+      <c r="CY5" s="22"/>
+      <c r="CZ5" s="22"/>
+      <c r="DA5" s="22"/>
+      <c r="DB5" s="23"/>
+      <c r="DC5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="DD5" s="21"/>
-      <c r="DE5" s="21"/>
-      <c r="DF5" s="21"/>
-      <c r="DG5" s="22"/>
+      <c r="DD5" s="22"/>
+      <c r="DE5" s="22"/>
+      <c r="DF5" s="22"/>
+      <c r="DG5" s="23"/>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="2:111">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="U6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="27" t="s">
+      <c r="V6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="W6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="26" t="s">
+      <c r="X6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="26" t="s">
+      <c r="Z6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="61" t="s">
+      <c r="AA6" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="28" t="s">
+      <c r="AB6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="52" t="s">
+      <c r="AC6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="52" t="s">
+      <c r="AD6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="52" t="s">
+      <c r="AE6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF6" s="53" t="s">
+      <c r="AF6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AG6" s="28" t="s">
+      <c r="AG6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AH6" s="52" t="s">
+      <c r="AH6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AI6" s="52" t="s">
+      <c r="AI6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AJ6" s="52" t="s">
+      <c r="AJ6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="53" t="s">
+      <c r="AK6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AL6" s="25" t="s">
+      <c r="AL6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AM6" s="26" t="s">
+      <c r="AM6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="26" t="s">
+      <c r="AN6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AO6" s="26" t="s">
+      <c r="AO6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AP6" s="27" t="s">
+      <c r="AP6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AQ6" s="25" t="s">
+      <c r="AQ6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AR6" s="26" t="s">
+      <c r="AR6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="26" t="s">
+      <c r="AS6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AT6" s="26" t="s">
+      <c r="AT6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AU6" s="27" t="s">
+      <c r="AU6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AV6" s="25" t="s">
+      <c r="AV6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AW6" s="26" t="s">
+      <c r="AW6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AX6" s="26" t="s">
+      <c r="AX6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AY6" s="26" t="s">
+      <c r="AY6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AZ6" s="27" t="s">
+      <c r="AZ6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BA6" s="25" t="s">
+      <c r="BA6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BB6" s="26" t="s">
+      <c r="BB6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BC6" s="26" t="s">
+      <c r="BC6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="BD6" s="26" t="s">
+      <c r="BD6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="BE6" s="27" t="s">
+      <c r="BE6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BF6" s="25" t="s">
+      <c r="BF6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BG6" s="26" t="s">
+      <c r="BG6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BH6" s="26" t="s">
+      <c r="BH6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="BI6" s="26" t="s">
+      <c r="BI6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="BJ6" s="27" t="s">
+      <c r="BJ6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BK6" s="25" t="s">
+      <c r="BK6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BL6" s="26" t="s">
+      <c r="BL6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BM6" s="26" t="s">
+      <c r="BM6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="BN6" s="26" t="s">
+      <c r="BN6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="BO6" s="27" t="s">
+      <c r="BO6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BP6" s="25" t="s">
+      <c r="BP6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BQ6" s="26" t="s">
+      <c r="BQ6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BR6" s="26" t="s">
+      <c r="BR6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="BS6" s="26" t="s">
+      <c r="BS6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="BT6" s="27" t="s">
+      <c r="BT6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BU6" s="25" t="s">
+      <c r="BU6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BV6" s="26" t="s">
+      <c r="BV6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BW6" s="26" t="s">
+      <c r="BW6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="BX6" s="26" t="s">
+      <c r="BX6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="BY6" s="27" t="s">
+      <c r="BY6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BZ6" s="25" t="s">
+      <c r="BZ6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="CA6" s="26" t="s">
+      <c r="CA6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="CB6" s="26" t="s">
+      <c r="CB6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="CC6" s="26" t="s">
+      <c r="CC6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="CD6" s="27" t="s">
+      <c r="CD6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="CE6" s="25" t="s">
+      <c r="CE6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="CF6" s="26" t="s">
+      <c r="CF6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="CG6" s="26" t="s">
+      <c r="CG6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="CH6" s="26" t="s">
+      <c r="CH6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="CI6" s="27" t="s">
+      <c r="CI6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="CJ6" s="25" t="s">
+      <c r="CJ6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="CK6" s="26" t="s">
+      <c r="CK6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="CL6" s="26" t="s">
+      <c r="CL6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="CM6" s="26" t="s">
+      <c r="CM6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="CN6" s="27" t="s">
+      <c r="CN6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="CO6" s="25" t="s">
+      <c r="CO6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="CP6" s="26" t="s">
+      <c r="CP6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="26" t="s">
+      <c r="CQ6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="CR6" s="26" t="s">
+      <c r="CR6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="CS6" s="27" t="s">
+      <c r="CS6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="CT6" s="25" t="s">
+      <c r="CT6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="CU6" s="26" t="s">
+      <c r="CU6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CV6" s="26" t="s">
+      <c r="CV6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="CW6" s="27" t="s">
+      <c r="CW6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="CX6" s="72" t="s">
+      <c r="CX6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="CY6" s="73" t="s">
+      <c r="CY6" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="CZ6" s="73" t="s">
+      <c r="CZ6" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="DA6" s="73" t="s">
+      <c r="DA6" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="DB6" s="74" t="s">
+      <c r="DB6" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="DC6" s="72" t="s">
+      <c r="DC6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="DD6" s="73" t="s">
+      <c r="DD6" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="DE6" s="73" t="s">
+      <c r="DE6" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="DF6" s="73" t="s">
+      <c r="DF6" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="DG6" s="74" t="s">
+      <c r="DG6" s="84" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="14" hidden="1" customHeight="1" spans="1:112">
-      <c r="A7" s="3"/>
+    <row r="7" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" spans="1:112">
+      <c r="A7" s="4"/>
       <c r="B7" s="29"/>
       <c r="C7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="31" t="s">
@@ -3963,313 +4009,313 @@
       <c r="H7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="51" t="s">
         <v>39</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="P7" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="Q7" s="51" t="s">
         <v>44</v>
       </c>
       <c r="R7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="54" t="s">
+      <c r="S7" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="54" t="s">
+      <c r="T7" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="54" t="s">
+      <c r="U7" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="V7" s="55" t="s">
+      <c r="V7" s="51" t="s">
         <v>49</v>
       </c>
       <c r="W7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="X7" s="54" t="s">
+      <c r="X7" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="Y7" s="54" t="s">
+      <c r="Y7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z7" s="54" t="s">
+      <c r="Z7" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" s="54" t="s">
+      <c r="AA7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="AB7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AC7" s="54" t="s">
+      <c r="AC7" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" s="54" t="s">
+      <c r="AD7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AE7" s="54" t="s">
+      <c r="AE7" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF7" s="55" t="s">
+      <c r="AF7" s="51" t="s">
         <v>54</v>
       </c>
       <c r="AG7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AH7" s="54" t="s">
+      <c r="AH7" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AI7" s="54" t="s">
+      <c r="AI7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AJ7" s="54" t="s">
+      <c r="AJ7" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AK7" s="55" t="s">
+      <c r="AK7" s="51" t="s">
         <v>54</v>
       </c>
       <c r="AL7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AM7" s="54" t="s">
+      <c r="AM7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="AN7" s="54" t="s">
+      <c r="AN7" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="AO7" s="54" t="s">
+      <c r="AO7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="AP7" s="55" t="s">
+      <c r="AP7" s="51" t="s">
         <v>59</v>
       </c>
       <c r="AQ7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AR7" s="54" t="s">
+      <c r="AR7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="AS7" s="54" t="s">
+      <c r="AS7" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="AT7" s="54" t="s">
+      <c r="AT7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="AU7" s="55" t="s">
+      <c r="AU7" s="51" t="s">
         <v>59</v>
       </c>
       <c r="AV7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AW7" s="54" t="s">
+      <c r="AW7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="AX7" s="54" t="s">
+      <c r="AX7" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="AY7" s="54" t="s">
+      <c r="AY7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="AZ7" s="55" t="s">
+      <c r="AZ7" s="51" t="s">
         <v>59</v>
       </c>
       <c r="BA7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="BB7" s="54" t="s">
+      <c r="BB7" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="BC7" s="54" t="s">
+      <c r="BC7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="BD7" s="54" t="s">
+      <c r="BD7" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="BE7" s="55" t="s">
+      <c r="BE7" s="51" t="s">
         <v>64</v>
       </c>
       <c r="BF7" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BG7" s="54" t="s">
+      <c r="BG7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="BH7" s="54" t="s">
+      <c r="BH7" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="BI7" s="54" t="s">
+      <c r="BI7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="BJ7" s="55" t="s">
+      <c r="BJ7" s="51" t="s">
         <v>69</v>
       </c>
       <c r="BK7" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="BL7" s="54" t="s">
+      <c r="BL7" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="BM7" s="54" t="s">
+      <c r="BM7" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="BN7" s="54" t="s">
+      <c r="BN7" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="BO7" s="55" t="s">
+      <c r="BO7" s="51" t="s">
         <v>74</v>
       </c>
       <c r="BP7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="BQ7" s="54" t="s">
+      <c r="BQ7" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="BR7" s="54" t="s">
+      <c r="BR7" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="BS7" s="54" t="s">
+      <c r="BS7" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="BT7" s="55" t="s">
+      <c r="BT7" s="51" t="s">
         <v>79</v>
       </c>
       <c r="BU7" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="BV7" s="54" t="s">
+      <c r="BV7" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="BW7" s="54" t="s">
+      <c r="BW7" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="BX7" s="54" t="s">
+      <c r="BX7" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="BY7" s="55" t="s">
+      <c r="BY7" s="51" t="s">
         <v>84</v>
       </c>
       <c r="BZ7" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="CA7" s="54" t="s">
+      <c r="CA7" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="CB7" s="54" t="s">
+      <c r="CB7" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="CC7" s="54" t="s">
+      <c r="CC7" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="CD7" s="55" t="s">
+      <c r="CD7" s="51" t="s">
         <v>89</v>
       </c>
       <c r="CE7" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="CF7" s="54" t="s">
+      <c r="CF7" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="CG7" s="54" t="s">
+      <c r="CG7" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="CH7" s="54" t="s">
+      <c r="CH7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="CI7" s="55" t="s">
+      <c r="CI7" s="51" t="s">
         <v>94</v>
       </c>
       <c r="CJ7" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="CK7" s="54" t="s">
+      <c r="CK7" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="CL7" s="54" t="s">
+      <c r="CL7" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="CM7" s="54" t="s">
+      <c r="CM7" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="CN7" s="55" t="s">
+      <c r="CN7" s="51" t="s">
         <v>99</v>
       </c>
       <c r="CO7" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="CP7" s="54" t="s">
+      <c r="CP7" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="CQ7" s="54" t="s">
+      <c r="CQ7" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="CR7" s="54" t="s">
+      <c r="CR7" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="CS7" s="55" t="s">
+      <c r="CS7" s="51" t="s">
         <v>104</v>
       </c>
       <c r="CT7" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="CU7" s="54" t="s">
+      <c r="CU7" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="CV7" s="54" t="s">
+      <c r="CV7" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="CW7" s="55" t="s">
+      <c r="CW7" s="51" t="s">
         <v>108</v>
       </c>
       <c r="CX7" s="32"/>
-      <c r="DB7" s="75"/>
+      <c r="DB7" s="85"/>
       <c r="DC7" s="32"/>
-      <c r="DG7" s="75"/>
-      <c r="DH7" s="76"/>
+      <c r="DG7" s="85"/>
+      <c r="DH7" s="86"/>
     </row>
     <row r="8" ht="15" spans="2:111">
       <c r="B8" s="33">
         <v>0</v>
       </c>
       <c r="C8" s="34" t="str">
-        <f>IF(_acsReport_day_each!A2="","",_acsReport_day_each!A2)</f>
+        <f>IF(_acsReport1_day_each!A2="","",_acsReport1_day_each!A2)</f>
         <v/>
       </c>
       <c r="D8" s="35" t="str">
-        <f>IF(_acsReport_day_each!B2="","",_acsReport_day_each!B2)</f>
+        <f>IF(_acsReport1_day_each!B2="","",_acsReport1_day_each!B2)</f>
         <v/>
       </c>
       <c r="E8" s="35" t="str">
-        <f>IF(_acsReport_day_each!C2="","",_acsReport_day_each!C2)</f>
+        <f>IF(_acsReport1_day_each!C2="","",_acsReport1_day_each!C2)</f>
         <v/>
       </c>
       <c r="F8" s="35" t="str">
-        <f>IF(_acsReport_day_each!D2="","",_acsReport_day_each!D2)</f>
+        <f>IF(_acsReport1_day_each!D2="","",_acsReport1_day_each!D2)</f>
         <v/>
       </c>
       <c r="G8" s="36" t="str">
-        <f>IF(_acsReport_day_each!E2="","",_acsReport_day_each!E2)</f>
+        <f>IF(_acsReport1_day_each!E2="","",_acsReport1_day_each!E2)</f>
         <v/>
       </c>
       <c r="H8" s="34" t="str">
@@ -4348,7 +4394,7 @@
         <f>IF(_acsReport_day_each!X2="","",_acsReport_day_each!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="62" t="str">
+      <c r="AA8" s="63" t="str">
         <f>IF(_acsReport_day_each!Y2="","",_acsReport_day_each!Y2)</f>
         <v/>
       </c>
@@ -4372,23 +4418,23 @@
         <f>IF(_acsReport_day_each!DJ2="","",_acsReport_day_each!DJ2)</f>
         <v/>
       </c>
-      <c r="AG8" s="34" t="str">
+      <c r="AG8" s="68" t="str">
         <f>IF(_acsReport_day_each!DK2="","",_acsReport_day_each!DK2)</f>
         <v/>
       </c>
-      <c r="AH8" s="35" t="str">
+      <c r="AH8" s="69" t="str">
         <f>IF(_acsReport_day_each!DL2="","",_acsReport_day_each!DL2)</f>
         <v/>
       </c>
-      <c r="AI8" s="35" t="str">
+      <c r="AI8" s="69" t="str">
         <f>IF(_acsReport_day_each!DM2="","",_acsReport_day_each!DM2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="35" t="str">
+      <c r="AJ8" s="69" t="str">
         <f>IF(_acsReport_day_each!DN2="","",_acsReport_day_each!DN2)</f>
         <v/>
       </c>
-      <c r="AK8" s="36" t="str">
+      <c r="AK8" s="70" t="str">
         <f>IF(_acsReport_day_each!DO2="","",_acsReport_day_each!DO2)</f>
         <v/>
       </c>
@@ -4633,19 +4679,19 @@
         <v/>
       </c>
       <c r="CT8" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH2="","",_acsReport_day_each!CH2)</f>
+        <f>IF(_acsReport1_day_each!F2="","",_acsReport1_day_each!F2)</f>
         <v/>
       </c>
       <c r="CU8" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI2="","",_acsReport_day_each!CI2)</f>
+        <f>IF(_acsReport1_day_each!G2="","",_acsReport1_day_each!G2)</f>
         <v/>
       </c>
       <c r="CV8" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ2="","",_acsReport_day_each!CJ2)</f>
+        <f>IF(_acsReport1_day_each!H2="","",_acsReport1_day_each!H2)</f>
         <v/>
       </c>
       <c r="CW8" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK2="","",_acsReport_day_each!CK2)</f>
+        <f>IF(_acsReport1_day_each!I2="","",_acsReport1_day_each!I2)</f>
         <v/>
       </c>
       <c r="CX8" s="34" t="str">
@@ -4694,23 +4740,23 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="C9" s="34" t="str">
-        <f>IF(_acsReport_day_each!A3="","",_acsReport_day_each!A3)</f>
+        <f>IF(_acsReport1_day_each!A3="","",_acsReport1_day_each!A3)</f>
         <v/>
       </c>
       <c r="D9" s="35" t="str">
-        <f>IF(_acsReport_day_each!B3="","",_acsReport_day_each!B3)</f>
+        <f>IF(_acsReport1_day_each!B3="","",_acsReport1_day_each!B3)</f>
         <v/>
       </c>
       <c r="E9" s="35" t="str">
-        <f>IF(_acsReport_day_each!C3="","",_acsReport_day_each!C3)</f>
+        <f>IF(_acsReport1_day_each!C3="","",_acsReport1_day_each!C3)</f>
         <v/>
       </c>
       <c r="F9" s="35" t="str">
-        <f>IF(_acsReport_day_each!D3="","",_acsReport_day_each!D3)</f>
+        <f>IF(_acsReport1_day_each!D3="","",_acsReport1_day_each!D3)</f>
         <v/>
       </c>
       <c r="G9" s="36" t="str">
-        <f>IF(_acsReport_day_each!E3="","",_acsReport_day_each!E3)</f>
+        <f>IF(_acsReport1_day_each!E3="","",_acsReport1_day_each!E3)</f>
         <v/>
       </c>
       <c r="H9" s="34" t="str">
@@ -4789,7 +4835,7 @@
         <f>IF(_acsReport_day_each!X3="","",_acsReport_day_each!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="62" t="str">
+      <c r="AA9" s="63" t="str">
         <f>IF(_acsReport_day_each!Y3="","",_acsReport_day_each!Y3)</f>
         <v/>
       </c>
@@ -4813,23 +4859,23 @@
         <f>IF(_acsReport_day_each!DJ3="","",_acsReport_day_each!DJ3)</f>
         <v/>
       </c>
-      <c r="AG9" s="34" t="str">
+      <c r="AG9" s="68" t="str">
         <f>IF(_acsReport_day_each!DK3="","",_acsReport_day_each!DK3)</f>
         <v/>
       </c>
-      <c r="AH9" s="35" t="str">
+      <c r="AH9" s="69" t="str">
         <f>IF(_acsReport_day_each!DL3="","",_acsReport_day_each!DL3)</f>
         <v/>
       </c>
-      <c r="AI9" s="35" t="str">
+      <c r="AI9" s="69" t="str">
         <f>IF(_acsReport_day_each!DM3="","",_acsReport_day_each!DM3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="35" t="str">
+      <c r="AJ9" s="69" t="str">
         <f>IF(_acsReport_day_each!DN3="","",_acsReport_day_each!DN3)</f>
         <v/>
       </c>
-      <c r="AK9" s="36" t="str">
+      <c r="AK9" s="70" t="str">
         <f>IF(_acsReport_day_each!DO3="","",_acsReport_day_each!DO3)</f>
         <v/>
       </c>
@@ -5074,19 +5120,19 @@
         <v/>
       </c>
       <c r="CT9" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH3="","",_acsReport_day_each!CH3)</f>
+        <f>IF(_acsReport1_day_each!F3="","",_acsReport1_day_each!F3)</f>
         <v/>
       </c>
       <c r="CU9" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI3="","",_acsReport_day_each!CI3)</f>
+        <f>IF(_acsReport1_day_each!G3="","",_acsReport1_day_each!G3)</f>
         <v/>
       </c>
       <c r="CV9" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ3="","",_acsReport_day_each!CJ3)</f>
+        <f>IF(_acsReport1_day_each!H3="","",_acsReport1_day_each!H3)</f>
         <v/>
       </c>
       <c r="CW9" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK3="","",_acsReport_day_each!CK3)</f>
+        <f>IF(_acsReport1_day_each!I3="","",_acsReport1_day_each!I3)</f>
         <v/>
       </c>
       <c r="CX9" s="34" t="str">
@@ -5135,23 +5181,23 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="C10" s="34" t="str">
-        <f>IF(_acsReport_day_each!A4="","",_acsReport_day_each!A4)</f>
+        <f>IF(_acsReport1_day_each!A4="","",_acsReport1_day_each!A4)</f>
         <v/>
       </c>
       <c r="D10" s="35" t="str">
-        <f>IF(_acsReport_day_each!B4="","",_acsReport_day_each!B4)</f>
+        <f>IF(_acsReport1_day_each!B4="","",_acsReport1_day_each!B4)</f>
         <v/>
       </c>
       <c r="E10" s="35" t="str">
-        <f>IF(_acsReport_day_each!C4="","",_acsReport_day_each!C4)</f>
+        <f>IF(_acsReport1_day_each!C4="","",_acsReport1_day_each!C4)</f>
         <v/>
       </c>
       <c r="F10" s="35" t="str">
-        <f>IF(_acsReport_day_each!D4="","",_acsReport_day_each!D4)</f>
+        <f>IF(_acsReport1_day_each!D4="","",_acsReport1_day_each!D4)</f>
         <v/>
       </c>
       <c r="G10" s="36" t="str">
-        <f>IF(_acsReport_day_each!E4="","",_acsReport_day_each!E4)</f>
+        <f>IF(_acsReport1_day_each!E4="","",_acsReport1_day_each!E4)</f>
         <v/>
       </c>
       <c r="H10" s="34" t="str">
@@ -5230,7 +5276,7 @@
         <f>IF(_acsReport_day_each!X4="","",_acsReport_day_each!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="62" t="str">
+      <c r="AA10" s="63" t="str">
         <f>IF(_acsReport_day_each!Y4="","",_acsReport_day_each!Y4)</f>
         <v/>
       </c>
@@ -5254,23 +5300,23 @@
         <f>IF(_acsReport_day_each!DJ4="","",_acsReport_day_each!DJ4)</f>
         <v/>
       </c>
-      <c r="AG10" s="34" t="str">
+      <c r="AG10" s="68" t="str">
         <f>IF(_acsReport_day_each!DK4="","",_acsReport_day_each!DK4)</f>
         <v/>
       </c>
-      <c r="AH10" s="35" t="str">
+      <c r="AH10" s="69" t="str">
         <f>IF(_acsReport_day_each!DL4="","",_acsReport_day_each!DL4)</f>
         <v/>
       </c>
-      <c r="AI10" s="35" t="str">
+      <c r="AI10" s="69" t="str">
         <f>IF(_acsReport_day_each!DM4="","",_acsReport_day_each!DM4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="35" t="str">
+      <c r="AJ10" s="69" t="str">
         <f>IF(_acsReport_day_each!DN4="","",_acsReport_day_each!DN4)</f>
         <v/>
       </c>
-      <c r="AK10" s="36" t="str">
+      <c r="AK10" s="70" t="str">
         <f>IF(_acsReport_day_each!DO4="","",_acsReport_day_each!DO4)</f>
         <v/>
       </c>
@@ -5515,19 +5561,19 @@
         <v/>
       </c>
       <c r="CT10" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH4="","",_acsReport_day_each!CH4)</f>
+        <f>IF(_acsReport1_day_each!F4="","",_acsReport1_day_each!F4)</f>
         <v/>
       </c>
       <c r="CU10" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI4="","",_acsReport_day_each!CI4)</f>
+        <f>IF(_acsReport1_day_each!G4="","",_acsReport1_day_each!G4)</f>
         <v/>
       </c>
       <c r="CV10" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ4="","",_acsReport_day_each!CJ4)</f>
+        <f>IF(_acsReport1_day_each!H4="","",_acsReport1_day_each!H4)</f>
         <v/>
       </c>
       <c r="CW10" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK4="","",_acsReport_day_each!CK4)</f>
+        <f>IF(_acsReport1_day_each!I4="","",_acsReport1_day_each!I4)</f>
         <v/>
       </c>
       <c r="CX10" s="34" t="str">
@@ -5576,23 +5622,23 @@
         <v>0.125</v>
       </c>
       <c r="C11" s="34" t="str">
-        <f>IF(_acsReport_day_each!A5="","",_acsReport_day_each!A5)</f>
+        <f>IF(_acsReport1_day_each!A5="","",_acsReport1_day_each!A5)</f>
         <v/>
       </c>
       <c r="D11" s="35" t="str">
-        <f>IF(_acsReport_day_each!B5="","",_acsReport_day_each!B5)</f>
+        <f>IF(_acsReport1_day_each!B5="","",_acsReport1_day_each!B5)</f>
         <v/>
       </c>
       <c r="E11" s="35" t="str">
-        <f>IF(_acsReport_day_each!C5="","",_acsReport_day_each!C5)</f>
+        <f>IF(_acsReport1_day_each!C5="","",_acsReport1_day_each!C5)</f>
         <v/>
       </c>
       <c r="F11" s="35" t="str">
-        <f>IF(_acsReport_day_each!D5="","",_acsReport_day_each!D5)</f>
+        <f>IF(_acsReport1_day_each!D5="","",_acsReport1_day_each!D5)</f>
         <v/>
       </c>
       <c r="G11" s="36" t="str">
-        <f>IF(_acsReport_day_each!E5="","",_acsReport_day_each!E5)</f>
+        <f>IF(_acsReport1_day_each!E5="","",_acsReport1_day_each!E5)</f>
         <v/>
       </c>
       <c r="H11" s="34" t="str">
@@ -5671,7 +5717,7 @@
         <f>IF(_acsReport_day_each!X5="","",_acsReport_day_each!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="62" t="str">
+      <c r="AA11" s="63" t="str">
         <f>IF(_acsReport_day_each!Y5="","",_acsReport_day_each!Y5)</f>
         <v/>
       </c>
@@ -5695,23 +5741,23 @@
         <f>IF(_acsReport_day_each!DJ5="","",_acsReport_day_each!DJ5)</f>
         <v/>
       </c>
-      <c r="AG11" s="34" t="str">
+      <c r="AG11" s="68" t="str">
         <f>IF(_acsReport_day_each!DK5="","",_acsReport_day_each!DK5)</f>
         <v/>
       </c>
-      <c r="AH11" s="35" t="str">
+      <c r="AH11" s="69" t="str">
         <f>IF(_acsReport_day_each!DL5="","",_acsReport_day_each!DL5)</f>
         <v/>
       </c>
-      <c r="AI11" s="35" t="str">
+      <c r="AI11" s="69" t="str">
         <f>IF(_acsReport_day_each!DM5="","",_acsReport_day_each!DM5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="35" t="str">
+      <c r="AJ11" s="69" t="str">
         <f>IF(_acsReport_day_each!DN5="","",_acsReport_day_each!DN5)</f>
         <v/>
       </c>
-      <c r="AK11" s="36" t="str">
+      <c r="AK11" s="70" t="str">
         <f>IF(_acsReport_day_each!DO5="","",_acsReport_day_each!DO5)</f>
         <v/>
       </c>
@@ -5956,19 +6002,19 @@
         <v/>
       </c>
       <c r="CT11" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH5="","",_acsReport_day_each!CH5)</f>
+        <f>IF(_acsReport1_day_each!F5="","",_acsReport1_day_each!F5)</f>
         <v/>
       </c>
       <c r="CU11" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI5="","",_acsReport_day_each!CI5)</f>
+        <f>IF(_acsReport1_day_each!G5="","",_acsReport1_day_each!G5)</f>
         <v/>
       </c>
       <c r="CV11" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ5="","",_acsReport_day_each!CJ5)</f>
+        <f>IF(_acsReport1_day_each!H5="","",_acsReport1_day_each!H5)</f>
         <v/>
       </c>
       <c r="CW11" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK5="","",_acsReport_day_each!CK5)</f>
+        <f>IF(_acsReport1_day_each!I5="","",_acsReport1_day_each!I5)</f>
         <v/>
       </c>
       <c r="CX11" s="34" t="str">
@@ -6017,23 +6063,23 @@
         <v>0.166666666666667</v>
       </c>
       <c r="C12" s="34" t="str">
-        <f>IF(_acsReport_day_each!A6="","",_acsReport_day_each!A6)</f>
+        <f>IF(_acsReport1_day_each!A6="","",_acsReport1_day_each!A6)</f>
         <v/>
       </c>
       <c r="D12" s="35" t="str">
-        <f>IF(_acsReport_day_each!B6="","",_acsReport_day_each!B6)</f>
+        <f>IF(_acsReport1_day_each!B6="","",_acsReport1_day_each!B6)</f>
         <v/>
       </c>
       <c r="E12" s="35" t="str">
-        <f>IF(_acsReport_day_each!C6="","",_acsReport_day_each!C6)</f>
+        <f>IF(_acsReport1_day_each!C6="","",_acsReport1_day_each!C6)</f>
         <v/>
       </c>
       <c r="F12" s="35" t="str">
-        <f>IF(_acsReport_day_each!D6="","",_acsReport_day_each!D6)</f>
+        <f>IF(_acsReport1_day_each!D6="","",_acsReport1_day_each!D6)</f>
         <v/>
       </c>
       <c r="G12" s="36" t="str">
-        <f>IF(_acsReport_day_each!E6="","",_acsReport_day_each!E6)</f>
+        <f>IF(_acsReport1_day_each!E6="","",_acsReport1_day_each!E6)</f>
         <v/>
       </c>
       <c r="H12" s="34" t="str">
@@ -6112,7 +6158,7 @@
         <f>IF(_acsReport_day_each!X6="","",_acsReport_day_each!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="62" t="str">
+      <c r="AA12" s="63" t="str">
         <f>IF(_acsReport_day_each!Y6="","",_acsReport_day_each!Y6)</f>
         <v/>
       </c>
@@ -6136,23 +6182,23 @@
         <f>IF(_acsReport_day_each!DJ6="","",_acsReport_day_each!DJ6)</f>
         <v/>
       </c>
-      <c r="AG12" s="34" t="str">
+      <c r="AG12" s="68" t="str">
         <f>IF(_acsReport_day_each!DK6="","",_acsReport_day_each!DK6)</f>
         <v/>
       </c>
-      <c r="AH12" s="35" t="str">
+      <c r="AH12" s="69" t="str">
         <f>IF(_acsReport_day_each!DL6="","",_acsReport_day_each!DL6)</f>
         <v/>
       </c>
-      <c r="AI12" s="35" t="str">
+      <c r="AI12" s="69" t="str">
         <f>IF(_acsReport_day_each!DM6="","",_acsReport_day_each!DM6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="35" t="str">
+      <c r="AJ12" s="69" t="str">
         <f>IF(_acsReport_day_each!DN6="","",_acsReport_day_each!DN6)</f>
         <v/>
       </c>
-      <c r="AK12" s="36" t="str">
+      <c r="AK12" s="70" t="str">
         <f>IF(_acsReport_day_each!DO6="","",_acsReport_day_each!DO6)</f>
         <v/>
       </c>
@@ -6397,19 +6443,19 @@
         <v/>
       </c>
       <c r="CT12" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH6="","",_acsReport_day_each!CH6)</f>
+        <f>IF(_acsReport1_day_each!F6="","",_acsReport1_day_each!F6)</f>
         <v/>
       </c>
       <c r="CU12" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI6="","",_acsReport_day_each!CI6)</f>
+        <f>IF(_acsReport1_day_each!G6="","",_acsReport1_day_each!G6)</f>
         <v/>
       </c>
       <c r="CV12" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ6="","",_acsReport_day_each!CJ6)</f>
+        <f>IF(_acsReport1_day_each!H6="","",_acsReport1_day_each!H6)</f>
         <v/>
       </c>
       <c r="CW12" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK6="","",_acsReport_day_each!CK6)</f>
+        <f>IF(_acsReport1_day_each!I6="","",_acsReport1_day_each!I6)</f>
         <v/>
       </c>
       <c r="CX12" s="34" t="str">
@@ -6458,23 +6504,23 @@
         <v>0.208333333333333</v>
       </c>
       <c r="C13" s="34" t="str">
-        <f>IF(_acsReport_day_each!A7="","",_acsReport_day_each!A7)</f>
+        <f>IF(_acsReport1_day_each!A7="","",_acsReport1_day_each!A7)</f>
         <v/>
       </c>
       <c r="D13" s="35" t="str">
-        <f>IF(_acsReport_day_each!B7="","",_acsReport_day_each!B7)</f>
+        <f>IF(_acsReport1_day_each!B7="","",_acsReport1_day_each!B7)</f>
         <v/>
       </c>
       <c r="E13" s="35" t="str">
-        <f>IF(_acsReport_day_each!C7="","",_acsReport_day_each!C7)</f>
+        <f>IF(_acsReport1_day_each!C7="","",_acsReport1_day_each!C7)</f>
         <v/>
       </c>
       <c r="F13" s="35" t="str">
-        <f>IF(_acsReport_day_each!D7="","",_acsReport_day_each!D7)</f>
+        <f>IF(_acsReport1_day_each!D7="","",_acsReport1_day_each!D7)</f>
         <v/>
       </c>
       <c r="G13" s="36" t="str">
-        <f>IF(_acsReport_day_each!E7="","",_acsReport_day_each!E7)</f>
+        <f>IF(_acsReport1_day_each!E7="","",_acsReport1_day_each!E7)</f>
         <v/>
       </c>
       <c r="H13" s="34" t="str">
@@ -6553,7 +6599,7 @@
         <f>IF(_acsReport_day_each!X7="","",_acsReport_day_each!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="62" t="str">
+      <c r="AA13" s="63" t="str">
         <f>IF(_acsReport_day_each!Y7="","",_acsReport_day_each!Y7)</f>
         <v/>
       </c>
@@ -6577,23 +6623,23 @@
         <f>IF(_acsReport_day_each!DJ7="","",_acsReport_day_each!DJ7)</f>
         <v/>
       </c>
-      <c r="AG13" s="34" t="str">
+      <c r="AG13" s="68" t="str">
         <f>IF(_acsReport_day_each!DK7="","",_acsReport_day_each!DK7)</f>
         <v/>
       </c>
-      <c r="AH13" s="35" t="str">
+      <c r="AH13" s="69" t="str">
         <f>IF(_acsReport_day_each!DL7="","",_acsReport_day_each!DL7)</f>
         <v/>
       </c>
-      <c r="AI13" s="35" t="str">
+      <c r="AI13" s="69" t="str">
         <f>IF(_acsReport_day_each!DM7="","",_acsReport_day_each!DM7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="35" t="str">
+      <c r="AJ13" s="69" t="str">
         <f>IF(_acsReport_day_each!DN7="","",_acsReport_day_each!DN7)</f>
         <v/>
       </c>
-      <c r="AK13" s="36" t="str">
+      <c r="AK13" s="70" t="str">
         <f>IF(_acsReport_day_each!DO7="","",_acsReport_day_each!DO7)</f>
         <v/>
       </c>
@@ -6838,19 +6884,19 @@
         <v/>
       </c>
       <c r="CT13" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH7="","",_acsReport_day_each!CH7)</f>
+        <f>IF(_acsReport1_day_each!F7="","",_acsReport1_day_each!F7)</f>
         <v/>
       </c>
       <c r="CU13" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI7="","",_acsReport_day_each!CI7)</f>
+        <f>IF(_acsReport1_day_each!G7="","",_acsReport1_day_each!G7)</f>
         <v/>
       </c>
       <c r="CV13" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ7="","",_acsReport_day_each!CJ7)</f>
+        <f>IF(_acsReport1_day_each!H7="","",_acsReport1_day_each!H7)</f>
         <v/>
       </c>
       <c r="CW13" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK7="","",_acsReport_day_each!CK7)</f>
+        <f>IF(_acsReport1_day_each!I7="","",_acsReport1_day_each!I7)</f>
         <v/>
       </c>
       <c r="CX13" s="34" t="str">
@@ -6899,23 +6945,23 @@
         <v>0.25</v>
       </c>
       <c r="C14" s="34" t="str">
-        <f>IF(_acsReport_day_each!A8="","",_acsReport_day_each!A8)</f>
+        <f>IF(_acsReport1_day_each!A8="","",_acsReport1_day_each!A8)</f>
         <v/>
       </c>
       <c r="D14" s="35" t="str">
-        <f>IF(_acsReport_day_each!B8="","",_acsReport_day_each!B8)</f>
+        <f>IF(_acsReport1_day_each!B8="","",_acsReport1_day_each!B8)</f>
         <v/>
       </c>
       <c r="E14" s="35" t="str">
-        <f>IF(_acsReport_day_each!C8="","",_acsReport_day_each!C8)</f>
+        <f>IF(_acsReport1_day_each!C8="","",_acsReport1_day_each!C8)</f>
         <v/>
       </c>
       <c r="F14" s="35" t="str">
-        <f>IF(_acsReport_day_each!D8="","",_acsReport_day_each!D8)</f>
+        <f>IF(_acsReport1_day_each!D8="","",_acsReport1_day_each!D8)</f>
         <v/>
       </c>
       <c r="G14" s="36" t="str">
-        <f>IF(_acsReport_day_each!E8="","",_acsReport_day_each!E8)</f>
+        <f>IF(_acsReport1_day_each!E8="","",_acsReport1_day_each!E8)</f>
         <v/>
       </c>
       <c r="H14" s="34" t="str">
@@ -6994,7 +7040,7 @@
         <f>IF(_acsReport_day_each!X8="","",_acsReport_day_each!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="62" t="str">
+      <c r="AA14" s="63" t="str">
         <f>IF(_acsReport_day_each!Y8="","",_acsReport_day_each!Y8)</f>
         <v/>
       </c>
@@ -7018,23 +7064,23 @@
         <f>IF(_acsReport_day_each!DJ8="","",_acsReport_day_each!DJ8)</f>
         <v/>
       </c>
-      <c r="AG14" s="34" t="str">
+      <c r="AG14" s="68" t="str">
         <f>IF(_acsReport_day_each!DK8="","",_acsReport_day_each!DK8)</f>
         <v/>
       </c>
-      <c r="AH14" s="35" t="str">
+      <c r="AH14" s="69" t="str">
         <f>IF(_acsReport_day_each!DL8="","",_acsReport_day_each!DL8)</f>
         <v/>
       </c>
-      <c r="AI14" s="35" t="str">
+      <c r="AI14" s="69" t="str">
         <f>IF(_acsReport_day_each!DM8="","",_acsReport_day_each!DM8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="35" t="str">
+      <c r="AJ14" s="69" t="str">
         <f>IF(_acsReport_day_each!DN8="","",_acsReport_day_each!DN8)</f>
         <v/>
       </c>
-      <c r="AK14" s="36" t="str">
+      <c r="AK14" s="70" t="str">
         <f>IF(_acsReport_day_each!DO8="","",_acsReport_day_each!DO8)</f>
         <v/>
       </c>
@@ -7279,19 +7325,19 @@
         <v/>
       </c>
       <c r="CT14" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH8="","",_acsReport_day_each!CH8)</f>
+        <f>IF(_acsReport1_day_each!F8="","",_acsReport1_day_each!F8)</f>
         <v/>
       </c>
       <c r="CU14" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI8="","",_acsReport_day_each!CI8)</f>
+        <f>IF(_acsReport1_day_each!G8="","",_acsReport1_day_each!G8)</f>
         <v/>
       </c>
       <c r="CV14" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ8="","",_acsReport_day_each!CJ8)</f>
+        <f>IF(_acsReport1_day_each!H8="","",_acsReport1_day_each!H8)</f>
         <v/>
       </c>
       <c r="CW14" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK8="","",_acsReport_day_each!CK8)</f>
+        <f>IF(_acsReport1_day_each!I8="","",_acsReport1_day_each!I8)</f>
         <v/>
       </c>
       <c r="CX14" s="34" t="str">
@@ -7340,23 +7386,23 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C15" s="38" t="str">
-        <f>IF(_acsReport_day_each!A9="","",_acsReport_day_each!A9)</f>
+        <f>IF(_acsReport1_day_each!A9="","",_acsReport1_day_each!A9)</f>
         <v/>
       </c>
       <c r="D15" s="39" t="str">
-        <f>IF(_acsReport_day_each!B9="","",_acsReport_day_each!B9)</f>
+        <f>IF(_acsReport1_day_each!B9="","",_acsReport1_day_each!B9)</f>
         <v/>
       </c>
       <c r="E15" s="39" t="str">
-        <f>IF(_acsReport_day_each!C9="","",_acsReport_day_each!C9)</f>
+        <f>IF(_acsReport1_day_each!C9="","",_acsReport1_day_each!C9)</f>
         <v/>
       </c>
       <c r="F15" s="39" t="str">
-        <f>IF(_acsReport_day_each!D9="","",_acsReport_day_each!D9)</f>
+        <f>IF(_acsReport1_day_each!D9="","",_acsReport1_day_each!D9)</f>
         <v/>
       </c>
       <c r="G15" s="40" t="str">
-        <f>IF(_acsReport_day_each!E9="","",_acsReport_day_each!E9)</f>
+        <f>IF(_acsReport1_day_each!E9="","",_acsReport1_day_each!E9)</f>
         <v/>
       </c>
       <c r="H15" s="38" t="str">
@@ -7435,7 +7481,7 @@
         <f>IF(_acsReport_day_each!X9="","",_acsReport_day_each!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="63" t="str">
+      <c r="AA15" s="64" t="str">
         <f>IF(_acsReport_day_each!Y9="","",_acsReport_day_each!Y9)</f>
         <v/>
       </c>
@@ -7459,23 +7505,23 @@
         <f>IF(_acsReport_day_each!DJ9="","",_acsReport_day_each!DJ9)</f>
         <v/>
       </c>
-      <c r="AG15" s="38" t="str">
+      <c r="AG15" s="71" t="str">
         <f>IF(_acsReport_day_each!DK9="","",_acsReport_day_each!DK9)</f>
         <v/>
       </c>
-      <c r="AH15" s="39" t="str">
+      <c r="AH15" s="72" t="str">
         <f>IF(_acsReport_day_each!DL9="","",_acsReport_day_each!DL9)</f>
         <v/>
       </c>
-      <c r="AI15" s="39" t="str">
+      <c r="AI15" s="72" t="str">
         <f>IF(_acsReport_day_each!DM9="","",_acsReport_day_each!DM9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="39" t="str">
+      <c r="AJ15" s="72" t="str">
         <f>IF(_acsReport_day_each!DN9="","",_acsReport_day_each!DN9)</f>
         <v/>
       </c>
-      <c r="AK15" s="40" t="str">
+      <c r="AK15" s="73" t="str">
         <f>IF(_acsReport_day_each!DO9="","",_acsReport_day_each!DO9)</f>
         <v/>
       </c>
@@ -7720,19 +7766,19 @@
         <v/>
       </c>
       <c r="CT15" s="38" t="str">
-        <f>IF(_acsReport_day_each!CH9="","",_acsReport_day_each!CH9)</f>
+        <f>IF(_acsReport1_day_each!F9="","",_acsReport1_day_each!F9)</f>
         <v/>
       </c>
       <c r="CU15" s="39" t="str">
-        <f>IF(_acsReport_day_each!CI9="","",_acsReport_day_each!CI9)</f>
+        <f>IF(_acsReport1_day_each!G9="","",_acsReport1_day_each!G9)</f>
         <v/>
       </c>
       <c r="CV15" s="39" t="str">
-        <f>IF(_acsReport_day_each!CJ9="","",_acsReport_day_each!CJ9)</f>
+        <f>IF(_acsReport1_day_each!H9="","",_acsReport1_day_each!H9)</f>
         <v/>
       </c>
       <c r="CW15" s="40" t="str">
-        <f>IF(_acsReport_day_each!CK9="","",_acsReport_day_each!CK9)</f>
+        <f>IF(_acsReport1_day_each!I9="","",_acsReport1_day_each!I9)</f>
         <v/>
       </c>
       <c r="CX15" s="38" t="str">
@@ -7781,23 +7827,23 @@
         <v>0.333333333333333</v>
       </c>
       <c r="C16" s="42" t="str">
-        <f>IF(_acsReport_day_each!A10="","",_acsReport_day_each!A10)</f>
+        <f>IF(_acsReport1_day_each!A10="","",_acsReport1_day_each!A10)</f>
         <v/>
       </c>
       <c r="D16" s="43" t="str">
-        <f>IF(_acsReport_day_each!B10="","",_acsReport_day_each!B10)</f>
+        <f>IF(_acsReport1_day_each!B10="","",_acsReport1_day_each!B10)</f>
         <v/>
       </c>
       <c r="E16" s="43" t="str">
-        <f>IF(_acsReport_day_each!C10="","",_acsReport_day_each!C10)</f>
+        <f>IF(_acsReport1_day_each!C10="","",_acsReport1_day_each!C10)</f>
         <v/>
       </c>
       <c r="F16" s="43" t="str">
-        <f>IF(_acsReport_day_each!D10="","",_acsReport_day_each!D10)</f>
+        <f>IF(_acsReport1_day_each!D10="","",_acsReport1_day_each!D10)</f>
         <v/>
       </c>
       <c r="G16" s="44" t="str">
-        <f>IF(_acsReport_day_each!E10="","",_acsReport_day_each!E10)</f>
+        <f>IF(_acsReport1_day_each!E10="","",_acsReport1_day_each!E10)</f>
         <v/>
       </c>
       <c r="H16" s="42" t="str">
@@ -7876,7 +7922,7 @@
         <f>IF(_acsReport_day_each!X10="","",_acsReport_day_each!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="64" t="str">
+      <c r="AA16" s="65" t="str">
         <f>IF(_acsReport_day_each!Y10="","",_acsReport_day_each!Y10)</f>
         <v/>
       </c>
@@ -7900,23 +7946,23 @@
         <f>IF(_acsReport_day_each!DJ10="","",_acsReport_day_each!DJ10)</f>
         <v/>
       </c>
-      <c r="AG16" s="42" t="str">
+      <c r="AG16" s="74" t="str">
         <f>IF(_acsReport_day_each!DK10="","",_acsReport_day_each!DK10)</f>
         <v/>
       </c>
-      <c r="AH16" s="43" t="str">
+      <c r="AH16" s="75" t="str">
         <f>IF(_acsReport_day_each!DL10="","",_acsReport_day_each!DL10)</f>
         <v/>
       </c>
-      <c r="AI16" s="43" t="str">
+      <c r="AI16" s="75" t="str">
         <f>IF(_acsReport_day_each!DM10="","",_acsReport_day_each!DM10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="43" t="str">
+      <c r="AJ16" s="75" t="str">
         <f>IF(_acsReport_day_each!DN10="","",_acsReport_day_each!DN10)</f>
         <v/>
       </c>
-      <c r="AK16" s="44" t="str">
+      <c r="AK16" s="76" t="str">
         <f>IF(_acsReport_day_each!DO10="","",_acsReport_day_each!DO10)</f>
         <v/>
       </c>
@@ -8161,38 +8207,38 @@
         <v/>
       </c>
       <c r="CT16" s="42" t="str">
-        <f>IF(_acsReport_day_each!CH10="","",_acsReport_day_each!CH10)</f>
+        <f>IF(_acsReport1_day_each!F10="","",_acsReport1_day_each!F10)</f>
         <v/>
       </c>
       <c r="CU16" s="43" t="str">
-        <f>IF(_acsReport_day_each!CI10="","",_acsReport_day_each!CI10)</f>
+        <f>IF(_acsReport1_day_each!G10="","",_acsReport1_day_each!G10)</f>
         <v/>
       </c>
       <c r="CV16" s="43" t="str">
-        <f>IF(_acsReport_day_each!CJ10="","",_acsReport_day_each!CJ10)</f>
+        <f>IF(_acsReport1_day_each!H10="","",_acsReport1_day_each!H10)</f>
         <v/>
       </c>
       <c r="CW16" s="44" t="str">
-        <f>IF(_acsReport_day_each!CK10="","",_acsReport_day_each!CK10)</f>
+        <f>IF(_acsReport1_day_each!I10="","",_acsReport1_day_each!I10)</f>
         <v/>
       </c>
       <c r="CX16" s="46" t="str">
         <f>IF(_acsReport_day_each!CL10="","",_acsReport_day_each!CL10)</f>
         <v/>
       </c>
-      <c r="CY16" s="47" t="str">
+      <c r="CY16" s="52" t="str">
         <f>IF(_acsReport_day_each!CM10="","",_acsReport_day_each!CM10)</f>
         <v/>
       </c>
-      <c r="CZ16" s="47" t="str">
+      <c r="CZ16" s="52" t="str">
         <f>IF(_acsReport_day_each!CN10="","",_acsReport_day_each!CN10)</f>
         <v/>
       </c>
-      <c r="DA16" s="47" t="str">
+      <c r="DA16" s="52" t="str">
         <f>IF(_acsReport_day_each!CO10="","",_acsReport_day_each!CO10)</f>
         <v/>
       </c>
-      <c r="DB16" s="48" t="str">
+      <c r="DB16" s="53" t="str">
         <f>IF(_acsReport_day_each!CP10="","",_acsReport_day_each!CP10)</f>
         <v/>
       </c>
@@ -8222,23 +8268,23 @@
         <v>0.375</v>
       </c>
       <c r="C17" s="34" t="str">
-        <f>IF(_acsReport_day_each!A11="","",_acsReport_day_each!A11)</f>
+        <f>IF(_acsReport1_day_each!A11="","",_acsReport1_day_each!A11)</f>
         <v/>
       </c>
       <c r="D17" s="35" t="str">
-        <f>IF(_acsReport_day_each!B11="","",_acsReport_day_each!B11)</f>
+        <f>IF(_acsReport1_day_each!B11="","",_acsReport1_day_each!B11)</f>
         <v/>
       </c>
       <c r="E17" s="35" t="str">
-        <f>IF(_acsReport_day_each!C11="","",_acsReport_day_each!C11)</f>
+        <f>IF(_acsReport1_day_each!C11="","",_acsReport1_day_each!C11)</f>
         <v/>
       </c>
       <c r="F17" s="35" t="str">
-        <f>IF(_acsReport_day_each!D11="","",_acsReport_day_each!D11)</f>
+        <f>IF(_acsReport1_day_each!D11="","",_acsReport1_day_each!D11)</f>
         <v/>
       </c>
       <c r="G17" s="36" t="str">
-        <f>IF(_acsReport_day_each!E11="","",_acsReport_day_each!E11)</f>
+        <f>IF(_acsReport1_day_each!E11="","",_acsReport1_day_each!E11)</f>
         <v/>
       </c>
       <c r="H17" s="34" t="str">
@@ -8317,7 +8363,7 @@
         <f>IF(_acsReport_day_each!X11="","",_acsReport_day_each!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="62" t="str">
+      <c r="AA17" s="63" t="str">
         <f>IF(_acsReport_day_each!Y11="","",_acsReport_day_each!Y11)</f>
         <v/>
       </c>
@@ -8341,23 +8387,23 @@
         <f>IF(_acsReport_day_each!DJ11="","",_acsReport_day_each!DJ11)</f>
         <v/>
       </c>
-      <c r="AG17" s="34" t="str">
+      <c r="AG17" s="68" t="str">
         <f>IF(_acsReport_day_each!DK11="","",_acsReport_day_each!DK11)</f>
         <v/>
       </c>
-      <c r="AH17" s="35" t="str">
+      <c r="AH17" s="69" t="str">
         <f>IF(_acsReport_day_each!DL11="","",_acsReport_day_each!DL11)</f>
         <v/>
       </c>
-      <c r="AI17" s="35" t="str">
+      <c r="AI17" s="69" t="str">
         <f>IF(_acsReport_day_each!DM11="","",_acsReport_day_each!DM11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="35" t="str">
+      <c r="AJ17" s="69" t="str">
         <f>IF(_acsReport_day_each!DN11="","",_acsReport_day_each!DN11)</f>
         <v/>
       </c>
-      <c r="AK17" s="36" t="str">
+      <c r="AK17" s="70" t="str">
         <f>IF(_acsReport_day_each!DO11="","",_acsReport_day_each!DO11)</f>
         <v/>
       </c>
@@ -8602,19 +8648,19 @@
         <v/>
       </c>
       <c r="CT17" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH11="","",_acsReport_day_each!CH11)</f>
+        <f>IF(_acsReport1_day_each!F11="","",_acsReport1_day_each!F11)</f>
         <v/>
       </c>
       <c r="CU17" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI11="","",_acsReport_day_each!CI11)</f>
+        <f>IF(_acsReport1_day_each!G11="","",_acsReport1_day_each!G11)</f>
         <v/>
       </c>
       <c r="CV17" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ11="","",_acsReport_day_each!CJ11)</f>
+        <f>IF(_acsReport1_day_each!H11="","",_acsReport1_day_each!H11)</f>
         <v/>
       </c>
       <c r="CW17" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK11="","",_acsReport_day_each!CK11)</f>
+        <f>IF(_acsReport1_day_each!I11="","",_acsReport1_day_each!I11)</f>
         <v/>
       </c>
       <c r="CX17" s="34" t="str">
@@ -8663,23 +8709,23 @@
         <v>0.416666666666667</v>
       </c>
       <c r="C18" s="34" t="str">
-        <f>IF(_acsReport_day_each!A12="","",_acsReport_day_each!A12)</f>
+        <f>IF(_acsReport1_day_each!A12="","",_acsReport1_day_each!A12)</f>
         <v/>
       </c>
       <c r="D18" s="35" t="str">
-        <f>IF(_acsReport_day_each!B12="","",_acsReport_day_each!B12)</f>
+        <f>IF(_acsReport1_day_each!B12="","",_acsReport1_day_each!B12)</f>
         <v/>
       </c>
       <c r="E18" s="35" t="str">
-        <f>IF(_acsReport_day_each!C12="","",_acsReport_day_each!C12)</f>
+        <f>IF(_acsReport1_day_each!C12="","",_acsReport1_day_each!C12)</f>
         <v/>
       </c>
       <c r="F18" s="35" t="str">
-        <f>IF(_acsReport_day_each!D12="","",_acsReport_day_each!D12)</f>
+        <f>IF(_acsReport1_day_each!D12="","",_acsReport1_day_each!D12)</f>
         <v/>
       </c>
       <c r="G18" s="36" t="str">
-        <f>IF(_acsReport_day_each!E12="","",_acsReport_day_each!E12)</f>
+        <f>IF(_acsReport1_day_each!E12="","",_acsReport1_day_each!E12)</f>
         <v/>
       </c>
       <c r="H18" s="34" t="str">
@@ -8758,7 +8804,7 @@
         <f>IF(_acsReport_day_each!X12="","",_acsReport_day_each!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="62" t="str">
+      <c r="AA18" s="63" t="str">
         <f>IF(_acsReport_day_each!Y12="","",_acsReport_day_each!Y12)</f>
         <v/>
       </c>
@@ -8782,23 +8828,23 @@
         <f>IF(_acsReport_day_each!DJ12="","",_acsReport_day_each!DJ12)</f>
         <v/>
       </c>
-      <c r="AG18" s="34" t="str">
+      <c r="AG18" s="68" t="str">
         <f>IF(_acsReport_day_each!DK12="","",_acsReport_day_each!DK12)</f>
         <v/>
       </c>
-      <c r="AH18" s="35" t="str">
+      <c r="AH18" s="69" t="str">
         <f>IF(_acsReport_day_each!DL12="","",_acsReport_day_each!DL12)</f>
         <v/>
       </c>
-      <c r="AI18" s="35" t="str">
+      <c r="AI18" s="69" t="str">
         <f>IF(_acsReport_day_each!DM12="","",_acsReport_day_each!DM12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="35" t="str">
+      <c r="AJ18" s="69" t="str">
         <f>IF(_acsReport_day_each!DN12="","",_acsReport_day_each!DN12)</f>
         <v/>
       </c>
-      <c r="AK18" s="36" t="str">
+      <c r="AK18" s="70" t="str">
         <f>IF(_acsReport_day_each!DO12="","",_acsReport_day_each!DO12)</f>
         <v/>
       </c>
@@ -9043,19 +9089,19 @@
         <v/>
       </c>
       <c r="CT18" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH12="","",_acsReport_day_each!CH12)</f>
+        <f>IF(_acsReport1_day_each!F12="","",_acsReport1_day_each!F12)</f>
         <v/>
       </c>
       <c r="CU18" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI12="","",_acsReport_day_each!CI12)</f>
+        <f>IF(_acsReport1_day_each!G12="","",_acsReport1_day_each!G12)</f>
         <v/>
       </c>
       <c r="CV18" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ12="","",_acsReport_day_each!CJ12)</f>
+        <f>IF(_acsReport1_day_each!H12="","",_acsReport1_day_each!H12)</f>
         <v/>
       </c>
       <c r="CW18" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK12="","",_acsReport_day_each!CK12)</f>
+        <f>IF(_acsReport1_day_each!I12="","",_acsReport1_day_each!I12)</f>
         <v/>
       </c>
       <c r="CX18" s="34" t="str">
@@ -9104,23 +9150,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C19" s="34" t="str">
-        <f>IF(_acsReport_day_each!A13="","",_acsReport_day_each!A13)</f>
+        <f>IF(_acsReport1_day_each!A13="","",_acsReport1_day_each!A13)</f>
         <v/>
       </c>
       <c r="D19" s="35" t="str">
-        <f>IF(_acsReport_day_each!B13="","",_acsReport_day_each!B13)</f>
+        <f>IF(_acsReport1_day_each!B13="","",_acsReport1_day_each!B13)</f>
         <v/>
       </c>
       <c r="E19" s="35" t="str">
-        <f>IF(_acsReport_day_each!C13="","",_acsReport_day_each!C13)</f>
+        <f>IF(_acsReport1_day_each!C13="","",_acsReport1_day_each!C13)</f>
         <v/>
       </c>
       <c r="F19" s="35" t="str">
-        <f>IF(_acsReport_day_each!D13="","",_acsReport_day_each!D13)</f>
+        <f>IF(_acsReport1_day_each!D13="","",_acsReport1_day_each!D13)</f>
         <v/>
       </c>
       <c r="G19" s="36" t="str">
-        <f>IF(_acsReport_day_each!E13="","",_acsReport_day_each!E13)</f>
+        <f>IF(_acsReport1_day_each!E13="","",_acsReport1_day_each!E13)</f>
         <v/>
       </c>
       <c r="H19" s="34" t="str">
@@ -9199,7 +9245,7 @@
         <f>IF(_acsReport_day_each!X13="","",_acsReport_day_each!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="62" t="str">
+      <c r="AA19" s="63" t="str">
         <f>IF(_acsReport_day_each!Y13="","",_acsReport_day_each!Y13)</f>
         <v/>
       </c>
@@ -9223,23 +9269,23 @@
         <f>IF(_acsReport_day_each!DJ13="","",_acsReport_day_each!DJ13)</f>
         <v/>
       </c>
-      <c r="AG19" s="34" t="str">
+      <c r="AG19" s="68" t="str">
         <f>IF(_acsReport_day_each!DK13="","",_acsReport_day_each!DK13)</f>
         <v/>
       </c>
-      <c r="AH19" s="35" t="str">
+      <c r="AH19" s="69" t="str">
         <f>IF(_acsReport_day_each!DL13="","",_acsReport_day_each!DL13)</f>
         <v/>
       </c>
-      <c r="AI19" s="35" t="str">
+      <c r="AI19" s="69" t="str">
         <f>IF(_acsReport_day_each!DM13="","",_acsReport_day_each!DM13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="35" t="str">
+      <c r="AJ19" s="69" t="str">
         <f>IF(_acsReport_day_each!DN13="","",_acsReport_day_each!DN13)</f>
         <v/>
       </c>
-      <c r="AK19" s="36" t="str">
+      <c r="AK19" s="70" t="str">
         <f>IF(_acsReport_day_each!DO13="","",_acsReport_day_each!DO13)</f>
         <v/>
       </c>
@@ -9484,19 +9530,19 @@
         <v/>
       </c>
       <c r="CT19" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH13="","",_acsReport_day_each!CH13)</f>
+        <f>IF(_acsReport1_day_each!F13="","",_acsReport1_day_each!F13)</f>
         <v/>
       </c>
       <c r="CU19" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI13="","",_acsReport_day_each!CI13)</f>
+        <f>IF(_acsReport1_day_each!G13="","",_acsReport1_day_each!G13)</f>
         <v/>
       </c>
       <c r="CV19" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ13="","",_acsReport_day_each!CJ13)</f>
+        <f>IF(_acsReport1_day_each!H13="","",_acsReport1_day_each!H13)</f>
         <v/>
       </c>
       <c r="CW19" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK13="","",_acsReport_day_each!CK13)</f>
+        <f>IF(_acsReport1_day_each!I13="","",_acsReport1_day_each!I13)</f>
         <v/>
       </c>
       <c r="CX19" s="34" t="str">
@@ -9545,23 +9591,23 @@
         <v>0.5</v>
       </c>
       <c r="C20" s="34" t="str">
-        <f>IF(_acsReport_day_each!A14="","",_acsReport_day_each!A14)</f>
+        <f>IF(_acsReport1_day_each!A14="","",_acsReport1_day_each!A14)</f>
         <v/>
       </c>
       <c r="D20" s="35" t="str">
-        <f>IF(_acsReport_day_each!B14="","",_acsReport_day_each!B14)</f>
+        <f>IF(_acsReport1_day_each!B14="","",_acsReport1_day_each!B14)</f>
         <v/>
       </c>
       <c r="E20" s="35" t="str">
-        <f>IF(_acsReport_day_each!C14="","",_acsReport_day_each!C14)</f>
+        <f>IF(_acsReport1_day_each!C14="","",_acsReport1_day_each!C14)</f>
         <v/>
       </c>
       <c r="F20" s="35" t="str">
-        <f>IF(_acsReport_day_each!D14="","",_acsReport_day_each!D14)</f>
+        <f>IF(_acsReport1_day_each!D14="","",_acsReport1_day_each!D14)</f>
         <v/>
       </c>
       <c r="G20" s="36" t="str">
-        <f>IF(_acsReport_day_each!E14="","",_acsReport_day_each!E14)</f>
+        <f>IF(_acsReport1_day_each!E14="","",_acsReport1_day_each!E14)</f>
         <v/>
       </c>
       <c r="H20" s="34" t="str">
@@ -9640,7 +9686,7 @@
         <f>IF(_acsReport_day_each!X14="","",_acsReport_day_each!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="62" t="str">
+      <c r="AA20" s="63" t="str">
         <f>IF(_acsReport_day_each!Y14="","",_acsReport_day_each!Y14)</f>
         <v/>
       </c>
@@ -9664,23 +9710,23 @@
         <f>IF(_acsReport_day_each!DJ14="","",_acsReport_day_each!DJ14)</f>
         <v/>
       </c>
-      <c r="AG20" s="34" t="str">
+      <c r="AG20" s="68" t="str">
         <f>IF(_acsReport_day_each!DK14="","",_acsReport_day_each!DK14)</f>
         <v/>
       </c>
-      <c r="AH20" s="35" t="str">
+      <c r="AH20" s="69" t="str">
         <f>IF(_acsReport_day_each!DL14="","",_acsReport_day_each!DL14)</f>
         <v/>
       </c>
-      <c r="AI20" s="35" t="str">
+      <c r="AI20" s="69" t="str">
         <f>IF(_acsReport_day_each!DM14="","",_acsReport_day_each!DM14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="35" t="str">
+      <c r="AJ20" s="69" t="str">
         <f>IF(_acsReport_day_each!DN14="","",_acsReport_day_each!DN14)</f>
         <v/>
       </c>
-      <c r="AK20" s="36" t="str">
+      <c r="AK20" s="70" t="str">
         <f>IF(_acsReport_day_each!DO14="","",_acsReport_day_each!DO14)</f>
         <v/>
       </c>
@@ -9925,19 +9971,19 @@
         <v/>
       </c>
       <c r="CT20" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH14="","",_acsReport_day_each!CH14)</f>
+        <f>IF(_acsReport1_day_each!F14="","",_acsReport1_day_each!F14)</f>
         <v/>
       </c>
       <c r="CU20" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI14="","",_acsReport_day_each!CI14)</f>
+        <f>IF(_acsReport1_day_each!G14="","",_acsReport1_day_each!G14)</f>
         <v/>
       </c>
       <c r="CV20" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ14="","",_acsReport_day_each!CJ14)</f>
+        <f>IF(_acsReport1_day_each!H14="","",_acsReport1_day_each!H14)</f>
         <v/>
       </c>
       <c r="CW20" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK14="","",_acsReport_day_each!CK14)</f>
+        <f>IF(_acsReport1_day_each!I14="","",_acsReport1_day_each!I14)</f>
         <v/>
       </c>
       <c r="CX20" s="34" t="str">
@@ -9986,23 +10032,23 @@
         <v>0.541666666666667</v>
       </c>
       <c r="C21" s="34" t="str">
-        <f>IF(_acsReport_day_each!A15="","",_acsReport_day_each!A15)</f>
+        <f>IF(_acsReport1_day_each!A15="","",_acsReport1_day_each!A15)</f>
         <v/>
       </c>
       <c r="D21" s="35" t="str">
-        <f>IF(_acsReport_day_each!B15="","",_acsReport_day_each!B15)</f>
+        <f>IF(_acsReport1_day_each!B15="","",_acsReport1_day_each!B15)</f>
         <v/>
       </c>
       <c r="E21" s="35" t="str">
-        <f>IF(_acsReport_day_each!C15="","",_acsReport_day_each!C15)</f>
+        <f>IF(_acsReport1_day_each!C15="","",_acsReport1_day_each!C15)</f>
         <v/>
       </c>
       <c r="F21" s="35" t="str">
-        <f>IF(_acsReport_day_each!D15="","",_acsReport_day_each!D15)</f>
+        <f>IF(_acsReport1_day_each!D15="","",_acsReport1_day_each!D15)</f>
         <v/>
       </c>
       <c r="G21" s="36" t="str">
-        <f>IF(_acsReport_day_each!E15="","",_acsReport_day_each!E15)</f>
+        <f>IF(_acsReport1_day_each!E15="","",_acsReport1_day_each!E15)</f>
         <v/>
       </c>
       <c r="H21" s="34" t="str">
@@ -10081,7 +10127,7 @@
         <f>IF(_acsReport_day_each!X15="","",_acsReport_day_each!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="62" t="str">
+      <c r="AA21" s="63" t="str">
         <f>IF(_acsReport_day_each!Y15="","",_acsReport_day_each!Y15)</f>
         <v/>
       </c>
@@ -10105,23 +10151,23 @@
         <f>IF(_acsReport_day_each!DJ15="","",_acsReport_day_each!DJ15)</f>
         <v/>
       </c>
-      <c r="AG21" s="34" t="str">
+      <c r="AG21" s="68" t="str">
         <f>IF(_acsReport_day_each!DK15="","",_acsReport_day_each!DK15)</f>
         <v/>
       </c>
-      <c r="AH21" s="35" t="str">
+      <c r="AH21" s="69" t="str">
         <f>IF(_acsReport_day_each!DL15="","",_acsReport_day_each!DL15)</f>
         <v/>
       </c>
-      <c r="AI21" s="35" t="str">
+      <c r="AI21" s="69" t="str">
         <f>IF(_acsReport_day_each!DM15="","",_acsReport_day_each!DM15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="35" t="str">
+      <c r="AJ21" s="69" t="str">
         <f>IF(_acsReport_day_each!DN15="","",_acsReport_day_each!DN15)</f>
         <v/>
       </c>
-      <c r="AK21" s="36" t="str">
+      <c r="AK21" s="70" t="str">
         <f>IF(_acsReport_day_each!DO15="","",_acsReport_day_each!DO15)</f>
         <v/>
       </c>
@@ -10366,19 +10412,19 @@
         <v/>
       </c>
       <c r="CT21" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH15="","",_acsReport_day_each!CH15)</f>
+        <f>IF(_acsReport1_day_each!F15="","",_acsReport1_day_each!F15)</f>
         <v/>
       </c>
       <c r="CU21" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI15="","",_acsReport_day_each!CI15)</f>
+        <f>IF(_acsReport1_day_each!G15="","",_acsReport1_day_each!G15)</f>
         <v/>
       </c>
       <c r="CV21" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ15="","",_acsReport_day_each!CJ15)</f>
+        <f>IF(_acsReport1_day_each!H15="","",_acsReport1_day_each!H15)</f>
         <v/>
       </c>
       <c r="CW21" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK15="","",_acsReport_day_each!CK15)</f>
+        <f>IF(_acsReport1_day_each!I15="","",_acsReport1_day_each!I15)</f>
         <v/>
       </c>
       <c r="CX21" s="34" t="str">
@@ -10427,23 +10473,23 @@
         <v>0.583333333333333</v>
       </c>
       <c r="C22" s="34" t="str">
-        <f>IF(_acsReport_day_each!A16="","",_acsReport_day_each!A16)</f>
+        <f>IF(_acsReport1_day_each!A16="","",_acsReport1_day_each!A16)</f>
         <v/>
       </c>
       <c r="D22" s="35" t="str">
-        <f>IF(_acsReport_day_each!B16="","",_acsReport_day_each!B16)</f>
+        <f>IF(_acsReport1_day_each!B16="","",_acsReport1_day_each!B16)</f>
         <v/>
       </c>
       <c r="E22" s="35" t="str">
-        <f>IF(_acsReport_day_each!C16="","",_acsReport_day_each!C16)</f>
+        <f>IF(_acsReport1_day_each!C16="","",_acsReport1_day_each!C16)</f>
         <v/>
       </c>
       <c r="F22" s="35" t="str">
-        <f>IF(_acsReport_day_each!D16="","",_acsReport_day_each!D16)</f>
+        <f>IF(_acsReport1_day_each!D16="","",_acsReport1_day_each!D16)</f>
         <v/>
       </c>
       <c r="G22" s="36" t="str">
-        <f>IF(_acsReport_day_each!E16="","",_acsReport_day_each!E16)</f>
+        <f>IF(_acsReport1_day_each!E16="","",_acsReport1_day_each!E16)</f>
         <v/>
       </c>
       <c r="H22" s="34" t="str">
@@ -10522,7 +10568,7 @@
         <f>IF(_acsReport_day_each!X16="","",_acsReport_day_each!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="62" t="str">
+      <c r="AA22" s="63" t="str">
         <f>IF(_acsReport_day_each!Y16="","",_acsReport_day_each!Y16)</f>
         <v/>
       </c>
@@ -10546,23 +10592,23 @@
         <f>IF(_acsReport_day_each!DJ16="","",_acsReport_day_each!DJ16)</f>
         <v/>
       </c>
-      <c r="AG22" s="34" t="str">
+      <c r="AG22" s="68" t="str">
         <f>IF(_acsReport_day_each!DK16="","",_acsReport_day_each!DK16)</f>
         <v/>
       </c>
-      <c r="AH22" s="35" t="str">
+      <c r="AH22" s="69" t="str">
         <f>IF(_acsReport_day_each!DL16="","",_acsReport_day_each!DL16)</f>
         <v/>
       </c>
-      <c r="AI22" s="35" t="str">
+      <c r="AI22" s="69" t="str">
         <f>IF(_acsReport_day_each!DM16="","",_acsReport_day_each!DM16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="35" t="str">
+      <c r="AJ22" s="69" t="str">
         <f>IF(_acsReport_day_each!DN16="","",_acsReport_day_each!DN16)</f>
         <v/>
       </c>
-      <c r="AK22" s="36" t="str">
+      <c r="AK22" s="70" t="str">
         <f>IF(_acsReport_day_each!DO16="","",_acsReport_day_each!DO16)</f>
         <v/>
       </c>
@@ -10807,19 +10853,19 @@
         <v/>
       </c>
       <c r="CT22" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH16="","",_acsReport_day_each!CH16)</f>
+        <f>IF(_acsReport1_day_each!F16="","",_acsReport1_day_each!F16)</f>
         <v/>
       </c>
       <c r="CU22" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI16="","",_acsReport_day_each!CI16)</f>
+        <f>IF(_acsReport1_day_each!G16="","",_acsReport1_day_each!G16)</f>
         <v/>
       </c>
       <c r="CV22" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ16="","",_acsReport_day_each!CJ16)</f>
+        <f>IF(_acsReport1_day_each!H16="","",_acsReport1_day_each!H16)</f>
         <v/>
       </c>
       <c r="CW22" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK16="","",_acsReport_day_each!CK16)</f>
+        <f>IF(_acsReport1_day_each!I16="","",_acsReport1_day_each!I16)</f>
         <v/>
       </c>
       <c r="CX22" s="34" t="str">
@@ -10868,23 +10914,23 @@
         <v>0.625</v>
       </c>
       <c r="C23" s="38" t="str">
-        <f>IF(_acsReport_day_each!A17="","",_acsReport_day_each!A17)</f>
+        <f>IF(_acsReport1_day_each!A17="","",_acsReport1_day_each!A17)</f>
         <v/>
       </c>
       <c r="D23" s="39" t="str">
-        <f>IF(_acsReport_day_each!B17="","",_acsReport_day_each!B17)</f>
+        <f>IF(_acsReport1_day_each!B17="","",_acsReport1_day_each!B17)</f>
         <v/>
       </c>
       <c r="E23" s="39" t="str">
-        <f>IF(_acsReport_day_each!C17="","",_acsReport_day_each!C17)</f>
+        <f>IF(_acsReport1_day_each!C17="","",_acsReport1_day_each!C17)</f>
         <v/>
       </c>
       <c r="F23" s="39" t="str">
-        <f>IF(_acsReport_day_each!D17="","",_acsReport_day_each!D17)</f>
+        <f>IF(_acsReport1_day_each!D17="","",_acsReport1_day_each!D17)</f>
         <v/>
       </c>
       <c r="G23" s="40" t="str">
-        <f>IF(_acsReport_day_each!E17="","",_acsReport_day_each!E17)</f>
+        <f>IF(_acsReport1_day_each!E17="","",_acsReport1_day_each!E17)</f>
         <v/>
       </c>
       <c r="H23" s="38" t="str">
@@ -10963,7 +11009,7 @@
         <f>IF(_acsReport_day_each!X17="","",_acsReport_day_each!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="63" t="str">
+      <c r="AA23" s="64" t="str">
         <f>IF(_acsReport_day_each!Y17="","",_acsReport_day_each!Y17)</f>
         <v/>
       </c>
@@ -10987,23 +11033,23 @@
         <f>IF(_acsReport_day_each!DJ17="","",_acsReport_day_each!DJ17)</f>
         <v/>
       </c>
-      <c r="AG23" s="38" t="str">
+      <c r="AG23" s="71" t="str">
         <f>IF(_acsReport_day_each!DK17="","",_acsReport_day_each!DK17)</f>
         <v/>
       </c>
-      <c r="AH23" s="39" t="str">
+      <c r="AH23" s="72" t="str">
         <f>IF(_acsReport_day_each!DL17="","",_acsReport_day_each!DL17)</f>
         <v/>
       </c>
-      <c r="AI23" s="39" t="str">
+      <c r="AI23" s="72" t="str">
         <f>IF(_acsReport_day_each!DM17="","",_acsReport_day_each!DM17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="39" t="str">
+      <c r="AJ23" s="72" t="str">
         <f>IF(_acsReport_day_each!DN17="","",_acsReport_day_each!DN17)</f>
         <v/>
       </c>
-      <c r="AK23" s="40" t="str">
+      <c r="AK23" s="73" t="str">
         <f>IF(_acsReport_day_each!DO17="","",_acsReport_day_each!DO17)</f>
         <v/>
       </c>
@@ -11248,19 +11294,19 @@
         <v/>
       </c>
       <c r="CT23" s="38" t="str">
-        <f>IF(_acsReport_day_each!CH17="","",_acsReport_day_each!CH17)</f>
+        <f>IF(_acsReport1_day_each!F17="","",_acsReport1_day_each!F17)</f>
         <v/>
       </c>
       <c r="CU23" s="39" t="str">
-        <f>IF(_acsReport_day_each!CI17="","",_acsReport_day_each!CI17)</f>
+        <f>IF(_acsReport1_day_each!G17="","",_acsReport1_day_each!G17)</f>
         <v/>
       </c>
       <c r="CV23" s="39" t="str">
-        <f>IF(_acsReport_day_each!CJ17="","",_acsReport_day_each!CJ17)</f>
+        <f>IF(_acsReport1_day_each!H17="","",_acsReport1_day_each!H17)</f>
         <v/>
       </c>
       <c r="CW23" s="40" t="str">
-        <f>IF(_acsReport_day_each!CK17="","",_acsReport_day_each!CK17)</f>
+        <f>IF(_acsReport1_day_each!I17="","",_acsReport1_day_each!I17)</f>
         <v/>
       </c>
       <c r="CX23" s="38" t="str">
@@ -11308,43 +11354,43 @@
       <c r="B24" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="C24" s="46" t="str">
-        <f>IF(_acsReport_day_each!A18="","",_acsReport_day_each!A18)</f>
-        <v/>
-      </c>
-      <c r="D24" s="47" t="str">
-        <f>IF(_acsReport_day_each!B18="","",_acsReport_day_each!B18)</f>
-        <v/>
-      </c>
-      <c r="E24" s="47" t="str">
-        <f>IF(_acsReport_day_each!C18="","",_acsReport_day_each!C18)</f>
-        <v/>
-      </c>
-      <c r="F24" s="47" t="str">
-        <f>IF(_acsReport_day_each!D18="","",_acsReport_day_each!D18)</f>
-        <v/>
-      </c>
-      <c r="G24" s="48" t="str">
-        <f>IF(_acsReport_day_each!E18="","",_acsReport_day_each!E18)</f>
+      <c r="C24" s="42" t="str">
+        <f>IF(_acsReport1_day_each!A18="","",_acsReport1_day_each!A18)</f>
+        <v/>
+      </c>
+      <c r="D24" s="43" t="str">
+        <f>IF(_acsReport1_day_each!B18="","",_acsReport1_day_each!B18)</f>
+        <v/>
+      </c>
+      <c r="E24" s="43" t="str">
+        <f>IF(_acsReport1_day_each!C18="","",_acsReport1_day_each!C18)</f>
+        <v/>
+      </c>
+      <c r="F24" s="43" t="str">
+        <f>IF(_acsReport1_day_each!D18="","",_acsReport1_day_each!D18)</f>
+        <v/>
+      </c>
+      <c r="G24" s="44" t="str">
+        <f>IF(_acsReport1_day_each!E18="","",_acsReport1_day_each!E18)</f>
         <v/>
       </c>
       <c r="H24" s="46" t="str">
         <f>IF(_acsReport_day_each!F18="","",_acsReport_day_each!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="47" t="str">
+      <c r="I24" s="52" t="str">
         <f>IF(_acsReport_day_each!G18="","",_acsReport_day_each!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="47" t="str">
+      <c r="J24" s="52" t="str">
         <f>IF(_acsReport_day_each!H18="","",_acsReport_day_each!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="47" t="str">
+      <c r="K24" s="52" t="str">
         <f>IF(_acsReport_day_each!I18="","",_acsReport_day_each!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="48" t="str">
+      <c r="L24" s="53" t="str">
         <f>IF(_acsReport_day_each!J18="","",_acsReport_day_each!J18)</f>
         <v/>
       </c>
@@ -11352,19 +11398,19 @@
         <f>IF(_acsReport_day_each!K18="","",_acsReport_day_each!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="47" t="str">
+      <c r="N24" s="52" t="str">
         <f>IF(_acsReport_day_each!L18="","",_acsReport_day_each!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="47" t="str">
+      <c r="O24" s="52" t="str">
         <f>IF(_acsReport_day_each!M18="","",_acsReport_day_each!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="47" t="str">
+      <c r="P24" s="52" t="str">
         <f>IF(_acsReport_day_each!N18="","",_acsReport_day_each!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="48" t="str">
+      <c r="Q24" s="53" t="str">
         <f>IF(_acsReport_day_each!O18="","",_acsReport_day_each!O18)</f>
         <v/>
       </c>
@@ -11372,19 +11418,19 @@
         <f>IF(_acsReport_day_each!P18="","",_acsReport_day_each!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="47" t="str">
+      <c r="S24" s="52" t="str">
         <f>IF(_acsReport_day_each!Q18="","",_acsReport_day_each!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="47" t="str">
+      <c r="T24" s="52" t="str">
         <f>IF(_acsReport_day_each!R18="","",_acsReport_day_each!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="47" t="str">
+      <c r="U24" s="52" t="str">
         <f>IF(_acsReport_day_each!S18="","",_acsReport_day_each!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="48" t="str">
+      <c r="V24" s="53" t="str">
         <f>IF(_acsReport_day_each!T18="","",_acsReport_day_each!T18)</f>
         <v/>
       </c>
@@ -11392,19 +11438,19 @@
         <f>IF(_acsReport_day_each!U18="","",_acsReport_day_each!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="47" t="str">
+      <c r="X24" s="52" t="str">
         <f>IF(_acsReport_day_each!V18="","",_acsReport_day_each!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="47" t="str">
+      <c r="Y24" s="52" t="str">
         <f>IF(_acsReport_day_each!W18="","",_acsReport_day_each!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="47" t="str">
+      <c r="Z24" s="52" t="str">
         <f>IF(_acsReport_day_each!X18="","",_acsReport_day_each!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="65" t="str">
+      <c r="AA24" s="66" t="str">
         <f>IF(_acsReport_day_each!Y18="","",_acsReport_day_each!Y18)</f>
         <v/>
       </c>
@@ -11412,39 +11458,39 @@
         <f>IF(_acsReport_day_each!DF18="","",_acsReport_day_each!DF18)</f>
         <v/>
       </c>
-      <c r="AC24" s="47" t="str">
+      <c r="AC24" s="52" t="str">
         <f>IF(_acsReport_day_each!DG18="","",_acsReport_day_each!DG18)</f>
         <v/>
       </c>
-      <c r="AD24" s="47" t="str">
+      <c r="AD24" s="52" t="str">
         <f>IF(_acsReport_day_each!DH18="","",_acsReport_day_each!DH18)</f>
         <v/>
       </c>
-      <c r="AE24" s="47" t="str">
+      <c r="AE24" s="52" t="str">
         <f>IF(_acsReport_day_each!DI18="","",_acsReport_day_each!DI18)</f>
         <v/>
       </c>
-      <c r="AF24" s="48" t="str">
+      <c r="AF24" s="53" t="str">
         <f>IF(_acsReport_day_each!DJ18="","",_acsReport_day_each!DJ18)</f>
         <v/>
       </c>
-      <c r="AG24" s="42" t="str">
+      <c r="AG24" s="74" t="str">
         <f>IF(_acsReport_day_each!DK18="","",_acsReport_day_each!DK18)</f>
         <v/>
       </c>
-      <c r="AH24" s="43" t="str">
+      <c r="AH24" s="75" t="str">
         <f>IF(_acsReport_day_each!DL18="","",_acsReport_day_each!DL18)</f>
         <v/>
       </c>
-      <c r="AI24" s="43" t="str">
+      <c r="AI24" s="75" t="str">
         <f>IF(_acsReport_day_each!DM18="","",_acsReport_day_each!DM18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="43" t="str">
+      <c r="AJ24" s="75" t="str">
         <f>IF(_acsReport_day_each!DN18="","",_acsReport_day_each!DN18)</f>
         <v/>
       </c>
-      <c r="AK24" s="44" t="str">
+      <c r="AK24" s="76" t="str">
         <f>IF(_acsReport_day_each!DO18="","",_acsReport_day_each!DO18)</f>
         <v/>
       </c>
@@ -11452,19 +11498,19 @@
         <f>IF(_acsReport_day_each!Z18="","",_acsReport_day_each!Z18)</f>
         <v/>
       </c>
-      <c r="AM24" s="47" t="str">
+      <c r="AM24" s="52" t="str">
         <f>IF(_acsReport_day_each!AA18="","",_acsReport_day_each!AA18)</f>
         <v/>
       </c>
-      <c r="AN24" s="47" t="str">
+      <c r="AN24" s="52" t="str">
         <f>IF(_acsReport_day_each!AB18="","",_acsReport_day_each!AB18)</f>
         <v/>
       </c>
-      <c r="AO24" s="47" t="str">
+      <c r="AO24" s="52" t="str">
         <f>IF(_acsReport_day_each!AC18="","",_acsReport_day_each!AC18)</f>
         <v/>
       </c>
-      <c r="AP24" s="48" t="str">
+      <c r="AP24" s="53" t="str">
         <f>IF(_acsReport_day_each!AD18="","",_acsReport_day_each!AD18)</f>
         <v/>
       </c>
@@ -11472,19 +11518,19 @@
         <f>IF(_acsReport_day_each!AE18="","",_acsReport_day_each!AE18)</f>
         <v/>
       </c>
-      <c r="AR24" s="47" t="str">
+      <c r="AR24" s="52" t="str">
         <f>IF(_acsReport_day_each!AF18="","",_acsReport_day_each!AF18)</f>
         <v/>
       </c>
-      <c r="AS24" s="47" t="str">
+      <c r="AS24" s="52" t="str">
         <f>IF(_acsReport_day_each!AG18="","",_acsReport_day_each!AG18)</f>
         <v/>
       </c>
-      <c r="AT24" s="47" t="str">
+      <c r="AT24" s="52" t="str">
         <f>IF(_acsReport_day_each!AH18="","",_acsReport_day_each!AH18)</f>
         <v/>
       </c>
-      <c r="AU24" s="48" t="str">
+      <c r="AU24" s="53" t="str">
         <f>IF(_acsReport_day_each!AI18="","",_acsReport_day_each!AI18)</f>
         <v/>
       </c>
@@ -11492,19 +11538,19 @@
         <f>IF(_acsReport_day_each!AJ18="","",_acsReport_day_each!AJ18)</f>
         <v/>
       </c>
-      <c r="AW24" s="47" t="str">
+      <c r="AW24" s="52" t="str">
         <f>IF(_acsReport_day_each!AK18="","",_acsReport_day_each!AK18)</f>
         <v/>
       </c>
-      <c r="AX24" s="47" t="str">
+      <c r="AX24" s="52" t="str">
         <f>IF(_acsReport_day_each!AL18="","",_acsReport_day_each!AL18)</f>
         <v/>
       </c>
-      <c r="AY24" s="47" t="str">
+      <c r="AY24" s="52" t="str">
         <f>IF(_acsReport_day_each!AM18="","",_acsReport_day_each!AM18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="48" t="str">
+      <c r="AZ24" s="53" t="str">
         <f>IF(_acsReport_day_each!AN18="","",_acsReport_day_each!AN18)</f>
         <v/>
       </c>
@@ -11512,19 +11558,19 @@
         <f>IF(_acsReport_day_each!AO18="","",_acsReport_day_each!AO18)</f>
         <v/>
       </c>
-      <c r="BB24" s="47" t="str">
+      <c r="BB24" s="52" t="str">
         <f>IF(_acsReport_day_each!AP18="","",_acsReport_day_each!AP18)</f>
         <v/>
       </c>
-      <c r="BC24" s="47" t="str">
+      <c r="BC24" s="52" t="str">
         <f>IF(_acsReport_day_each!AQ18="","",_acsReport_day_each!AQ18)</f>
         <v/>
       </c>
-      <c r="BD24" s="47" t="str">
+      <c r="BD24" s="52" t="str">
         <f>IF(_acsReport_day_each!AR18="","",_acsReport_day_each!AR18)</f>
         <v/>
       </c>
-      <c r="BE24" s="48" t="str">
+      <c r="BE24" s="53" t="str">
         <f>IF(_acsReport_day_each!AS18="","",_acsReport_day_each!AS18)</f>
         <v/>
       </c>
@@ -11532,19 +11578,19 @@
         <f>IF(_acsReport_day_each!AT18="","",_acsReport_day_each!AT18)</f>
         <v/>
       </c>
-      <c r="BG24" s="47" t="str">
+      <c r="BG24" s="52" t="str">
         <f>IF(_acsReport_day_each!AU18="","",_acsReport_day_each!AU18)</f>
         <v/>
       </c>
-      <c r="BH24" s="47" t="str">
+      <c r="BH24" s="52" t="str">
         <f>IF(_acsReport_day_each!AV18="","",_acsReport_day_each!AV18)</f>
         <v/>
       </c>
-      <c r="BI24" s="47" t="str">
+      <c r="BI24" s="52" t="str">
         <f>IF(_acsReport_day_each!AW18="","",_acsReport_day_each!AW18)</f>
         <v/>
       </c>
-      <c r="BJ24" s="48" t="str">
+      <c r="BJ24" s="53" t="str">
         <f>IF(_acsReport_day_each!AX18="","",_acsReport_day_each!AX18)</f>
         <v/>
       </c>
@@ -11552,19 +11598,19 @@
         <f>IF(_acsReport_day_each!AY18="","",_acsReport_day_each!AY18)</f>
         <v/>
       </c>
-      <c r="BL24" s="47" t="str">
+      <c r="BL24" s="52" t="str">
         <f>IF(_acsReport_day_each!AZ18="","",_acsReport_day_each!AZ18)</f>
         <v/>
       </c>
-      <c r="BM24" s="47" t="str">
+      <c r="BM24" s="52" t="str">
         <f>IF(_acsReport_day_each!BA18="","",_acsReport_day_each!BA18)</f>
         <v/>
       </c>
-      <c r="BN24" s="47" t="str">
+      <c r="BN24" s="52" t="str">
         <f>IF(_acsReport_day_each!BB18="","",_acsReport_day_each!BB18)</f>
         <v/>
       </c>
-      <c r="BO24" s="48" t="str">
+      <c r="BO24" s="53" t="str">
         <f>IF(_acsReport_day_each!BC18="","",_acsReport_day_each!BC18)</f>
         <v/>
       </c>
@@ -11572,19 +11618,19 @@
         <f>IF(_acsReport_day_each!BD18="","",_acsReport_day_each!BD18)</f>
         <v/>
       </c>
-      <c r="BQ24" s="47" t="str">
+      <c r="BQ24" s="52" t="str">
         <f>IF(_acsReport_day_each!BE18="","",_acsReport_day_each!BE18)</f>
         <v/>
       </c>
-      <c r="BR24" s="47" t="str">
+      <c r="BR24" s="52" t="str">
         <f>IF(_acsReport_day_each!BF18="","",_acsReport_day_each!BF18)</f>
         <v/>
       </c>
-      <c r="BS24" s="47" t="str">
+      <c r="BS24" s="52" t="str">
         <f>IF(_acsReport_day_each!BG18="","",_acsReport_day_each!BG18)</f>
         <v/>
       </c>
-      <c r="BT24" s="48" t="str">
+      <c r="BT24" s="53" t="str">
         <f>IF(_acsReport_day_each!BH18="","",_acsReport_day_each!BH18)</f>
         <v/>
       </c>
@@ -11592,19 +11638,19 @@
         <f>IF(_acsReport_day_each!BI18="","",_acsReport_day_each!BI18)</f>
         <v/>
       </c>
-      <c r="BV24" s="47" t="str">
+      <c r="BV24" s="52" t="str">
         <f>IF(_acsReport_day_each!BJ18="","",_acsReport_day_each!BJ18)</f>
         <v/>
       </c>
-      <c r="BW24" s="47" t="str">
+      <c r="BW24" s="52" t="str">
         <f>IF(_acsReport_day_each!BK18="","",_acsReport_day_each!BK18)</f>
         <v/>
       </c>
-      <c r="BX24" s="47" t="str">
+      <c r="BX24" s="52" t="str">
         <f>IF(_acsReport_day_each!BL18="","",_acsReport_day_each!BL18)</f>
         <v/>
       </c>
-      <c r="BY24" s="48" t="str">
+      <c r="BY24" s="53" t="str">
         <f>IF(_acsReport_day_each!BM18="","",_acsReport_day_each!BM18)</f>
         <v/>
       </c>
@@ -11612,19 +11658,19 @@
         <f>IF(_acsReport_day_each!BN18="","",_acsReport_day_each!BN18)</f>
         <v/>
       </c>
-      <c r="CA24" s="47" t="str">
+      <c r="CA24" s="52" t="str">
         <f>IF(_acsReport_day_each!BO18="","",_acsReport_day_each!BO18)</f>
         <v/>
       </c>
-      <c r="CB24" s="47" t="str">
+      <c r="CB24" s="52" t="str">
         <f>IF(_acsReport_day_each!BP18="","",_acsReport_day_each!BP18)</f>
         <v/>
       </c>
-      <c r="CC24" s="47" t="str">
+      <c r="CC24" s="52" t="str">
         <f>IF(_acsReport_day_each!BQ18="","",_acsReport_day_each!BQ18)</f>
         <v/>
       </c>
-      <c r="CD24" s="48" t="str">
+      <c r="CD24" s="53" t="str">
         <f>IF(_acsReport_day_each!BR18="","",_acsReport_day_each!BR18)</f>
         <v/>
       </c>
@@ -11632,19 +11678,19 @@
         <f>IF(_acsReport_day_each!BS18="","",_acsReport_day_each!BS18)</f>
         <v/>
       </c>
-      <c r="CF24" s="47" t="str">
+      <c r="CF24" s="52" t="str">
         <f>IF(_acsReport_day_each!BT18="","",_acsReport_day_each!BT18)</f>
         <v/>
       </c>
-      <c r="CG24" s="47" t="str">
+      <c r="CG24" s="52" t="str">
         <f>IF(_acsReport_day_each!BU18="","",_acsReport_day_each!BU18)</f>
         <v/>
       </c>
-      <c r="CH24" s="47" t="str">
+      <c r="CH24" s="52" t="str">
         <f>IF(_acsReport_day_each!BV18="","",_acsReport_day_each!BV18)</f>
         <v/>
       </c>
-      <c r="CI24" s="48" t="str">
+      <c r="CI24" s="53" t="str">
         <f>IF(_acsReport_day_each!BW18="","",_acsReport_day_each!BW18)</f>
         <v/>
       </c>
@@ -11652,19 +11698,19 @@
         <f>IF(_acsReport_day_each!BX18="","",_acsReport_day_each!BX18)</f>
         <v/>
       </c>
-      <c r="CK24" s="47" t="str">
+      <c r="CK24" s="52" t="str">
         <f>IF(_acsReport_day_each!BY18="","",_acsReport_day_each!BY18)</f>
         <v/>
       </c>
-      <c r="CL24" s="47" t="str">
+      <c r="CL24" s="52" t="str">
         <f>IF(_acsReport_day_each!BZ18="","",_acsReport_day_each!BZ18)</f>
         <v/>
       </c>
-      <c r="CM24" s="47" t="str">
+      <c r="CM24" s="52" t="str">
         <f>IF(_acsReport_day_each!CA18="","",_acsReport_day_each!CA18)</f>
         <v/>
       </c>
-      <c r="CN24" s="48" t="str">
+      <c r="CN24" s="53" t="str">
         <f>IF(_acsReport_day_each!CB18="","",_acsReport_day_each!CB18)</f>
         <v/>
       </c>
@@ -11672,55 +11718,55 @@
         <f>IF(_acsReport_day_each!CC18="","",_acsReport_day_each!CC18)</f>
         <v/>
       </c>
-      <c r="CP24" s="47" t="str">
+      <c r="CP24" s="52" t="str">
         <f>IF(_acsReport_day_each!CD18="","",_acsReport_day_each!CD18)</f>
         <v/>
       </c>
-      <c r="CQ24" s="47" t="str">
+      <c r="CQ24" s="52" t="str">
         <f>IF(_acsReport_day_each!CE18="","",_acsReport_day_each!CE18)</f>
         <v/>
       </c>
-      <c r="CR24" s="47" t="str">
+      <c r="CR24" s="52" t="str">
         <f>IF(_acsReport_day_each!CF18="","",_acsReport_day_each!CF18)</f>
         <v/>
       </c>
-      <c r="CS24" s="48" t="str">
+      <c r="CS24" s="53" t="str">
         <f>IF(_acsReport_day_each!CG18="","",_acsReport_day_each!CG18)</f>
         <v/>
       </c>
-      <c r="CT24" s="46" t="str">
-        <f>IF(_acsReport_day_each!CH18="","",_acsReport_day_each!CH18)</f>
-        <v/>
-      </c>
-      <c r="CU24" s="47" t="str">
-        <f>IF(_acsReport_day_each!CI18="","",_acsReport_day_each!CI18)</f>
-        <v/>
-      </c>
-      <c r="CV24" s="47" t="str">
-        <f>IF(_acsReport_day_each!CJ18="","",_acsReport_day_each!CJ18)</f>
-        <v/>
-      </c>
-      <c r="CW24" s="48" t="str">
-        <f>IF(_acsReport_day_each!CK18="","",_acsReport_day_each!CK18)</f>
+      <c r="CT24" s="42" t="str">
+        <f>IF(_acsReport1_day_each!F18="","",_acsReport1_day_each!F18)</f>
+        <v/>
+      </c>
+      <c r="CU24" s="43" t="str">
+        <f>IF(_acsReport1_day_each!G18="","",_acsReport1_day_each!G18)</f>
+        <v/>
+      </c>
+      <c r="CV24" s="43" t="str">
+        <f>IF(_acsReport1_day_each!H18="","",_acsReport1_day_each!H18)</f>
+        <v/>
+      </c>
+      <c r="CW24" s="44" t="str">
+        <f>IF(_acsReport1_day_each!I18="","",_acsReport1_day_each!I18)</f>
         <v/>
       </c>
       <c r="CX24" s="46" t="str">
         <f>IF(_acsReport_day_each!CL18="","",_acsReport_day_each!CL18)</f>
         <v/>
       </c>
-      <c r="CY24" s="47" t="str">
+      <c r="CY24" s="52" t="str">
         <f>IF(_acsReport_day_each!CM18="","",_acsReport_day_each!CM18)</f>
         <v/>
       </c>
-      <c r="CZ24" s="47" t="str">
+      <c r="CZ24" s="52" t="str">
         <f>IF(_acsReport_day_each!CN18="","",_acsReport_day_each!CN18)</f>
         <v/>
       </c>
-      <c r="DA24" s="47" t="str">
+      <c r="DA24" s="52" t="str">
         <f>IF(_acsReport_day_each!CO18="","",_acsReport_day_each!CO18)</f>
         <v/>
       </c>
-      <c r="DB24" s="48" t="str">
+      <c r="DB24" s="53" t="str">
         <f>IF(_acsReport_day_each!CP18="","",_acsReport_day_each!CP18)</f>
         <v/>
       </c>
@@ -11750,23 +11796,23 @@
         <v>0.708333333333333</v>
       </c>
       <c r="C25" s="34" t="str">
-        <f>IF(_acsReport_day_each!A19="","",_acsReport_day_each!A19)</f>
+        <f>IF(_acsReport1_day_each!A19="","",_acsReport1_day_each!A19)</f>
         <v/>
       </c>
       <c r="D25" s="35" t="str">
-        <f>IF(_acsReport_day_each!B19="","",_acsReport_day_each!B19)</f>
+        <f>IF(_acsReport1_day_each!B19="","",_acsReport1_day_each!B19)</f>
         <v/>
       </c>
       <c r="E25" s="35" t="str">
-        <f>IF(_acsReport_day_each!C19="","",_acsReport_day_each!C19)</f>
+        <f>IF(_acsReport1_day_each!C19="","",_acsReport1_day_each!C19)</f>
         <v/>
       </c>
       <c r="F25" s="35" t="str">
-        <f>IF(_acsReport_day_each!D19="","",_acsReport_day_each!D19)</f>
+        <f>IF(_acsReport1_day_each!D19="","",_acsReport1_day_each!D19)</f>
         <v/>
       </c>
       <c r="G25" s="36" t="str">
-        <f>IF(_acsReport_day_each!E19="","",_acsReport_day_each!E19)</f>
+        <f>IF(_acsReport1_day_each!E19="","",_acsReport1_day_each!E19)</f>
         <v/>
       </c>
       <c r="H25" s="34" t="str">
@@ -11845,7 +11891,7 @@
         <f>IF(_acsReport_day_each!X19="","",_acsReport_day_each!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="62" t="str">
+      <c r="AA25" s="63" t="str">
         <f>IF(_acsReport_day_each!Y19="","",_acsReport_day_each!Y19)</f>
         <v/>
       </c>
@@ -11869,23 +11915,23 @@
         <f>IF(_acsReport_day_each!DJ19="","",_acsReport_day_each!DJ19)</f>
         <v/>
       </c>
-      <c r="AG25" s="34" t="str">
+      <c r="AG25" s="68" t="str">
         <f>IF(_acsReport_day_each!DK19="","",_acsReport_day_each!DK19)</f>
         <v/>
       </c>
-      <c r="AH25" s="35" t="str">
+      <c r="AH25" s="69" t="str">
         <f>IF(_acsReport_day_each!DL19="","",_acsReport_day_each!DL19)</f>
         <v/>
       </c>
-      <c r="AI25" s="35" t="str">
+      <c r="AI25" s="69" t="str">
         <f>IF(_acsReport_day_each!DM19="","",_acsReport_day_each!DM19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="35" t="str">
+      <c r="AJ25" s="69" t="str">
         <f>IF(_acsReport_day_each!DN19="","",_acsReport_day_each!DN19)</f>
         <v/>
       </c>
-      <c r="AK25" s="36" t="str">
+      <c r="AK25" s="70" t="str">
         <f>IF(_acsReport_day_each!DO19="","",_acsReport_day_each!DO19)</f>
         <v/>
       </c>
@@ -12130,19 +12176,19 @@
         <v/>
       </c>
       <c r="CT25" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH19="","",_acsReport_day_each!CH19)</f>
+        <f>IF(_acsReport1_day_each!F19="","",_acsReport1_day_each!F19)</f>
         <v/>
       </c>
       <c r="CU25" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI19="","",_acsReport_day_each!CI19)</f>
+        <f>IF(_acsReport1_day_each!G19="","",_acsReport1_day_each!G19)</f>
         <v/>
       </c>
       <c r="CV25" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ19="","",_acsReport_day_each!CJ19)</f>
+        <f>IF(_acsReport1_day_each!H19="","",_acsReport1_day_each!H19)</f>
         <v/>
       </c>
       <c r="CW25" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK19="","",_acsReport_day_each!CK19)</f>
+        <f>IF(_acsReport1_day_each!I19="","",_acsReport1_day_each!I19)</f>
         <v/>
       </c>
       <c r="CX25" s="34" t="str">
@@ -12191,23 +12237,23 @@
         <v>0.75</v>
       </c>
       <c r="C26" s="34" t="str">
-        <f>IF(_acsReport_day_each!A20="","",_acsReport_day_each!A20)</f>
+        <f>IF(_acsReport1_day_each!A20="","",_acsReport1_day_each!A20)</f>
         <v/>
       </c>
       <c r="D26" s="35" t="str">
-        <f>IF(_acsReport_day_each!B20="","",_acsReport_day_each!B20)</f>
+        <f>IF(_acsReport1_day_each!B20="","",_acsReport1_day_each!B20)</f>
         <v/>
       </c>
       <c r="E26" s="35" t="str">
-        <f>IF(_acsReport_day_each!C20="","",_acsReport_day_each!C20)</f>
+        <f>IF(_acsReport1_day_each!C20="","",_acsReport1_day_each!C20)</f>
         <v/>
       </c>
       <c r="F26" s="35" t="str">
-        <f>IF(_acsReport_day_each!D20="","",_acsReport_day_each!D20)</f>
+        <f>IF(_acsReport1_day_each!D20="","",_acsReport1_day_each!D20)</f>
         <v/>
       </c>
       <c r="G26" s="36" t="str">
-        <f>IF(_acsReport_day_each!E20="","",_acsReport_day_each!E20)</f>
+        <f>IF(_acsReport1_day_each!E20="","",_acsReport1_day_each!E20)</f>
         <v/>
       </c>
       <c r="H26" s="34" t="str">
@@ -12286,7 +12332,7 @@
         <f>IF(_acsReport_day_each!X20="","",_acsReport_day_each!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="62" t="str">
+      <c r="AA26" s="63" t="str">
         <f>IF(_acsReport_day_each!Y20="","",_acsReport_day_each!Y20)</f>
         <v/>
       </c>
@@ -12310,23 +12356,23 @@
         <f>IF(_acsReport_day_each!DJ20="","",_acsReport_day_each!DJ20)</f>
         <v/>
       </c>
-      <c r="AG26" s="34" t="str">
+      <c r="AG26" s="68" t="str">
         <f>IF(_acsReport_day_each!DK20="","",_acsReport_day_each!DK20)</f>
         <v/>
       </c>
-      <c r="AH26" s="35" t="str">
+      <c r="AH26" s="69" t="str">
         <f>IF(_acsReport_day_each!DL20="","",_acsReport_day_each!DL20)</f>
         <v/>
       </c>
-      <c r="AI26" s="35" t="str">
+      <c r="AI26" s="69" t="str">
         <f>IF(_acsReport_day_each!DM20="","",_acsReport_day_each!DM20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="35" t="str">
+      <c r="AJ26" s="69" t="str">
         <f>IF(_acsReport_day_each!DN20="","",_acsReport_day_each!DN20)</f>
         <v/>
       </c>
-      <c r="AK26" s="36" t="str">
+      <c r="AK26" s="70" t="str">
         <f>IF(_acsReport_day_each!DO20="","",_acsReport_day_each!DO20)</f>
         <v/>
       </c>
@@ -12571,19 +12617,19 @@
         <v/>
       </c>
       <c r="CT26" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH20="","",_acsReport_day_each!CH20)</f>
+        <f>IF(_acsReport1_day_each!F20="","",_acsReport1_day_each!F20)</f>
         <v/>
       </c>
       <c r="CU26" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI20="","",_acsReport_day_each!CI20)</f>
+        <f>IF(_acsReport1_day_each!G20="","",_acsReport1_day_each!G20)</f>
         <v/>
       </c>
       <c r="CV26" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ20="","",_acsReport_day_each!CJ20)</f>
+        <f>IF(_acsReport1_day_each!H20="","",_acsReport1_day_each!H20)</f>
         <v/>
       </c>
       <c r="CW26" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK20="","",_acsReport_day_each!CK20)</f>
+        <f>IF(_acsReport1_day_each!I20="","",_acsReport1_day_each!I20)</f>
         <v/>
       </c>
       <c r="CX26" s="34" t="str">
@@ -12632,23 +12678,23 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C27" s="34" t="str">
-        <f>IF(_acsReport_day_each!A21="","",_acsReport_day_each!A21)</f>
+        <f>IF(_acsReport1_day_each!A21="","",_acsReport1_day_each!A21)</f>
         <v/>
       </c>
       <c r="D27" s="35" t="str">
-        <f>IF(_acsReport_day_each!B21="","",_acsReport_day_each!B21)</f>
+        <f>IF(_acsReport1_day_each!B21="","",_acsReport1_day_each!B21)</f>
         <v/>
       </c>
       <c r="E27" s="35" t="str">
-        <f>IF(_acsReport_day_each!C21="","",_acsReport_day_each!C21)</f>
+        <f>IF(_acsReport1_day_each!C21="","",_acsReport1_day_each!C21)</f>
         <v/>
       </c>
       <c r="F27" s="35" t="str">
-        <f>IF(_acsReport_day_each!D21="","",_acsReport_day_each!D21)</f>
+        <f>IF(_acsReport1_day_each!D21="","",_acsReport1_day_each!D21)</f>
         <v/>
       </c>
       <c r="G27" s="36" t="str">
-        <f>IF(_acsReport_day_each!E21="","",_acsReport_day_each!E21)</f>
+        <f>IF(_acsReport1_day_each!E21="","",_acsReport1_day_each!E21)</f>
         <v/>
       </c>
       <c r="H27" s="34" t="str">
@@ -12727,7 +12773,7 @@
         <f>IF(_acsReport_day_each!X21="","",_acsReport_day_each!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="62" t="str">
+      <c r="AA27" s="63" t="str">
         <f>IF(_acsReport_day_each!Y21="","",_acsReport_day_each!Y21)</f>
         <v/>
       </c>
@@ -12751,23 +12797,23 @@
         <f>IF(_acsReport_day_each!DJ21="","",_acsReport_day_each!DJ21)</f>
         <v/>
       </c>
-      <c r="AG27" s="34" t="str">
+      <c r="AG27" s="68" t="str">
         <f>IF(_acsReport_day_each!DK21="","",_acsReport_day_each!DK21)</f>
         <v/>
       </c>
-      <c r="AH27" s="35" t="str">
+      <c r="AH27" s="69" t="str">
         <f>IF(_acsReport_day_each!DL21="","",_acsReport_day_each!DL21)</f>
         <v/>
       </c>
-      <c r="AI27" s="35" t="str">
+      <c r="AI27" s="69" t="str">
         <f>IF(_acsReport_day_each!DM21="","",_acsReport_day_each!DM21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="35" t="str">
+      <c r="AJ27" s="69" t="str">
         <f>IF(_acsReport_day_each!DN21="","",_acsReport_day_each!DN21)</f>
         <v/>
       </c>
-      <c r="AK27" s="36" t="str">
+      <c r="AK27" s="70" t="str">
         <f>IF(_acsReport_day_each!DO21="","",_acsReport_day_each!DO21)</f>
         <v/>
       </c>
@@ -13012,19 +13058,19 @@
         <v/>
       </c>
       <c r="CT27" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH21="","",_acsReport_day_each!CH21)</f>
+        <f>IF(_acsReport1_day_each!F21="","",_acsReport1_day_each!F21)</f>
         <v/>
       </c>
       <c r="CU27" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI21="","",_acsReport_day_each!CI21)</f>
+        <f>IF(_acsReport1_day_each!G21="","",_acsReport1_day_each!G21)</f>
         <v/>
       </c>
       <c r="CV27" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ21="","",_acsReport_day_each!CJ21)</f>
+        <f>IF(_acsReport1_day_each!H21="","",_acsReport1_day_each!H21)</f>
         <v/>
       </c>
       <c r="CW27" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK21="","",_acsReport_day_each!CK21)</f>
+        <f>IF(_acsReport1_day_each!I21="","",_acsReport1_day_each!I21)</f>
         <v/>
       </c>
       <c r="CX27" s="34" t="str">
@@ -13073,23 +13119,23 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C28" s="34" t="str">
-        <f>IF(_acsReport_day_each!A22="","",_acsReport_day_each!A22)</f>
+        <f>IF(_acsReport1_day_each!A22="","",_acsReport1_day_each!A22)</f>
         <v/>
       </c>
       <c r="D28" s="35" t="str">
-        <f>IF(_acsReport_day_each!B22="","",_acsReport_day_each!B22)</f>
+        <f>IF(_acsReport1_day_each!B22="","",_acsReport1_day_each!B22)</f>
         <v/>
       </c>
       <c r="E28" s="35" t="str">
-        <f>IF(_acsReport_day_each!C22="","",_acsReport_day_each!C22)</f>
+        <f>IF(_acsReport1_day_each!C22="","",_acsReport1_day_each!C22)</f>
         <v/>
       </c>
       <c r="F28" s="35" t="str">
-        <f>IF(_acsReport_day_each!D22="","",_acsReport_day_each!D22)</f>
+        <f>IF(_acsReport1_day_each!D22="","",_acsReport1_day_each!D22)</f>
         <v/>
       </c>
       <c r="G28" s="36" t="str">
-        <f>IF(_acsReport_day_each!E22="","",_acsReport_day_each!E22)</f>
+        <f>IF(_acsReport1_day_each!E22="","",_acsReport1_day_each!E22)</f>
         <v/>
       </c>
       <c r="H28" s="34" t="str">
@@ -13168,7 +13214,7 @@
         <f>IF(_acsReport_day_each!X22="","",_acsReport_day_each!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="62" t="str">
+      <c r="AA28" s="63" t="str">
         <f>IF(_acsReport_day_each!Y22="","",_acsReport_day_each!Y22)</f>
         <v/>
       </c>
@@ -13192,23 +13238,23 @@
         <f>IF(_acsReport_day_each!DJ22="","",_acsReport_day_each!DJ22)</f>
         <v/>
       </c>
-      <c r="AG28" s="34" t="str">
+      <c r="AG28" s="68" t="str">
         <f>IF(_acsReport_day_each!DK22="","",_acsReport_day_each!DK22)</f>
         <v/>
       </c>
-      <c r="AH28" s="35" t="str">
+      <c r="AH28" s="69" t="str">
         <f>IF(_acsReport_day_each!DL22="","",_acsReport_day_each!DL22)</f>
         <v/>
       </c>
-      <c r="AI28" s="35" t="str">
+      <c r="AI28" s="69" t="str">
         <f>IF(_acsReport_day_each!DM22="","",_acsReport_day_each!DM22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="35" t="str">
+      <c r="AJ28" s="69" t="str">
         <f>IF(_acsReport_day_each!DN22="","",_acsReport_day_each!DN22)</f>
         <v/>
       </c>
-      <c r="AK28" s="36" t="str">
+      <c r="AK28" s="70" t="str">
         <f>IF(_acsReport_day_each!DO22="","",_acsReport_day_each!DO22)</f>
         <v/>
       </c>
@@ -13453,19 +13499,19 @@
         <v/>
       </c>
       <c r="CT28" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH22="","",_acsReport_day_each!CH22)</f>
+        <f>IF(_acsReport1_day_each!F22="","",_acsReport1_day_each!F22)</f>
         <v/>
       </c>
       <c r="CU28" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI22="","",_acsReport_day_each!CI22)</f>
+        <f>IF(_acsReport1_day_each!G22="","",_acsReport1_day_each!G22)</f>
         <v/>
       </c>
       <c r="CV28" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ22="","",_acsReport_day_each!CJ22)</f>
+        <f>IF(_acsReport1_day_each!H22="","",_acsReport1_day_each!H22)</f>
         <v/>
       </c>
       <c r="CW28" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK22="","",_acsReport_day_each!CK22)</f>
+        <f>IF(_acsReport1_day_each!I22="","",_acsReport1_day_each!I22)</f>
         <v/>
       </c>
       <c r="CX28" s="34" t="str">
@@ -13514,23 +13560,23 @@
         <v>0.875</v>
       </c>
       <c r="C29" s="34" t="str">
-        <f>IF(_acsReport_day_each!A23="","",_acsReport_day_each!A23)</f>
+        <f>IF(_acsReport1_day_each!A23="","",_acsReport1_day_each!A23)</f>
         <v/>
       </c>
       <c r="D29" s="35" t="str">
-        <f>IF(_acsReport_day_each!B23="","",_acsReport_day_each!B23)</f>
+        <f>IF(_acsReport1_day_each!B23="","",_acsReport1_day_each!B23)</f>
         <v/>
       </c>
       <c r="E29" s="35" t="str">
-        <f>IF(_acsReport_day_each!C23="","",_acsReport_day_each!C23)</f>
+        <f>IF(_acsReport1_day_each!C23="","",_acsReport1_day_each!C23)</f>
         <v/>
       </c>
       <c r="F29" s="35" t="str">
-        <f>IF(_acsReport_day_each!D23="","",_acsReport_day_each!D23)</f>
+        <f>IF(_acsReport1_day_each!D23="","",_acsReport1_day_each!D23)</f>
         <v/>
       </c>
       <c r="G29" s="36" t="str">
-        <f>IF(_acsReport_day_each!E23="","",_acsReport_day_each!E23)</f>
+        <f>IF(_acsReport1_day_each!E23="","",_acsReport1_day_each!E23)</f>
         <v/>
       </c>
       <c r="H29" s="34" t="str">
@@ -13609,7 +13655,7 @@
         <f>IF(_acsReport_day_each!X23="","",_acsReport_day_each!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="62" t="str">
+      <c r="AA29" s="63" t="str">
         <f>IF(_acsReport_day_each!Y23="","",_acsReport_day_each!Y23)</f>
         <v/>
       </c>
@@ -13633,23 +13679,23 @@
         <f>IF(_acsReport_day_each!DJ23="","",_acsReport_day_each!DJ23)</f>
         <v/>
       </c>
-      <c r="AG29" s="34" t="str">
+      <c r="AG29" s="68" t="str">
         <f>IF(_acsReport_day_each!DK23="","",_acsReport_day_each!DK23)</f>
         <v/>
       </c>
-      <c r="AH29" s="35" t="str">
+      <c r="AH29" s="69" t="str">
         <f>IF(_acsReport_day_each!DL23="","",_acsReport_day_each!DL23)</f>
         <v/>
       </c>
-      <c r="AI29" s="35" t="str">
+      <c r="AI29" s="69" t="str">
         <f>IF(_acsReport_day_each!DM23="","",_acsReport_day_each!DM23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="35" t="str">
+      <c r="AJ29" s="69" t="str">
         <f>IF(_acsReport_day_each!DN23="","",_acsReport_day_each!DN23)</f>
         <v/>
       </c>
-      <c r="AK29" s="36" t="str">
+      <c r="AK29" s="70" t="str">
         <f>IF(_acsReport_day_each!DO23="","",_acsReport_day_each!DO23)</f>
         <v/>
       </c>
@@ -13894,19 +13940,19 @@
         <v/>
       </c>
       <c r="CT29" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH23="","",_acsReport_day_each!CH23)</f>
+        <f>IF(_acsReport1_day_each!F23="","",_acsReport1_day_each!F23)</f>
         <v/>
       </c>
       <c r="CU29" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI23="","",_acsReport_day_each!CI23)</f>
+        <f>IF(_acsReport1_day_each!G23="","",_acsReport1_day_each!G23)</f>
         <v/>
       </c>
       <c r="CV29" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ23="","",_acsReport_day_each!CJ23)</f>
+        <f>IF(_acsReport1_day_each!H23="","",_acsReport1_day_each!H23)</f>
         <v/>
       </c>
       <c r="CW29" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK23="","",_acsReport_day_each!CK23)</f>
+        <f>IF(_acsReport1_day_each!I23="","",_acsReport1_day_each!I23)</f>
         <v/>
       </c>
       <c r="CX29" s="34" t="str">
@@ -13955,23 +14001,23 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C30" s="34" t="str">
-        <f>IF(_acsReport_day_each!A24="","",_acsReport_day_each!A24)</f>
+        <f>IF(_acsReport1_day_each!A24="","",_acsReport1_day_each!A24)</f>
         <v/>
       </c>
       <c r="D30" s="35" t="str">
-        <f>IF(_acsReport_day_each!B24="","",_acsReport_day_each!B24)</f>
+        <f>IF(_acsReport1_day_each!B24="","",_acsReport1_day_each!B24)</f>
         <v/>
       </c>
       <c r="E30" s="35" t="str">
-        <f>IF(_acsReport_day_each!C24="","",_acsReport_day_each!C24)</f>
+        <f>IF(_acsReport1_day_each!C24="","",_acsReport1_day_each!C24)</f>
         <v/>
       </c>
       <c r="F30" s="35" t="str">
-        <f>IF(_acsReport_day_each!D24="","",_acsReport_day_each!D24)</f>
+        <f>IF(_acsReport1_day_each!D24="","",_acsReport1_day_each!D24)</f>
         <v/>
       </c>
       <c r="G30" s="36" t="str">
-        <f>IF(_acsReport_day_each!E24="","",_acsReport_day_each!E24)</f>
+        <f>IF(_acsReport1_day_each!E24="","",_acsReport1_day_each!E24)</f>
         <v/>
       </c>
       <c r="H30" s="34" t="str">
@@ -14050,7 +14096,7 @@
         <f>IF(_acsReport_day_each!X24="","",_acsReport_day_each!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="62" t="str">
+      <c r="AA30" s="63" t="str">
         <f>IF(_acsReport_day_each!Y24="","",_acsReport_day_each!Y24)</f>
         <v/>
       </c>
@@ -14074,23 +14120,23 @@
         <f>IF(_acsReport_day_each!DJ24="","",_acsReport_day_each!DJ24)</f>
         <v/>
       </c>
-      <c r="AG30" s="34" t="str">
+      <c r="AG30" s="68" t="str">
         <f>IF(_acsReport_day_each!DK24="","",_acsReport_day_each!DK24)</f>
         <v/>
       </c>
-      <c r="AH30" s="35" t="str">
+      <c r="AH30" s="69" t="str">
         <f>IF(_acsReport_day_each!DL24="","",_acsReport_day_each!DL24)</f>
         <v/>
       </c>
-      <c r="AI30" s="35" t="str">
+      <c r="AI30" s="69" t="str">
         <f>IF(_acsReport_day_each!DM24="","",_acsReport_day_each!DM24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="35" t="str">
+      <c r="AJ30" s="69" t="str">
         <f>IF(_acsReport_day_each!DN24="","",_acsReport_day_each!DN24)</f>
         <v/>
       </c>
-      <c r="AK30" s="36" t="str">
+      <c r="AK30" s="70" t="str">
         <f>IF(_acsReport_day_each!DO24="","",_acsReport_day_each!DO24)</f>
         <v/>
       </c>
@@ -14335,19 +14381,19 @@
         <v/>
       </c>
       <c r="CT30" s="34" t="str">
-        <f>IF(_acsReport_day_each!CH24="","",_acsReport_day_each!CH24)</f>
+        <f>IF(_acsReport1_day_each!F24="","",_acsReport1_day_each!F24)</f>
         <v/>
       </c>
       <c r="CU30" s="35" t="str">
-        <f>IF(_acsReport_day_each!CI24="","",_acsReport_day_each!CI24)</f>
+        <f>IF(_acsReport1_day_each!G24="","",_acsReport1_day_each!G24)</f>
         <v/>
       </c>
       <c r="CV30" s="35" t="str">
-        <f>IF(_acsReport_day_each!CJ24="","",_acsReport_day_each!CJ24)</f>
+        <f>IF(_acsReport1_day_each!H24="","",_acsReport1_day_each!H24)</f>
         <v/>
       </c>
       <c r="CW30" s="36" t="str">
-        <f>IF(_acsReport_day_each!CK24="","",_acsReport_day_each!CK24)</f>
+        <f>IF(_acsReport1_day_each!I24="","",_acsReport1_day_each!I24)</f>
         <v/>
       </c>
       <c r="CX30" s="34" t="str">
@@ -14396,23 +14442,23 @@
         <v>0.958333333333333</v>
       </c>
       <c r="C31" s="38" t="str">
-        <f>IF(_acsReport_day_each!A25="","",_acsReport_day_each!A25)</f>
+        <f>IF(_acsReport1_day_each!A25="","",_acsReport1_day_each!A25)</f>
         <v/>
       </c>
       <c r="D31" s="39" t="str">
-        <f>IF(_acsReport_day_each!B25="","",_acsReport_day_each!B25)</f>
+        <f>IF(_acsReport1_day_each!B25="","",_acsReport1_day_each!B25)</f>
         <v/>
       </c>
       <c r="E31" s="39" t="str">
-        <f>IF(_acsReport_day_each!C25="","",_acsReport_day_each!C25)</f>
+        <f>IF(_acsReport1_day_each!C25="","",_acsReport1_day_each!C25)</f>
         <v/>
       </c>
       <c r="F31" s="39" t="str">
-        <f>IF(_acsReport_day_each!D25="","",_acsReport_day_each!D25)</f>
+        <f>IF(_acsReport1_day_each!D25="","",_acsReport1_day_each!D25)</f>
         <v/>
       </c>
       <c r="G31" s="40" t="str">
-        <f>IF(_acsReport_day_each!E25="","",_acsReport_day_each!E25)</f>
+        <f>IF(_acsReport1_day_each!E25="","",_acsReport1_day_each!E25)</f>
         <v/>
       </c>
       <c r="H31" s="38" t="str">
@@ -14491,7 +14537,7 @@
         <f>IF(_acsReport_day_each!X25="","",_acsReport_day_each!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="63" t="str">
+      <c r="AA31" s="64" t="str">
         <f>IF(_acsReport_day_each!Y25="","",_acsReport_day_each!Y25)</f>
         <v/>
       </c>
@@ -14515,23 +14561,23 @@
         <f>IF(_acsReport_day_each!DJ25="","",_acsReport_day_each!DJ25)</f>
         <v/>
       </c>
-      <c r="AG31" s="38" t="str">
+      <c r="AG31" s="71" t="str">
         <f>IF(_acsReport_day_each!DK25="","",_acsReport_day_each!DK25)</f>
         <v/>
       </c>
-      <c r="AH31" s="39" t="str">
+      <c r="AH31" s="72" t="str">
         <f>IF(_acsReport_day_each!DL25="","",_acsReport_day_each!DL25)</f>
         <v/>
       </c>
-      <c r="AI31" s="39" t="str">
+      <c r="AI31" s="72" t="str">
         <f>IF(_acsReport_day_each!DM25="","",_acsReport_day_each!DM25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="39" t="str">
+      <c r="AJ31" s="72" t="str">
         <f>IF(_acsReport_day_each!DN25="","",_acsReport_day_each!DN25)</f>
         <v/>
       </c>
-      <c r="AK31" s="40" t="str">
+      <c r="AK31" s="73" t="str">
         <f>IF(_acsReport_day_each!DO25="","",_acsReport_day_each!DO25)</f>
         <v/>
       </c>
@@ -14776,19 +14822,19 @@
         <v/>
       </c>
       <c r="CT31" s="38" t="str">
-        <f>IF(_acsReport_day_each!CH25="","",_acsReport_day_each!CH25)</f>
+        <f>IF(_acsReport1_day_each!F25="","",_acsReport1_day_each!F25)</f>
         <v/>
       </c>
       <c r="CU31" s="39" t="str">
-        <f>IF(_acsReport_day_each!CI25="","",_acsReport_day_each!CI25)</f>
+        <f>IF(_acsReport1_day_each!G25="","",_acsReport1_day_each!G25)</f>
         <v/>
       </c>
       <c r="CV31" s="39" t="str">
-        <f>IF(_acsReport_day_each!CJ25="","",_acsReport_day_each!CJ25)</f>
+        <f>IF(_acsReport1_day_each!H25="","",_acsReport1_day_each!H25)</f>
         <v/>
       </c>
       <c r="CW31" s="40" t="str">
-        <f>IF(_acsReport_day_each!CK25="","",_acsReport_day_each!CK25)</f>
+        <f>IF(_acsReport1_day_each!I25="","",_acsReport1_day_each!I25)</f>
         <v/>
       </c>
       <c r="CX31" s="38" t="str">
@@ -14832,670 +14878,670 @@
         <v/>
       </c>
     </row>
-    <row r="32" s="8" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A32" s="49" t="s">
+    <row r="32" s="9" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A32" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50">
+      <c r="B32" s="47"/>
+      <c r="C32" s="48">
         <f>SUM(_ACMRuntime!A3:A26)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="48">
         <f>SUM(_ACMRuntime!B3:B26)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="48">
         <f>SUM(_ACMRuntime!C3:C26)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="48">
         <f>SUM(_ACMRuntime!D3:D26)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32" s="48">
         <f>SUM(_ACMRuntime!E3:E26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A33" s="49" t="s">
+    <row r="33" s="9" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A33" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="8" t="str">
-        <f>IF(_acsReport_day_each!DA2="","",_acsReport_day_each!DA2)</f>
-        <v/>
-      </c>
-      <c r="D33" s="8" t="str">
-        <f>IF(_acsReport_day_each!DB2="","",_acsReport_day_each!DB2)</f>
-        <v/>
-      </c>
-      <c r="E33" s="8" t="str">
-        <f>IF(_acsReport_day_each!DC2="","",_acsReport_day_each!DC2)</f>
-        <v/>
-      </c>
-      <c r="F33" s="8" t="str">
-        <f>IF(_acsReport_day_each!DD2="","",_acsReport_day_each!DD2)</f>
-        <v/>
-      </c>
-      <c r="G33" s="8" t="str">
-        <f>IF(_acsReport_day_each!DE2="","",_acsReport_day_each!DE2)</f>
+      <c r="B33" s="47"/>
+      <c r="C33" s="9" t="str">
+        <f>IF(_acsReport_month_all!A2="","",_acsReport_month_all!A2)</f>
+        <v/>
+      </c>
+      <c r="D33" s="9" t="str">
+        <f>IF(_acsReport_month_all!B2="","",_acsReport_month_all!B2)</f>
+        <v/>
+      </c>
+      <c r="E33" s="9" t="str">
+        <f>IF(_acsReport_month_all!C2="","",_acsReport_month_all!C2)</f>
+        <v/>
+      </c>
+      <c r="F33" s="9" t="str">
+        <f>IF(_acsReport_month_all!D2="","",_acsReport_month_all!D2)</f>
+        <v/>
+      </c>
+      <c r="G33" s="9" t="str">
+        <f>IF(_acsReport_month_all!E2="","",_acsReport_month_all!E2)</f>
         <v/>
       </c>
     </row>
-    <row r="34" s="8" customFormat="1" ht="14.25"/>
+    <row r="34" s="9" customFormat="1" ht="14.25"/>
     <row r="35" ht="22.5" spans="2:101">
-      <c r="B35" s="18"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="59"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="59"/>
-      <c r="AK35" s="59"/>
-      <c r="AL35" s="59"/>
-      <c r="AM35" s="59"/>
-      <c r="AN35" s="59"/>
-      <c r="AO35" s="59"/>
-      <c r="AP35" s="59"/>
-      <c r="AQ35" s="59"/>
-      <c r="AR35" s="59"/>
-      <c r="AS35" s="59"/>
-      <c r="AT35" s="59"/>
-      <c r="AU35" s="59"/>
-      <c r="AV35" s="59"/>
-      <c r="AW35" s="59"/>
-      <c r="AX35" s="59"/>
-      <c r="AY35" s="59"/>
-      <c r="AZ35" s="59"/>
-      <c r="BA35" s="59"/>
-      <c r="BB35" s="59"/>
-      <c r="BC35" s="59"/>
-      <c r="BD35" s="59"/>
-      <c r="BE35" s="59"/>
-      <c r="BF35" s="59"/>
-      <c r="BG35" s="59"/>
-      <c r="BH35" s="59"/>
-      <c r="BI35" s="59"/>
-      <c r="BJ35" s="59"/>
-      <c r="BK35" s="59"/>
-      <c r="BL35" s="59"/>
-      <c r="BM35" s="59"/>
-      <c r="BN35" s="59"/>
-      <c r="BO35" s="59"/>
-      <c r="BP35" s="59"/>
-      <c r="BQ35" s="59"/>
-      <c r="BR35" s="59"/>
-      <c r="BS35" s="59"/>
-      <c r="BT35" s="59"/>
-      <c r="BU35" s="59"/>
-      <c r="BV35" s="59"/>
-      <c r="BW35" s="59"/>
-      <c r="BX35" s="59"/>
-      <c r="BY35" s="59"/>
-      <c r="BZ35" s="59"/>
-      <c r="CA35" s="59"/>
-      <c r="CB35" s="59"/>
-      <c r="CC35" s="59"/>
-      <c r="CD35" s="59"/>
-      <c r="CE35" s="59"/>
-      <c r="CF35" s="59"/>
-      <c r="CG35" s="59"/>
-      <c r="CH35" s="59"/>
-      <c r="CI35" s="59"/>
-      <c r="CJ35" s="59"/>
-      <c r="CK35" s="59"/>
-      <c r="CL35" s="59"/>
-      <c r="CM35" s="59"/>
-      <c r="CN35" s="59"/>
-      <c r="CO35" s="59"/>
-      <c r="CP35" s="59"/>
-      <c r="CQ35" s="59"/>
-      <c r="CR35" s="59"/>
-      <c r="CS35" s="59"/>
-      <c r="CT35" s="59"/>
-      <c r="CU35" s="59"/>
-      <c r="CV35" s="59"/>
-      <c r="CW35" s="59"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
+      <c r="BD35" s="60"/>
+      <c r="BE35" s="60"/>
+      <c r="BF35" s="60"/>
+      <c r="BG35" s="60"/>
+      <c r="BH35" s="60"/>
+      <c r="BI35" s="60"/>
+      <c r="BJ35" s="60"/>
+      <c r="BK35" s="60"/>
+      <c r="BL35" s="60"/>
+      <c r="BM35" s="60"/>
+      <c r="BN35" s="60"/>
+      <c r="BO35" s="60"/>
+      <c r="BP35" s="60"/>
+      <c r="BQ35" s="60"/>
+      <c r="BR35" s="60"/>
+      <c r="BS35" s="60"/>
+      <c r="BT35" s="60"/>
+      <c r="BU35" s="60"/>
+      <c r="BV35" s="60"/>
+      <c r="BW35" s="60"/>
+      <c r="BX35" s="60"/>
+      <c r="BY35" s="60"/>
+      <c r="BZ35" s="60"/>
+      <c r="CA35" s="60"/>
+      <c r="CB35" s="60"/>
+      <c r="CC35" s="60"/>
+      <c r="CD35" s="60"/>
+      <c r="CE35" s="60"/>
+      <c r="CF35" s="60"/>
+      <c r="CG35" s="60"/>
+      <c r="CH35" s="60"/>
+      <c r="CI35" s="60"/>
+      <c r="CJ35" s="60"/>
+      <c r="CK35" s="60"/>
+      <c r="CL35" s="60"/>
+      <c r="CM35" s="60"/>
+      <c r="CN35" s="60"/>
+      <c r="CO35" s="60"/>
+      <c r="CP35" s="60"/>
+      <c r="CQ35" s="60"/>
+      <c r="CR35" s="60"/>
+      <c r="CS35" s="60"/>
+      <c r="CT35" s="60"/>
+      <c r="CU35" s="60"/>
+      <c r="CV35" s="60"/>
+      <c r="CW35" s="60"/>
     </row>
     <row r="36" ht="22.5" spans="2:101">
-      <c r="B36" s="18"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="59"/>
-      <c r="AN36" s="59"/>
-      <c r="AO36" s="59"/>
-      <c r="AP36" s="59"/>
-      <c r="AQ36" s="59"/>
-      <c r="AR36" s="59"/>
-      <c r="AS36" s="59"/>
-      <c r="AT36" s="59"/>
-      <c r="AU36" s="59"/>
-      <c r="AV36" s="59"/>
-      <c r="AW36" s="59"/>
-      <c r="AX36" s="59"/>
-      <c r="AY36" s="59"/>
-      <c r="AZ36" s="59"/>
-      <c r="BA36" s="59"/>
-      <c r="BB36" s="59"/>
-      <c r="BC36" s="59"/>
-      <c r="BD36" s="59"/>
-      <c r="BE36" s="59"/>
-      <c r="BF36" s="59"/>
-      <c r="BG36" s="59"/>
-      <c r="BH36" s="59"/>
-      <c r="BI36" s="59"/>
-      <c r="BJ36" s="59"/>
-      <c r="BK36" s="59"/>
-      <c r="BL36" s="59"/>
-      <c r="BM36" s="59"/>
-      <c r="BN36" s="59"/>
-      <c r="BO36" s="59"/>
-      <c r="BP36" s="59"/>
-      <c r="BQ36" s="59"/>
-      <c r="BR36" s="59"/>
-      <c r="BS36" s="59"/>
-      <c r="BT36" s="59"/>
-      <c r="BU36" s="59"/>
-      <c r="BV36" s="59"/>
-      <c r="BW36" s="59"/>
-      <c r="BX36" s="59"/>
-      <c r="BY36" s="59"/>
-      <c r="BZ36" s="59"/>
-      <c r="CA36" s="59"/>
-      <c r="CB36" s="59"/>
-      <c r="CC36" s="59"/>
-      <c r="CD36" s="59"/>
-      <c r="CE36" s="59"/>
-      <c r="CF36" s="59"/>
-      <c r="CG36" s="59"/>
-      <c r="CH36" s="59"/>
-      <c r="CI36" s="59"/>
-      <c r="CJ36" s="59"/>
-      <c r="CK36" s="59"/>
-      <c r="CL36" s="59"/>
-      <c r="CM36" s="59"/>
-      <c r="CN36" s="59"/>
-      <c r="CO36" s="59"/>
-      <c r="CP36" s="59"/>
-      <c r="CQ36" s="59"/>
-      <c r="CR36" s="59"/>
-      <c r="CS36" s="59"/>
-      <c r="CT36" s="59"/>
-      <c r="CU36" s="59"/>
-      <c r="CV36" s="59"/>
-      <c r="CW36" s="59"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="60"/>
+      <c r="AN36" s="60"/>
+      <c r="AO36" s="60"/>
+      <c r="AP36" s="60"/>
+      <c r="AQ36" s="60"/>
+      <c r="AR36" s="60"/>
+      <c r="AS36" s="60"/>
+      <c r="AT36" s="60"/>
+      <c r="AU36" s="60"/>
+      <c r="AV36" s="60"/>
+      <c r="AW36" s="60"/>
+      <c r="AX36" s="60"/>
+      <c r="AY36" s="60"/>
+      <c r="AZ36" s="60"/>
+      <c r="BA36" s="60"/>
+      <c r="BB36" s="60"/>
+      <c r="BC36" s="60"/>
+      <c r="BD36" s="60"/>
+      <c r="BE36" s="60"/>
+      <c r="BF36" s="60"/>
+      <c r="BG36" s="60"/>
+      <c r="BH36" s="60"/>
+      <c r="BI36" s="60"/>
+      <c r="BJ36" s="60"/>
+      <c r="BK36" s="60"/>
+      <c r="BL36" s="60"/>
+      <c r="BM36" s="60"/>
+      <c r="BN36" s="60"/>
+      <c r="BO36" s="60"/>
+      <c r="BP36" s="60"/>
+      <c r="BQ36" s="60"/>
+      <c r="BR36" s="60"/>
+      <c r="BS36" s="60"/>
+      <c r="BT36" s="60"/>
+      <c r="BU36" s="60"/>
+      <c r="BV36" s="60"/>
+      <c r="BW36" s="60"/>
+      <c r="BX36" s="60"/>
+      <c r="BY36" s="60"/>
+      <c r="BZ36" s="60"/>
+      <c r="CA36" s="60"/>
+      <c r="CB36" s="60"/>
+      <c r="CC36" s="60"/>
+      <c r="CD36" s="60"/>
+      <c r="CE36" s="60"/>
+      <c r="CF36" s="60"/>
+      <c r="CG36" s="60"/>
+      <c r="CH36" s="60"/>
+      <c r="CI36" s="60"/>
+      <c r="CJ36" s="60"/>
+      <c r="CK36" s="60"/>
+      <c r="CL36" s="60"/>
+      <c r="CM36" s="60"/>
+      <c r="CN36" s="60"/>
+      <c r="CO36" s="60"/>
+      <c r="CP36" s="60"/>
+      <c r="CQ36" s="60"/>
+      <c r="CR36" s="60"/>
+      <c r="CS36" s="60"/>
+      <c r="CT36" s="60"/>
+      <c r="CU36" s="60"/>
+      <c r="CV36" s="60"/>
+      <c r="CW36" s="60"/>
     </row>
     <row r="37" ht="22.5" spans="2:101">
-      <c r="B37" s="18"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="59"/>
-      <c r="AO37" s="59"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="59"/>
-      <c r="AR37" s="59"/>
-      <c r="AS37" s="59"/>
-      <c r="AT37" s="59"/>
-      <c r="AU37" s="59"/>
-      <c r="AV37" s="59"/>
-      <c r="AW37" s="59"/>
-      <c r="AX37" s="59"/>
-      <c r="AY37" s="59"/>
-      <c r="AZ37" s="59"/>
-      <c r="BA37" s="59"/>
-      <c r="BB37" s="59"/>
-      <c r="BC37" s="59"/>
-      <c r="BD37" s="59"/>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="59"/>
-      <c r="BJ37" s="59"/>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="59"/>
-      <c r="BM37" s="59"/>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="59"/>
-      <c r="BP37" s="59"/>
-      <c r="BQ37" s="59"/>
-      <c r="BR37" s="59"/>
-      <c r="BS37" s="59"/>
-      <c r="BT37" s="59"/>
-      <c r="BU37" s="59"/>
-      <c r="BV37" s="59"/>
-      <c r="BW37" s="59"/>
-      <c r="BX37" s="59"/>
-      <c r="BY37" s="59"/>
-      <c r="BZ37" s="59"/>
-      <c r="CA37" s="59"/>
-      <c r="CB37" s="59"/>
-      <c r="CC37" s="59"/>
-      <c r="CD37" s="59"/>
-      <c r="CE37" s="59"/>
-      <c r="CF37" s="59"/>
-      <c r="CG37" s="59"/>
-      <c r="CH37" s="59"/>
-      <c r="CI37" s="59"/>
-      <c r="CJ37" s="59"/>
-      <c r="CK37" s="59"/>
-      <c r="CL37" s="59"/>
-      <c r="CM37" s="59"/>
-      <c r="CN37" s="59"/>
-      <c r="CO37" s="59"/>
-      <c r="CP37" s="59"/>
-      <c r="CQ37" s="59"/>
-      <c r="CR37" s="59"/>
-      <c r="CS37" s="59"/>
-      <c r="CT37" s="59"/>
-      <c r="CU37" s="59"/>
-      <c r="CV37" s="59"/>
-      <c r="CW37" s="59"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="60"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="60"/>
+      <c r="AP37" s="60"/>
+      <c r="AQ37" s="60"/>
+      <c r="AR37" s="60"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="60"/>
+      <c r="AU37" s="60"/>
+      <c r="AV37" s="60"/>
+      <c r="AW37" s="60"/>
+      <c r="AX37" s="60"/>
+      <c r="AY37" s="60"/>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="60"/>
+      <c r="BB37" s="60"/>
+      <c r="BC37" s="60"/>
+      <c r="BD37" s="60"/>
+      <c r="BE37" s="60"/>
+      <c r="BF37" s="60"/>
+      <c r="BG37" s="60"/>
+      <c r="BH37" s="60"/>
+      <c r="BI37" s="60"/>
+      <c r="BJ37" s="60"/>
+      <c r="BK37" s="60"/>
+      <c r="BL37" s="60"/>
+      <c r="BM37" s="60"/>
+      <c r="BN37" s="60"/>
+      <c r="BO37" s="60"/>
+      <c r="BP37" s="60"/>
+      <c r="BQ37" s="60"/>
+      <c r="BR37" s="60"/>
+      <c r="BS37" s="60"/>
+      <c r="BT37" s="60"/>
+      <c r="BU37" s="60"/>
+      <c r="BV37" s="60"/>
+      <c r="BW37" s="60"/>
+      <c r="BX37" s="60"/>
+      <c r="BY37" s="60"/>
+      <c r="BZ37" s="60"/>
+      <c r="CA37" s="60"/>
+      <c r="CB37" s="60"/>
+      <c r="CC37" s="60"/>
+      <c r="CD37" s="60"/>
+      <c r="CE37" s="60"/>
+      <c r="CF37" s="60"/>
+      <c r="CG37" s="60"/>
+      <c r="CH37" s="60"/>
+      <c r="CI37" s="60"/>
+      <c r="CJ37" s="60"/>
+      <c r="CK37" s="60"/>
+      <c r="CL37" s="60"/>
+      <c r="CM37" s="60"/>
+      <c r="CN37" s="60"/>
+      <c r="CO37" s="60"/>
+      <c r="CP37" s="60"/>
+      <c r="CQ37" s="60"/>
+      <c r="CR37" s="60"/>
+      <c r="CS37" s="60"/>
+      <c r="CT37" s="60"/>
+      <c r="CU37" s="60"/>
+      <c r="CV37" s="60"/>
+      <c r="CW37" s="60"/>
     </row>
     <row r="38" ht="22.5" spans="2:101">
-      <c r="B38" s="18"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="59"/>
-      <c r="AN38" s="59"/>
-      <c r="AO38" s="59"/>
-      <c r="AP38" s="59"/>
-      <c r="AQ38" s="59"/>
-      <c r="AR38" s="59"/>
-      <c r="AS38" s="59"/>
-      <c r="AT38" s="59"/>
-      <c r="AU38" s="59"/>
-      <c r="AV38" s="59"/>
-      <c r="AW38" s="59"/>
-      <c r="AX38" s="59"/>
-      <c r="AY38" s="59"/>
-      <c r="AZ38" s="59"/>
-      <c r="BA38" s="59"/>
-      <c r="BB38" s="59"/>
-      <c r="BC38" s="59"/>
-      <c r="BD38" s="59"/>
-      <c r="BE38" s="59"/>
-      <c r="BF38" s="59"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="59"/>
-      <c r="BM38" s="59"/>
-      <c r="BN38" s="59"/>
-      <c r="BO38" s="59"/>
-      <c r="BP38" s="59"/>
-      <c r="BQ38" s="59"/>
-      <c r="BR38" s="59"/>
-      <c r="BS38" s="59"/>
-      <c r="BT38" s="59"/>
-      <c r="BU38" s="59"/>
-      <c r="BV38" s="59"/>
-      <c r="BW38" s="59"/>
-      <c r="BX38" s="59"/>
-      <c r="BY38" s="59"/>
-      <c r="BZ38" s="59"/>
-      <c r="CA38" s="59"/>
-      <c r="CB38" s="59"/>
-      <c r="CC38" s="59"/>
-      <c r="CD38" s="59"/>
-      <c r="CE38" s="59"/>
-      <c r="CF38" s="59"/>
-      <c r="CG38" s="59"/>
-      <c r="CH38" s="59"/>
-      <c r="CI38" s="59"/>
-      <c r="CJ38" s="59"/>
-      <c r="CK38" s="59"/>
-      <c r="CL38" s="59"/>
-      <c r="CM38" s="59"/>
-      <c r="CN38" s="59"/>
-      <c r="CO38" s="59"/>
-      <c r="CP38" s="59"/>
-      <c r="CQ38" s="59"/>
-      <c r="CR38" s="59"/>
-      <c r="CS38" s="59"/>
-      <c r="CT38" s="59"/>
-      <c r="CU38" s="59"/>
-      <c r="CV38" s="59"/>
-      <c r="CW38" s="59"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="60"/>
+      <c r="AI38" s="60"/>
+      <c r="AJ38" s="60"/>
+      <c r="AK38" s="60"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="60"/>
+      <c r="AN38" s="60"/>
+      <c r="AO38" s="60"/>
+      <c r="AP38" s="60"/>
+      <c r="AQ38" s="60"/>
+      <c r="AR38" s="60"/>
+      <c r="AS38" s="60"/>
+      <c r="AT38" s="60"/>
+      <c r="AU38" s="60"/>
+      <c r="AV38" s="60"/>
+      <c r="AW38" s="60"/>
+      <c r="AX38" s="60"/>
+      <c r="AY38" s="60"/>
+      <c r="AZ38" s="60"/>
+      <c r="BA38" s="60"/>
+      <c r="BB38" s="60"/>
+      <c r="BC38" s="60"/>
+      <c r="BD38" s="60"/>
+      <c r="BE38" s="60"/>
+      <c r="BF38" s="60"/>
+      <c r="BG38" s="60"/>
+      <c r="BH38" s="60"/>
+      <c r="BI38" s="60"/>
+      <c r="BJ38" s="60"/>
+      <c r="BK38" s="60"/>
+      <c r="BL38" s="60"/>
+      <c r="BM38" s="60"/>
+      <c r="BN38" s="60"/>
+      <c r="BO38" s="60"/>
+      <c r="BP38" s="60"/>
+      <c r="BQ38" s="60"/>
+      <c r="BR38" s="60"/>
+      <c r="BS38" s="60"/>
+      <c r="BT38" s="60"/>
+      <c r="BU38" s="60"/>
+      <c r="BV38" s="60"/>
+      <c r="BW38" s="60"/>
+      <c r="BX38" s="60"/>
+      <c r="BY38" s="60"/>
+      <c r="BZ38" s="60"/>
+      <c r="CA38" s="60"/>
+      <c r="CB38" s="60"/>
+      <c r="CC38" s="60"/>
+      <c r="CD38" s="60"/>
+      <c r="CE38" s="60"/>
+      <c r="CF38" s="60"/>
+      <c r="CG38" s="60"/>
+      <c r="CH38" s="60"/>
+      <c r="CI38" s="60"/>
+      <c r="CJ38" s="60"/>
+      <c r="CK38" s="60"/>
+      <c r="CL38" s="60"/>
+      <c r="CM38" s="60"/>
+      <c r="CN38" s="60"/>
+      <c r="CO38" s="60"/>
+      <c r="CP38" s="60"/>
+      <c r="CQ38" s="60"/>
+      <c r="CR38" s="60"/>
+      <c r="CS38" s="60"/>
+      <c r="CT38" s="60"/>
+      <c r="CU38" s="60"/>
+      <c r="CV38" s="60"/>
+      <c r="CW38" s="60"/>
     </row>
     <row r="39" ht="22.5" spans="2:101">
-      <c r="B39" s="18"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="59"/>
-      <c r="AN39" s="59"/>
-      <c r="AO39" s="59"/>
-      <c r="AP39" s="59"/>
-      <c r="AQ39" s="59"/>
-      <c r="AR39" s="59"/>
-      <c r="AS39" s="59"/>
-      <c r="AT39" s="59"/>
-      <c r="AU39" s="59"/>
-      <c r="AV39" s="59"/>
-      <c r="AW39" s="59"/>
-      <c r="AX39" s="59"/>
-      <c r="AY39" s="59"/>
-      <c r="AZ39" s="59"/>
-      <c r="BA39" s="59"/>
-      <c r="BB39" s="59"/>
-      <c r="BC39" s="59"/>
-      <c r="BD39" s="59"/>
-      <c r="BE39" s="59"/>
-      <c r="BF39" s="59"/>
-      <c r="BG39" s="59"/>
-      <c r="BH39" s="59"/>
-      <c r="BI39" s="59"/>
-      <c r="BJ39" s="59"/>
-      <c r="BK39" s="59"/>
-      <c r="BL39" s="59"/>
-      <c r="BM39" s="59"/>
-      <c r="BN39" s="59"/>
-      <c r="BO39" s="59"/>
-      <c r="BP39" s="59"/>
-      <c r="BQ39" s="59"/>
-      <c r="BR39" s="59"/>
-      <c r="BS39" s="59"/>
-      <c r="BT39" s="59"/>
-      <c r="BU39" s="59"/>
-      <c r="BV39" s="59"/>
-      <c r="BW39" s="59"/>
-      <c r="BX39" s="59"/>
-      <c r="BY39" s="59"/>
-      <c r="BZ39" s="59"/>
-      <c r="CA39" s="59"/>
-      <c r="CB39" s="59"/>
-      <c r="CC39" s="59"/>
-      <c r="CD39" s="59"/>
-      <c r="CE39" s="59"/>
-      <c r="CF39" s="59"/>
-      <c r="CG39" s="59"/>
-      <c r="CH39" s="59"/>
-      <c r="CI39" s="59"/>
-      <c r="CJ39" s="59"/>
-      <c r="CK39" s="59"/>
-      <c r="CL39" s="59"/>
-      <c r="CM39" s="59"/>
-      <c r="CN39" s="59"/>
-      <c r="CO39" s="59"/>
-      <c r="CP39" s="59"/>
-      <c r="CQ39" s="59"/>
-      <c r="CR39" s="59"/>
-      <c r="CS39" s="59"/>
-      <c r="CT39" s="59"/>
-      <c r="CU39" s="59"/>
-      <c r="CV39" s="59"/>
-      <c r="CW39" s="59"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="60"/>
+      <c r="AI39" s="60"/>
+      <c r="AJ39" s="60"/>
+      <c r="AK39" s="60"/>
+      <c r="AL39" s="60"/>
+      <c r="AM39" s="60"/>
+      <c r="AN39" s="60"/>
+      <c r="AO39" s="60"/>
+      <c r="AP39" s="60"/>
+      <c r="AQ39" s="60"/>
+      <c r="AR39" s="60"/>
+      <c r="AS39" s="60"/>
+      <c r="AT39" s="60"/>
+      <c r="AU39" s="60"/>
+      <c r="AV39" s="60"/>
+      <c r="AW39" s="60"/>
+      <c r="AX39" s="60"/>
+      <c r="AY39" s="60"/>
+      <c r="AZ39" s="60"/>
+      <c r="BA39" s="60"/>
+      <c r="BB39" s="60"/>
+      <c r="BC39" s="60"/>
+      <c r="BD39" s="60"/>
+      <c r="BE39" s="60"/>
+      <c r="BF39" s="60"/>
+      <c r="BG39" s="60"/>
+      <c r="BH39" s="60"/>
+      <c r="BI39" s="60"/>
+      <c r="BJ39" s="60"/>
+      <c r="BK39" s="60"/>
+      <c r="BL39" s="60"/>
+      <c r="BM39" s="60"/>
+      <c r="BN39" s="60"/>
+      <c r="BO39" s="60"/>
+      <c r="BP39" s="60"/>
+      <c r="BQ39" s="60"/>
+      <c r="BR39" s="60"/>
+      <c r="BS39" s="60"/>
+      <c r="BT39" s="60"/>
+      <c r="BU39" s="60"/>
+      <c r="BV39" s="60"/>
+      <c r="BW39" s="60"/>
+      <c r="BX39" s="60"/>
+      <c r="BY39" s="60"/>
+      <c r="BZ39" s="60"/>
+      <c r="CA39" s="60"/>
+      <c r="CB39" s="60"/>
+      <c r="CC39" s="60"/>
+      <c r="CD39" s="60"/>
+      <c r="CE39" s="60"/>
+      <c r="CF39" s="60"/>
+      <c r="CG39" s="60"/>
+      <c r="CH39" s="60"/>
+      <c r="CI39" s="60"/>
+      <c r="CJ39" s="60"/>
+      <c r="CK39" s="60"/>
+      <c r="CL39" s="60"/>
+      <c r="CM39" s="60"/>
+      <c r="CN39" s="60"/>
+      <c r="CO39" s="60"/>
+      <c r="CP39" s="60"/>
+      <c r="CQ39" s="60"/>
+      <c r="CR39" s="60"/>
+      <c r="CS39" s="60"/>
+      <c r="CT39" s="60"/>
+      <c r="CU39" s="60"/>
+      <c r="CV39" s="60"/>
+      <c r="CW39" s="60"/>
     </row>
     <row r="40" ht="14.25" spans="2:101">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="12"/>
-      <c r="AK40" s="12"/>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="12"/>
-      <c r="AN40" s="12"/>
-      <c r="AO40" s="12"/>
-      <c r="AP40" s="12"/>
-      <c r="AQ40" s="12"/>
-      <c r="AR40" s="12"/>
-      <c r="AS40" s="12"/>
-      <c r="AT40" s="12"/>
-      <c r="AU40" s="12"/>
-      <c r="AV40" s="12"/>
-      <c r="AW40" s="12"/>
-      <c r="AX40" s="12"/>
-      <c r="AY40" s="12"/>
-      <c r="AZ40" s="12"/>
-      <c r="BA40" s="12"/>
-      <c r="BB40" s="12"/>
-      <c r="BC40" s="12"/>
-      <c r="BD40" s="12"/>
-      <c r="BE40" s="12"/>
-      <c r="BF40" s="12"/>
-      <c r="BG40" s="12"/>
-      <c r="BH40" s="12"/>
-      <c r="BI40" s="12"/>
-      <c r="BJ40" s="12"/>
-      <c r="BK40" s="12"/>
-      <c r="BL40" s="12"/>
-      <c r="BM40" s="12"/>
-      <c r="BN40" s="12"/>
-      <c r="BO40" s="12"/>
-      <c r="BP40" s="12"/>
-      <c r="BQ40" s="12"/>
-      <c r="BR40" s="12"/>
-      <c r="BS40" s="12"/>
-      <c r="BT40" s="12"/>
-      <c r="BU40" s="12"/>
-      <c r="BV40" s="12"/>
-      <c r="BW40" s="12"/>
-      <c r="BX40" s="12"/>
-      <c r="BY40" s="12"/>
-      <c r="BZ40" s="12"/>
-      <c r="CA40" s="12"/>
-      <c r="CB40" s="12"/>
-      <c r="CC40" s="12"/>
-      <c r="CD40" s="12"/>
-      <c r="CE40" s="12"/>
-      <c r="CF40" s="12"/>
-      <c r="CG40" s="12"/>
-      <c r="CH40" s="12"/>
-      <c r="CI40" s="12"/>
-      <c r="CJ40" s="12"/>
-      <c r="CK40" s="12"/>
-      <c r="CL40" s="12"/>
-      <c r="CM40" s="12"/>
-      <c r="CN40" s="12"/>
-      <c r="CO40" s="12"/>
-      <c r="CP40" s="12"/>
-      <c r="CQ40" s="12"/>
-      <c r="CR40" s="12"/>
-      <c r="CS40" s="12"/>
-      <c r="CT40" s="12"/>
-      <c r="CU40" s="12"/>
-      <c r="CV40" s="12"/>
-      <c r="CW40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
+      <c r="AS40" s="13"/>
+      <c r="AT40" s="13"/>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="13"/>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13"/>
+      <c r="AY40" s="13"/>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="13"/>
+      <c r="BB40" s="13"/>
+      <c r="BC40" s="13"/>
+      <c r="BD40" s="13"/>
+      <c r="BE40" s="13"/>
+      <c r="BF40" s="13"/>
+      <c r="BG40" s="13"/>
+      <c r="BH40" s="13"/>
+      <c r="BI40" s="13"/>
+      <c r="BJ40" s="13"/>
+      <c r="BK40" s="13"/>
+      <c r="BL40" s="13"/>
+      <c r="BM40" s="13"/>
+      <c r="BN40" s="13"/>
+      <c r="BO40" s="13"/>
+      <c r="BP40" s="13"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="13"/>
+      <c r="BS40" s="13"/>
+      <c r="BT40" s="13"/>
+      <c r="BU40" s="13"/>
+      <c r="BV40" s="13"/>
+      <c r="BW40" s="13"/>
+      <c r="BX40" s="13"/>
+      <c r="BY40" s="13"/>
+      <c r="BZ40" s="13"/>
+      <c r="CA40" s="13"/>
+      <c r="CB40" s="13"/>
+      <c r="CC40" s="13"/>
+      <c r="CD40" s="13"/>
+      <c r="CE40" s="13"/>
+      <c r="CF40" s="13"/>
+      <c r="CG40" s="13"/>
+      <c r="CH40" s="13"/>
+      <c r="CI40" s="13"/>
+      <c r="CJ40" s="13"/>
+      <c r="CK40" s="13"/>
+      <c r="CL40" s="13"/>
+      <c r="CM40" s="13"/>
+      <c r="CN40" s="13"/>
+      <c r="CO40" s="13"/>
+      <c r="CP40" s="13"/>
+      <c r="CQ40" s="13"/>
+      <c r="CR40" s="13"/>
+      <c r="CS40" s="13"/>
+      <c r="CT40" s="13"/>
+      <c r="CU40" s="13"/>
+      <c r="CV40" s="13"/>
+      <c r="CW40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -15550,25 +15596,25 @@
     <col min="1" max="1" width="9.26666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16111,8 +16157,8 @@
   <sheetPr/>
   <dimension ref="A1:DO7"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CH1" sqref="CH1:CK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -16135,19 +16181,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F1" t="s">
@@ -16390,16 +16436,16 @@
       <c r="CG1" t="s">
         <v>104</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="2" t="s">
         <v>135</v>
       </c>
       <c r="CL1" t="s">
@@ -16432,81 +16478,71 @@
       <c r="CU1" t="s">
         <v>145</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CV1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CX1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CY1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="DA1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="DB1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DC1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="DD1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DE1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="DF1" s="5" t="s">
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DG1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DH1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DI1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DJ1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DK1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="DL1" s="5" t="s">
+      <c r="DL1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DM1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="DN1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="DO1" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="100:100">
-      <c r="CV3" s="3"/>
+      <c r="CV3" s="4"/>
     </row>
     <row r="4" spans="100:100">
-      <c r="CV4" s="3"/>
+      <c r="CV4" s="4"/>
     </row>
     <row r="5" spans="100:100">
-      <c r="CV5" s="3"/>
+      <c r="CV5" s="4"/>
     </row>
     <row r="6" spans="100:100">
-      <c r="CV6" s="3"/>
+      <c r="CV6" s="4"/>
     </row>
     <row r="7" spans="100:100">
-      <c r="CV7" s="3"/>
+      <c r="CV7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16516,6 +16552,99 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="5" width="30.8166666666667" customWidth="1"/>
+    <col min="6" max="9" width="31.9083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="str">
+        <f>IF(_acsReport1_day_each!B2="","",_)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="5" width="30.8166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
